--- a/InputData/indst/PIFURfE/Perc Indst Fuel Use Reduction for Elec.xlsx
+++ b/InputData/indst/PIFURfE/Perc Indst Fuel Use Reduction for Elec.xlsx
@@ -1,23 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeff Rissman\CodeRepositories\eps-us\InputData\indst\PIFURfE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13ED131B-5805-4322-8338-AD35EEC5EF6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06B41C68-DFE6-4CD7-B6F4-92A8676F4F83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13515" yWindow="1275" windowWidth="26865" windowHeight="20775" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11070" yWindow="0" windowWidth="32460" windowHeight="18330" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="Table 5.2" sheetId="4" r:id="rId2"/>
-    <sheet name="Calculations" sheetId="5" r:id="rId3"/>
-    <sheet name="PIFURfE" sheetId="2" r:id="rId4"/>
+    <sheet name="Med-High Temp Heat" sheetId="5" r:id="rId3"/>
+    <sheet name="Low Temp Heat" sheetId="6" r:id="rId4"/>
+    <sheet name="PIFURfE" sheetId="2" r:id="rId5"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId6"/>
+  </externalReferences>
   <definedNames>
     <definedName name="_Regression_Int" localSheetId="1" hidden="1">1</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Table 5.2'!$A$1:$J$1921</definedName>
@@ -41,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8870" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8912" uniqueCount="339">
   <si>
     <t>Percentage Industry Fuel Use Reduction for Electricity</t>
   </si>
@@ -969,7 +973,106 @@
     <t>medium and high temperature</t>
   </si>
   <si>
-    <t>Add data and sourcing for temperature disaggregation</t>
+    <t>Temp Increase (°C)</t>
+  </si>
+  <si>
+    <t>COP</t>
+  </si>
+  <si>
+    <t>Arpagaus, Cordin et al.</t>
+  </si>
+  <si>
+    <t>High Temperature Heat Pumps: Market Overview, State of the Art, Research Status, Refrigerants, and Application Potentials</t>
+  </si>
+  <si>
+    <t>https://docs.lib.purdue.edu/cgi/viewcontent.cgi?article=2875&amp;context=iracc</t>
+  </si>
+  <si>
+    <t>Industrial Heat Pump Efficiency</t>
+  </si>
+  <si>
+    <t>Room Temperature</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Temp Need for Low-Temp Heat</t>
+  </si>
+  <si>
+    <t>See variable indst/IHDbT</t>
+  </si>
+  <si>
+    <t>The low-temp heat range represents the heat that can be delivered by industrial heat pumps,</t>
+  </si>
+  <si>
+    <t>i.e., up to about 150-165 C.  This represents around 30% of the total bar height in IHDbT.</t>
+  </si>
+  <si>
+    <t>Of that 30%:</t>
+  </si>
+  <si>
+    <t>We assume the average heat need in the &lt;100 C category is:</t>
+  </si>
+  <si>
+    <t>We assume the average heat need in the 100 to 165 C category is:</t>
+  </si>
+  <si>
+    <t>The weighted average temperature requirement among low-temp processes is:</t>
+  </si>
+  <si>
+    <t>percentage points are &lt;100 C.</t>
+  </si>
+  <si>
+    <t>percentage points range from 100 to 165 C.</t>
+  </si>
+  <si>
+    <t>This corresponds to a temperature increase (relative to a room temp heat sink) of:</t>
+  </si>
+  <si>
+    <t>This corresponds to a coefficient of performance (according to graph at right) of about:</t>
+  </si>
+  <si>
+    <t>A boiler represents a fairly typical piece of industrial equipment that often delivers</t>
+  </si>
+  <si>
+    <t>low-temperature heat.  Here are some statistics on fossil boiler efficiency from U.S. DOE:</t>
+  </si>
+  <si>
+    <t>Fossil Fuel Equipment Efficiency</t>
+  </si>
+  <si>
+    <t>We will use the mid-tier to represent a typical boiler that would be replaced with electric.</t>
+  </si>
+  <si>
+    <t>To deliver 1 unit of heat, the fossil fuel boiler needs:</t>
+  </si>
+  <si>
+    <t>units of energy</t>
+  </si>
+  <si>
+    <t>To deliver one unit of heat, the heat pump needs:</t>
+  </si>
+  <si>
+    <t>Therefore, the percent energy use reduction from switching is:</t>
+  </si>
+  <si>
+    <t>Low temp electrical heat is provided by heat pumps.</t>
+  </si>
+  <si>
+    <t>Heat pumps have a range of efficiencies depending on the amount of temperature increase they deliver.</t>
+  </si>
+  <si>
+    <t>Medium and High-Temp electrical heat can be provided by a range of technologies, such as</t>
+  </si>
+  <si>
+    <t>induction, electric resistance, infrared, dielectric heating, etc.</t>
+  </si>
+  <si>
+    <t>For low-temperature industrial heat, we use industrial heat pumps.</t>
+  </si>
+  <si>
+    <t>We will use some representative technologies below to form our estimate.</t>
   </si>
 </sst>
 </file>
@@ -981,7 +1084,7 @@
     <numFmt numFmtId="165" formatCode="#,##0.0"/>
     <numFmt numFmtId="166" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1055,8 +1158,24 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1072,12 +1191,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1118,13 +1231,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -1205,10 +1319,21 @@
     <xf numFmtId="10" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
+    <cellStyle name="Hyperlink" xfId="4" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
@@ -1225,6 +1350,2821 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Low Temp Heat'!$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>COP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="31750">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Low Temp Heat'!$A$5:$A$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45.2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>50.8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>56.4</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>60.2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>63.2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>61.4</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>84.7</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>130</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Low Temp Heat'!$B$5:$B$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>5.77</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.99</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.01</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.71</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.05</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.95</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.66</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.39</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.9800000000000004</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.99</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.35</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.98</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.89</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.75</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.06</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.69</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.45</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.37</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.98</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2.48</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.98</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.69</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2.19</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.98</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.58</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F89E-481B-8A06-51EB1A1DD5A5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1808965472"/>
+        <c:axId val="1808962144"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1808965472"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="20"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1808962144"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1808962144"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="6"/>
+          <c:min val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1808965472"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
+        <c:minorUnit val="0.5"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800"/>
+              <a:t>Industrial Heat Pump Efficiency vs. Delivered</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" baseline="0"/>
+              <a:t> Temperature Increase</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1800"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Low Temp Heat'!$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>COP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Low Temp Heat'!$A$5:$A$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45.2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>50.8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>56.4</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>60.2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>63.2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>61.4</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>84.7</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>130</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Low Temp Heat'!$B$5:$B$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>5.77</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.99</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.01</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.71</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.05</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.95</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.66</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.39</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.9800000000000004</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.99</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.35</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.98</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.89</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.75</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.06</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.69</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.45</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.37</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.98</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2.48</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.98</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.69</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2.19</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.98</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.58</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5C27-49BD-A190-E44C93998AE1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2005302688"/>
+        <c:axId val="2005298112"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2005302688"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="20"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1600"/>
+                  <a:t>Temperature Increase (°C)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2005298112"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2005298112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="6"/>
+          <c:min val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1600"/>
+                  <a:t>Coefficient of Performance (COP)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="9.1590044939753746E-3"/>
+              <c:y val="0.24265854338040146"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2005302688"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>20292</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>168551</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>477493</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>69684</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE7CBCCD-4900-470E-BA07-C511D1972A37}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2631263" y="168551"/>
+          <a:ext cx="7718612" cy="7140133"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>329852</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>151881</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>229843</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>130450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CC9ED2A-445F-4E79-9491-62E66D5F2D4E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>13485</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>178538</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>247688</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>140438</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DFDDFCA-1A6E-4A33-8F40-5AD5479E6B9D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="1">
+          <cell r="B1" t="str">
+            <v>COP</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="A2">
+            <v>25</v>
+          </cell>
+          <cell r="B2">
+            <v>5.77</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3">
+            <v>30</v>
+          </cell>
+          <cell r="B3">
+            <v>4.99</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4">
+            <v>35</v>
+          </cell>
+          <cell r="B4">
+            <v>4.01</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5">
+            <v>40</v>
+          </cell>
+          <cell r="B5">
+            <v>4.71</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6">
+            <v>40</v>
+          </cell>
+          <cell r="B6">
+            <v>4.25</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7">
+            <v>40</v>
+          </cell>
+          <cell r="B7">
+            <v>4.05</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8">
+            <v>40</v>
+          </cell>
+          <cell r="B8">
+            <v>3.95</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9">
+            <v>40</v>
+          </cell>
+          <cell r="B9">
+            <v>3.66</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10">
+            <v>40</v>
+          </cell>
+          <cell r="B10">
+            <v>3.39</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11">
+            <v>45</v>
+          </cell>
+          <cell r="B11">
+            <v>4.9800000000000004</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12">
+            <v>45.2</v>
+          </cell>
+          <cell r="B12">
+            <v>3.99</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13">
+            <v>50</v>
+          </cell>
+          <cell r="B13">
+            <v>4.0999999999999996</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14">
+            <v>50.8</v>
+          </cell>
+          <cell r="B14">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15">
+            <v>50</v>
+          </cell>
+          <cell r="B15">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16">
+            <v>50</v>
+          </cell>
+          <cell r="B16">
+            <v>3.6</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17">
+            <v>50</v>
+          </cell>
+          <cell r="B17">
+            <v>3.35</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="A18">
+            <v>50</v>
+          </cell>
+          <cell r="B18">
+            <v>3.1</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="A19">
+            <v>50</v>
+          </cell>
+          <cell r="B19">
+            <v>2.98</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="A20">
+            <v>55</v>
+          </cell>
+          <cell r="B20">
+            <v>3.5</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="A21">
+            <v>55</v>
+          </cell>
+          <cell r="B21">
+            <v>2.7</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="A22">
+            <v>56.4</v>
+          </cell>
+          <cell r="B22">
+            <v>3.6</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="A23">
+            <v>60.2</v>
+          </cell>
+          <cell r="B23">
+            <v>4.5</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="A24">
+            <v>60</v>
+          </cell>
+          <cell r="B24">
+            <v>2.89</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="A25">
+            <v>60</v>
+          </cell>
+          <cell r="B25">
+            <v>2.75</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="A26">
+            <v>60</v>
+          </cell>
+          <cell r="B26">
+            <v>2.06</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="A27">
+            <v>63.2</v>
+          </cell>
+          <cell r="B27">
+            <v>2.69</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="A28">
+            <v>61.4</v>
+          </cell>
+          <cell r="B28">
+            <v>3.45</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="A29">
+            <v>65</v>
+          </cell>
+          <cell r="B29">
+            <v>3.1</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="A30">
+            <v>70</v>
+          </cell>
+          <cell r="B30">
+            <v>2.6</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="A31">
+            <v>75</v>
+          </cell>
+          <cell r="B31">
+            <v>2.7</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="A32">
+            <v>75</v>
+          </cell>
+          <cell r="B32">
+            <v>2.37</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="A33">
+            <v>80</v>
+          </cell>
+          <cell r="B33">
+            <v>2.2999999999999998</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="A34">
+            <v>84.7</v>
+          </cell>
+          <cell r="B34">
+            <v>2.2999999999999998</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="A35">
+            <v>90</v>
+          </cell>
+          <cell r="B35">
+            <v>1.98</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="A36">
+            <v>95</v>
+          </cell>
+          <cell r="B36">
+            <v>2.48</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="A37">
+            <v>95</v>
+          </cell>
+          <cell r="B37">
+            <v>1.98</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="A38">
+            <v>100</v>
+          </cell>
+          <cell r="B38">
+            <v>1.69</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="A39">
+            <v>105</v>
+          </cell>
+          <cell r="B39">
+            <v>2.19</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="A40">
+            <v>115</v>
+          </cell>
+          <cell r="B40">
+            <v>1.98</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="A41">
+            <v>130</v>
+          </cell>
+          <cell r="B41">
+            <v>1.58</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1548,7 +4488,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:B35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1645,43 +4585,70 @@
         <v>284</v>
       </c>
     </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B22" s="32" t="s">
+        <v>310</v>
+      </c>
+    </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+      <c r="B23" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B24" s="33">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B26" s="45" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="43" t="s">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="43" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="43" t="s">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="43" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="1"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="43" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="45" t="s">
-        <v>305</v>
-      </c>
-      <c r="B30" s="45"/>
-    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B26" r:id="rId1" xr:uid="{AE0B3FDC-7092-4F02-BB35-56CA5D290868}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -52719,7 +55686,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:B35"/>
+  <dimension ref="A1:B39"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -52730,190 +55697,782 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+      <c r="A1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="32" t="s">
         <v>269</v>
       </c>
-      <c r="B1" s="38"/>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="36">
+      <c r="B5" s="38"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="36">
         <f>AVERAGE(0.56,0.7)</f>
         <v>0.63</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B6" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="42">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="42">
         <f>AVERAGE(0.8,0.83)</f>
         <v>0.81499999999999995</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B7" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="34">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="34">
         <f>AVERAGE(0.9,0.985)</f>
         <v>0.9425</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B8" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="35">
         <f>AVERAGE(0.95,1)</f>
         <v>0.97499999999999998</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B9" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="39">
-        <f>(A5-A3)/A3</f>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="39">
+        <f>(A9-A7)/A7</f>
         <v>0.19631901840490804</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B15" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="32" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="32" t="s">
         <v>285</v>
       </c>
-      <c r="B14" s="38"/>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="B18" s="38"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="34">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="34">
         <v>0.2</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B23" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="34">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="34">
         <v>0.35</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B24" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="34">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="34">
         <v>0.6</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B25" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="34">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="34">
         <v>0.8</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B26" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="40">
-        <f>1-A20</f>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="40">
+        <f>1-A24</f>
         <v>0.65</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B31" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="32" t="s">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="32" t="s">
         <v>295</v>
       </c>
-      <c r="B29" s="38"/>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="B33" s="38"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="37">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="37">
         <f>SUM('Table 5.2'!E20:I20,'Table 5.2'!E24:I24,'Table 5.2'!E30:I30)/SUM('Table 5.2'!E20:I20,'Table 5.2'!E23:I23,'Table 5.2'!E29:I29)</f>
         <v>0.92744126578232378</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B36" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="37">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="37">
         <f>SUM('Table 5.2'!E25:I28,'Table 5.2'!E31:I35)/SUM('Table 5.2'!E20:I20,'Table 5.2'!E23:I23,'Table 5.2'!E29:I29)</f>
         <v>7.1439987214319961E-2</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B37" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="41">
-        <f>A32*A11+A33*A27</f>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="41">
+        <f>A36*A15+A37*A31</f>
         <v>0.22851035061589922</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B39" t="s">
         <v>299</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A32:A33" formulaRange="1"/>
+    <ignoredError sqref="A36:A37" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E954BD9-F2E9-49BD-A674-73E808A9938A}">
+  <dimension ref="A1:B95"/>
+  <sheetViews>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="44" t="s">
+        <v>305</v>
+      </c>
+      <c r="B4" s="44" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>25</v>
+      </c>
+      <c r="B5">
+        <v>5.77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>30</v>
+      </c>
+      <c r="B6">
+        <v>4.99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>35</v>
+      </c>
+      <c r="B7">
+        <v>4.01</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>40</v>
+      </c>
+      <c r="B8">
+        <v>4.71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>40</v>
+      </c>
+      <c r="B9">
+        <v>4.25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>40</v>
+      </c>
+      <c r="B10">
+        <v>4.05</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>40</v>
+      </c>
+      <c r="B11">
+        <v>3.95</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>40</v>
+      </c>
+      <c r="B12">
+        <v>3.66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>40</v>
+      </c>
+      <c r="B13">
+        <v>3.39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>45</v>
+      </c>
+      <c r="B14">
+        <v>4.9800000000000004</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>45.2</v>
+      </c>
+      <c r="B15">
+        <v>3.99</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>50</v>
+      </c>
+      <c r="B16">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>50.8</v>
+      </c>
+      <c r="B17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>50</v>
+      </c>
+      <c r="B18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>50</v>
+      </c>
+      <c r="B19">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>50</v>
+      </c>
+      <c r="B20">
+        <v>3.35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>50</v>
+      </c>
+      <c r="B21">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>50</v>
+      </c>
+      <c r="B22">
+        <v>2.98</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>55</v>
+      </c>
+      <c r="B23">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>55</v>
+      </c>
+      <c r="B24">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>56.4</v>
+      </c>
+      <c r="B25">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>60.2</v>
+      </c>
+      <c r="B26">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>60</v>
+      </c>
+      <c r="B27">
+        <v>2.89</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>60</v>
+      </c>
+      <c r="B28">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>60</v>
+      </c>
+      <c r="B29">
+        <v>2.06</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>63.2</v>
+      </c>
+      <c r="B30">
+        <v>2.69</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>61.4</v>
+      </c>
+      <c r="B31">
+        <v>3.45</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>65</v>
+      </c>
+      <c r="B32">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>70</v>
+      </c>
+      <c r="B33">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>75</v>
+      </c>
+      <c r="B34">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>75</v>
+      </c>
+      <c r="B35">
+        <v>2.37</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>80</v>
+      </c>
+      <c r="B36">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>84.7</v>
+      </c>
+      <c r="B37">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>90</v>
+      </c>
+      <c r="B38">
+        <v>1.98</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>95</v>
+      </c>
+      <c r="B39">
+        <v>2.48</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>95</v>
+      </c>
+      <c r="B40">
+        <v>1.98</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>100</v>
+      </c>
+      <c r="B41">
+        <v>1.69</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>105</v>
+      </c>
+      <c r="B42">
+        <v>2.19</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>115</v>
+      </c>
+      <c r="B43">
+        <v>1.98</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>130</v>
+      </c>
+      <c r="B44">
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="43"/>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="43"/>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="46" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="43">
+        <v>23</v>
+      </c>
+      <c r="B49" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="43"/>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="47" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>315</v>
+      </c>
+      <c r="B54" s="34"/>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>12</v>
+      </c>
+      <c r="B58" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>18</v>
+      </c>
+      <c r="B59" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>75</v>
+      </c>
+      <c r="B62" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>130</v>
+      </c>
+      <c r="B65" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <f>(A58*A62+A59*A65)/SUM(A58:A59)</f>
+        <v>108</v>
+      </c>
+      <c r="B68" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <f>A68-A49</f>
+        <v>85</v>
+      </c>
+      <c r="B71" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="32" t="s">
+        <v>327</v>
+      </c>
+      <c r="B77" s="38"/>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" s="48" t="s">
+        <v>269</v>
+      </c>
+      <c r="B81" s="49"/>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" s="36">
+        <f>AVERAGE(0.56,0.7)</f>
+        <v>0.63</v>
+      </c>
+      <c r="B82" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" s="42">
+        <f>AVERAGE(0.8,0.83)</f>
+        <v>0.81499999999999995</v>
+      </c>
+      <c r="B83" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" s="34">
+        <f>AVERAGE(0.9,0.985)</f>
+        <v>0.9425</v>
+      </c>
+      <c r="B84" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <f>1/A83</f>
+        <v>1.2269938650306749</v>
+      </c>
+      <c r="B89" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <f>1/A74</f>
+        <v>0.4</v>
+      </c>
+      <c r="B92" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" s="50">
+        <f>(A89-A92)/A89</f>
+        <v>0.67399999999999993</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
@@ -52937,16 +56496,18 @@
       <c r="A2" t="s">
         <v>303</v>
       </c>
-      <c r="B2" s="44">
-        <v>0.73</v>
+      <c r="B2" s="51">
+        <f>'Low Temp Heat'!A95</f>
+        <v>0.67399999999999993</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>304</v>
       </c>
-      <c r="B3" s="45">
-        <v>0.32</v>
+      <c r="B3" s="51">
+        <f>'Med-High Temp Heat'!A39</f>
+        <v>0.22851035061589922</v>
       </c>
     </row>
   </sheetData>

--- a/InputData/indst/PIFURfE/Perc Indst Fuel Use Reduction for Elec.xlsx
+++ b/InputData/indst/PIFURfE/Perc Indst Fuel Use Reduction for Elec.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Modeling\EPS\US\eps-us\InputData\indst\PIFURfE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D117B166-0744-4A3C-A414-E2C86F94FC6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5907E955-550C-485B-AFA7-F963D806D78E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4035" yWindow="2235" windowWidth="21555" windowHeight="12090" firstSheet="3" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -21,10 +21,10 @@
     <sheet name="Efficiencies" sheetId="8" r:id="rId6"/>
     <sheet name="Temperature Breakdown" sheetId="9" r:id="rId7"/>
     <sheet name="References" sheetId="10" r:id="rId8"/>
-    <sheet name="PIFURfE" sheetId="2" r:id="rId9"/>
+    <sheet name="Mapping" sheetId="12" r:id="rId9"/>
+    <sheet name="PIFURfE" sheetId="2" r:id="rId10"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId10"/>
     <externalReference r:id="rId11"/>
     <externalReference r:id="rId12"/>
     <externalReference r:id="rId13"/>
@@ -315,7 +315,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8923" uniqueCount="460">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9005" uniqueCount="485">
   <si>
     <t>Percentage Industry Fuel Use Reduction for Electricity</t>
   </si>
@@ -1229,9 +1229,6 @@
     <t>Unit: dimensionless (percent reduction in fuel use)</t>
   </si>
   <si>
-    <t>Perc Reduction in Fuel Use</t>
-  </si>
-  <si>
     <t>Combustion Equipment Efficiency by Temperature</t>
   </si>
   <si>
@@ -1604,12 +1601,6 @@
     <t>High (&gt;400C)</t>
   </si>
   <si>
-    <t>Medium (150-400C)</t>
-  </si>
-  <si>
-    <t>Low (&lt;150C)</t>
-  </si>
-  <si>
     <t>Simple average share of industrial heat:</t>
   </si>
   <si>
@@ -1638,9 +1629,6 @@
   </si>
   <si>
     <t>Rajesh Dixit</t>
-  </si>
-  <si>
-    <t>year unkn</t>
   </si>
   <si>
     <t>The New Era of Absorption Chillers</t>
@@ -1696,6 +1684,93 @@
   <si>
     <t>Average</t>
   </si>
+  <si>
+    <t>agriculture and forestry 01T03</t>
+  </si>
+  <si>
+    <t>coal mining 05</t>
+  </si>
+  <si>
+    <t>oil and gas extraction 06</t>
+  </si>
+  <si>
+    <t>other mining and quarrying 07T08</t>
+  </si>
+  <si>
+    <t>food beverage and tobacco 10T12</t>
+  </si>
+  <si>
+    <t>textiles apparel and leather 13T15</t>
+  </si>
+  <si>
+    <t>wood products 16</t>
+  </si>
+  <si>
+    <t>pulp paper and printing 17T18</t>
+  </si>
+  <si>
+    <t>refined petroleum and coke 19</t>
+  </si>
+  <si>
+    <t>chemicals 20</t>
+  </si>
+  <si>
+    <t>rubber and plastic products 22</t>
+  </si>
+  <si>
+    <t>glass and glass products 231</t>
+  </si>
+  <si>
+    <t>cement and other nonmetallic minerals 239</t>
+  </si>
+  <si>
+    <t>iron and steel 241</t>
+  </si>
+  <si>
+    <t>other metals 242</t>
+  </si>
+  <si>
+    <t>metal products except machinery and vehicles 25</t>
+  </si>
+  <si>
+    <t>computers and electronics 26</t>
+  </si>
+  <si>
+    <t>appliances and electrical equipment 27</t>
+  </si>
+  <si>
+    <t>other machinery 28</t>
+  </si>
+  <si>
+    <t>road vehicles 29</t>
+  </si>
+  <si>
+    <t>nonroad vehicles 30</t>
+  </si>
+  <si>
+    <t>other manufacturing 31T33</t>
+  </si>
+  <si>
+    <t>energy pipelines and gas processing 352T353</t>
+  </si>
+  <si>
+    <t>water and waste 36T39</t>
+  </si>
+  <si>
+    <t>construction 41T43</t>
+  </si>
+  <si>
+    <t>Boilers</t>
+  </si>
+  <si>
+    <t>Low (&lt;165C)</t>
+  </si>
+  <si>
+    <t>Medium (165-400C)</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
 </sst>
 </file>
 
@@ -1703,7 +1778,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0%"/>
-    <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="168" formatCode="0.000"/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
@@ -1786,7 +1861,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1802,12 +1877,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2007,7 +2076,7 @@
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2041,8 +2110,8 @@
     <xf numFmtId="9" fontId="0" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2055,14 +2124,18 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2072,16 +2145,12 @@
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="Body: normal cell" xfId="8" xr:uid="{D820F1CE-A112-4A27-BC46-BDF513CEFB00}"/>
@@ -4851,1677 +4920,6 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId3"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="About"/>
-      <sheetName val="Graphs"/>
-      <sheetName val="Time Series Graphs"/>
-      <sheetName val="Subindstry Demand Cng Graphs"/>
-      <sheetName val="Subindustry Color Sort Graphs"/>
-      <sheetName val="Energy Use Data"/>
-      <sheetName val="Other Country-Specific Data"/>
-      <sheetName val="Achivable Interventions"/>
-      <sheetName val="Calculations"/>
-      <sheetName val="References"/>
-      <sheetName val="Cross-Industry CapEx Factors"/>
-      <sheetName val="Cement Process Emis"/>
-      <sheetName val="H2 Production Cost"/>
-      <sheetName val="Power Sector Cost-China"/>
-      <sheetName val="Power Sector Cost-Indonesia"/>
-      <sheetName val="Power Sector Cost-Vietnam"/>
-      <sheetName val="Steel Cost Model-China"/>
-      <sheetName val="Steel Cost Model-Indonesia"/>
-      <sheetName val="Steel Cost Model-Vietnam"/>
-      <sheetName val="Cement Cost Model-China"/>
-      <sheetName val="Cement Capacity-China"/>
-      <sheetName val="Cement Cost Model-Indonesia"/>
-      <sheetName val="Cement Capacity-Indonesia"/>
-      <sheetName val="Cement Cost Model-Vietnam"/>
-      <sheetName val="Cement Capacity-Vietnam"/>
-      <sheetName val="CAPEX per GJ"/>
-      <sheetName val="Technology Shares"/>
-      <sheetName val="Investment Comparisons"/>
-      <sheetName val="Unit Conversions"/>
-      <sheetName val="Industrial CCS Capital Costs"/>
-      <sheetName val="Other Technical Data"/>
-      <sheetName val="Temperature Breakdown"/>
-      <sheetName val="Equip Efficiency by Temperature"/>
-      <sheetName val="Electrification Potential"/>
-      <sheetName val="CESY EC 4-3"/>
-      <sheetName val="MECS T5.2"/>
-      <sheetName val="Emission Factors Hub"/>
-      <sheetName val="China Energy Prices"/>
-      <sheetName val="Vietnam Energy Prices"/>
-      <sheetName val="Indonesia Energy Prices"/>
-      <sheetName val="China steam cost notes"/>
-      <sheetName val="EPS China Non-Energy Fuel Use"/>
-      <sheetName val="China Elec Demand"/>
-      <sheetName val="Indonesia Energy Use"/>
-      <sheetName val="Indonesia Elec Projections"/>
-      <sheetName val="Vietnam Energy Use"/>
-      <sheetName val="IEA-Indonesia"/>
-      <sheetName val="IEA-Vietnam "/>
-      <sheetName val="IEA-China"/>
-      <sheetName val="IEA-United States"/>
-      <sheetName val="IEA-Extended"/>
-      <sheetName val="AEO T24 Refining"/>
-      <sheetName val="AEO T25 Food"/>
-      <sheetName val="AEO T26 Paper"/>
-      <sheetName val="AEO T27 Chemicals"/>
-      <sheetName val="AEO T28 Glass"/>
-      <sheetName val="AEO T29 Cement"/>
-      <sheetName val="AEO T30 Steel"/>
-      <sheetName val="AEO T31 Aluminum"/>
-      <sheetName val="AEO T32 Metal Prods"/>
-      <sheetName val="AEO T33 Other Mfg"/>
-      <sheetName val="AEO T3 Fuel Prices"/>
-      <sheetName val="AEO T8 Electricity Demand"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
-      <sheetData sheetId="12" refreshError="1"/>
-      <sheetData sheetId="13" refreshError="1"/>
-      <sheetData sheetId="14" refreshError="1"/>
-      <sheetData sheetId="15" refreshError="1"/>
-      <sheetData sheetId="16" refreshError="1"/>
-      <sheetData sheetId="17" refreshError="1"/>
-      <sheetData sheetId="18" refreshError="1"/>
-      <sheetData sheetId="19" refreshError="1"/>
-      <sheetData sheetId="20" refreshError="1"/>
-      <sheetData sheetId="21" refreshError="1"/>
-      <sheetData sheetId="22" refreshError="1"/>
-      <sheetData sheetId="23" refreshError="1"/>
-      <sheetData sheetId="24" refreshError="1"/>
-      <sheetData sheetId="25" refreshError="1"/>
-      <sheetData sheetId="26" refreshError="1"/>
-      <sheetData sheetId="27" refreshError="1"/>
-      <sheetData sheetId="28" refreshError="1"/>
-      <sheetData sheetId="29" refreshError="1"/>
-      <sheetData sheetId="30" refreshError="1"/>
-      <sheetData sheetId="31" refreshError="1"/>
-      <sheetData sheetId="32" refreshError="1"/>
-      <sheetData sheetId="33" refreshError="1"/>
-      <sheetData sheetId="34" refreshError="1"/>
-      <sheetData sheetId="35">
-        <row r="42">
-          <cell r="E42" t="str">
-            <v>*</v>
-          </cell>
-          <cell r="F42">
-            <v>2</v>
-          </cell>
-          <cell r="G42">
-            <v>388</v>
-          </cell>
-          <cell r="H42">
-            <v>3</v>
-          </cell>
-          <cell r="I42">
-            <v>37</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="E46" t="str">
-            <v>*</v>
-          </cell>
-          <cell r="F46" t="str">
-            <v>Q</v>
-          </cell>
-          <cell r="G46">
-            <v>167</v>
-          </cell>
-          <cell r="H46" t="str">
-            <v>Q</v>
-          </cell>
-          <cell r="I46">
-            <v>10</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="E47" t="str">
-            <v>*</v>
-          </cell>
-          <cell r="F47" t="str">
-            <v>*</v>
-          </cell>
-          <cell r="G47">
-            <v>4</v>
-          </cell>
-          <cell r="H47" t="str">
-            <v>*</v>
-          </cell>
-          <cell r="I47">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="E48" t="str">
-            <v>*</v>
-          </cell>
-          <cell r="F48" t="str">
-            <v>*</v>
-          </cell>
-          <cell r="G48">
-            <v>14</v>
-          </cell>
-          <cell r="H48" t="str">
-            <v>*</v>
-          </cell>
-          <cell r="I48">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="E49" t="str">
-            <v>--</v>
-          </cell>
-          <cell r="F49" t="str">
-            <v>--</v>
-          </cell>
-          <cell r="G49" t="str">
-            <v>--</v>
-          </cell>
-          <cell r="H49" t="str">
-            <v>--</v>
-          </cell>
-          <cell r="I49" t="str">
-            <v>--</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="E50">
-            <v>0</v>
-          </cell>
-          <cell r="F50" t="str">
-            <v>Q</v>
-          </cell>
-          <cell r="G50">
-            <v>14</v>
-          </cell>
-          <cell r="H50" t="str">
-            <v>*</v>
-          </cell>
-          <cell r="I50">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="262">
-          <cell r="E262" t="str">
-            <v>*</v>
-          </cell>
-          <cell r="F262" t="str">
-            <v>*</v>
-          </cell>
-          <cell r="G262">
-            <v>11</v>
-          </cell>
-          <cell r="H262">
-            <v>1</v>
-          </cell>
-          <cell r="I262">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="266">
-          <cell r="E266">
-            <v>0</v>
-          </cell>
-          <cell r="F266" t="str">
-            <v>*</v>
-          </cell>
-          <cell r="G266">
-            <v>9</v>
-          </cell>
-          <cell r="H266" t="str">
-            <v>*</v>
-          </cell>
-          <cell r="I266">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="267">
-          <cell r="E267">
-            <v>0</v>
-          </cell>
-          <cell r="F267">
-            <v>0</v>
-          </cell>
-          <cell r="G267" t="str">
-            <v>*</v>
-          </cell>
-          <cell r="H267">
-            <v>0</v>
-          </cell>
-          <cell r="I267">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="268">
-          <cell r="E268">
-            <v>0</v>
-          </cell>
-          <cell r="F268" t="str">
-            <v>*</v>
-          </cell>
-          <cell r="G268">
-            <v>1</v>
-          </cell>
-          <cell r="H268" t="str">
-            <v>*</v>
-          </cell>
-          <cell r="I268">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="269">
-          <cell r="E269" t="str">
-            <v>--</v>
-          </cell>
-          <cell r="F269" t="str">
-            <v>--</v>
-          </cell>
-          <cell r="G269" t="str">
-            <v>--</v>
-          </cell>
-          <cell r="H269" t="str">
-            <v>--</v>
-          </cell>
-          <cell r="I269" t="str">
-            <v>--</v>
-          </cell>
-        </row>
-        <row r="270">
-          <cell r="E270">
-            <v>0</v>
-          </cell>
-          <cell r="F270">
-            <v>0</v>
-          </cell>
-          <cell r="G270" t="str">
-            <v>*</v>
-          </cell>
-          <cell r="H270" t="str">
-            <v>*</v>
-          </cell>
-          <cell r="I270">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="350">
-          <cell r="E350" t="str">
-            <v>*</v>
-          </cell>
-          <cell r="F350" t="str">
-            <v>*</v>
-          </cell>
-          <cell r="G350">
-            <v>19</v>
-          </cell>
-          <cell r="H350" t="str">
-            <v>*</v>
-          </cell>
-          <cell r="I350" t="str">
-            <v>*</v>
-          </cell>
-        </row>
-        <row r="354">
-          <cell r="E354" t="str">
-            <v>*</v>
-          </cell>
-          <cell r="F354" t="str">
-            <v>*</v>
-          </cell>
-          <cell r="G354">
-            <v>34</v>
-          </cell>
-          <cell r="H354" t="str">
-            <v>*</v>
-          </cell>
-          <cell r="I354" t="str">
-            <v>*</v>
-          </cell>
-        </row>
-        <row r="355">
-          <cell r="E355">
-            <v>0</v>
-          </cell>
-          <cell r="F355" t="str">
-            <v>*</v>
-          </cell>
-          <cell r="G355" t="str">
-            <v>*</v>
-          </cell>
-          <cell r="H355" t="str">
-            <v>*</v>
-          </cell>
-          <cell r="I355">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="356">
-          <cell r="E356" t="str">
-            <v>*</v>
-          </cell>
-          <cell r="F356">
-            <v>1</v>
-          </cell>
-          <cell r="G356">
-            <v>2</v>
-          </cell>
-          <cell r="H356" t="str">
-            <v>*</v>
-          </cell>
-          <cell r="I356">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="357">
-          <cell r="E357" t="str">
-            <v>--</v>
-          </cell>
-          <cell r="F357" t="str">
-            <v>--</v>
-          </cell>
-          <cell r="G357" t="str">
-            <v>--</v>
-          </cell>
-          <cell r="H357" t="str">
-            <v>--</v>
-          </cell>
-          <cell r="I357" t="str">
-            <v>--</v>
-          </cell>
-        </row>
-        <row r="358">
-          <cell r="E358">
-            <v>0</v>
-          </cell>
-          <cell r="F358" t="str">
-            <v>Q</v>
-          </cell>
-          <cell r="G358">
-            <v>4</v>
-          </cell>
-          <cell r="H358" t="str">
-            <v>*</v>
-          </cell>
-          <cell r="I358">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="460">
-          <cell r="E460">
-            <v>7</v>
-          </cell>
-          <cell r="F460">
-            <v>2</v>
-          </cell>
-          <cell r="G460">
-            <v>386</v>
-          </cell>
-          <cell r="H460" t="str">
-            <v>*</v>
-          </cell>
-          <cell r="I460">
-            <v>52</v>
-          </cell>
-        </row>
-        <row r="464">
-          <cell r="E464">
-            <v>2</v>
-          </cell>
-          <cell r="F464" t="str">
-            <v>*</v>
-          </cell>
-          <cell r="G464">
-            <v>143</v>
-          </cell>
-          <cell r="H464" t="str">
-            <v>*</v>
-          </cell>
-          <cell r="I464">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="465">
-          <cell r="E465">
-            <v>0</v>
-          </cell>
-          <cell r="F465">
-            <v>0</v>
-          </cell>
-          <cell r="G465" t="str">
-            <v>*</v>
-          </cell>
-          <cell r="H465" t="str">
-            <v>*</v>
-          </cell>
-          <cell r="I465">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="466">
-          <cell r="E466">
-            <v>0</v>
-          </cell>
-          <cell r="F466" t="str">
-            <v>*</v>
-          </cell>
-          <cell r="G466">
-            <v>7</v>
-          </cell>
-          <cell r="H466" t="str">
-            <v>*</v>
-          </cell>
-          <cell r="I466">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="467">
-          <cell r="E467" t="str">
-            <v>--</v>
-          </cell>
-          <cell r="F467" t="str">
-            <v>--</v>
-          </cell>
-          <cell r="G467" t="str">
-            <v>--</v>
-          </cell>
-          <cell r="H467" t="str">
-            <v>--</v>
-          </cell>
-          <cell r="I467" t="str">
-            <v>--</v>
-          </cell>
-        </row>
-        <row r="468">
-          <cell r="E468">
-            <v>0</v>
-          </cell>
-          <cell r="F468" t="str">
-            <v>*</v>
-          </cell>
-          <cell r="G468">
-            <v>7</v>
-          </cell>
-          <cell r="H468" t="str">
-            <v>*</v>
-          </cell>
-          <cell r="I468" t="str">
-            <v>*</v>
-          </cell>
-        </row>
-        <row r="614">
-          <cell r="E614" t="str">
-            <v>*</v>
-          </cell>
-          <cell r="F614" t="str">
-            <v>*</v>
-          </cell>
-          <cell r="G614">
-            <v>323</v>
-          </cell>
-          <cell r="H614">
-            <v>2</v>
-          </cell>
-          <cell r="I614">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="618">
-          <cell r="E618">
-            <v>2</v>
-          </cell>
-          <cell r="F618">
-            <v>2</v>
-          </cell>
-          <cell r="G618">
-            <v>604</v>
-          </cell>
-          <cell r="H618">
-            <v>13</v>
-          </cell>
-          <cell r="I618">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="619">
-          <cell r="E619">
-            <v>0</v>
-          </cell>
-          <cell r="F619">
-            <v>0</v>
-          </cell>
-          <cell r="G619" t="str">
-            <v>*</v>
-          </cell>
-          <cell r="H619" t="str">
-            <v>*</v>
-          </cell>
-          <cell r="I619">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="620">
-          <cell r="E620">
-            <v>0</v>
-          </cell>
-          <cell r="F620">
-            <v>1</v>
-          </cell>
-          <cell r="G620">
-            <v>10</v>
-          </cell>
-          <cell r="H620" t="str">
-            <v>*</v>
-          </cell>
-          <cell r="I620">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="621">
-          <cell r="E621" t="str">
-            <v>--</v>
-          </cell>
-          <cell r="F621" t="str">
-            <v>--</v>
-          </cell>
-          <cell r="G621" t="str">
-            <v>--</v>
-          </cell>
-          <cell r="H621" t="str">
-            <v>--</v>
-          </cell>
-          <cell r="I621" t="str">
-            <v>--</v>
-          </cell>
-        </row>
-        <row r="622">
-          <cell r="E622">
-            <v>0</v>
-          </cell>
-          <cell r="F622" t="str">
-            <v>*</v>
-          </cell>
-          <cell r="G622">
-            <v>22</v>
-          </cell>
-          <cell r="H622" t="str">
-            <v>*</v>
-          </cell>
-          <cell r="I622">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="724">
-          <cell r="E724">
-            <v>2</v>
-          </cell>
-          <cell r="F724">
-            <v>2</v>
-          </cell>
-          <cell r="G724">
-            <v>1203</v>
-          </cell>
-          <cell r="H724">
-            <v>1</v>
-          </cell>
-          <cell r="I724">
-            <v>98</v>
-          </cell>
-        </row>
-        <row r="728">
-          <cell r="E728" t="str">
-            <v>*</v>
-          </cell>
-          <cell r="F728" t="str">
-            <v>*</v>
-          </cell>
-          <cell r="G728">
-            <v>797</v>
-          </cell>
-          <cell r="H728">
-            <v>1</v>
-          </cell>
-          <cell r="I728">
-            <v>7</v>
-          </cell>
-        </row>
-        <row r="729">
-          <cell r="E729">
-            <v>0</v>
-          </cell>
-          <cell r="F729" t="str">
-            <v>*</v>
-          </cell>
-          <cell r="G729">
-            <v>9</v>
-          </cell>
-          <cell r="H729" t="str">
-            <v>*</v>
-          </cell>
-          <cell r="I729">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="730">
-          <cell r="E730">
-            <v>0</v>
-          </cell>
-          <cell r="F730" t="str">
-            <v>*</v>
-          </cell>
-          <cell r="G730">
-            <v>89</v>
-          </cell>
-          <cell r="H730" t="str">
-            <v>*</v>
-          </cell>
-          <cell r="I730">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="731">
-          <cell r="E731" t="str">
-            <v>--</v>
-          </cell>
-          <cell r="F731" t="str">
-            <v>--</v>
-          </cell>
-          <cell r="G731" t="str">
-            <v>--</v>
-          </cell>
-          <cell r="H731" t="str">
-            <v>--</v>
-          </cell>
-          <cell r="I731" t="str">
-            <v>--</v>
-          </cell>
-        </row>
-        <row r="732">
-          <cell r="E732">
-            <v>0</v>
-          </cell>
-          <cell r="F732" t="str">
-            <v>*</v>
-          </cell>
-          <cell r="G732">
-            <v>160</v>
-          </cell>
-          <cell r="H732" t="str">
-            <v>D</v>
-          </cell>
-          <cell r="I732">
-            <v>8</v>
-          </cell>
-        </row>
-        <row r="1054">
-          <cell r="E1054" t="str">
-            <v>*</v>
-          </cell>
-          <cell r="F1054" t="str">
-            <v>*</v>
-          </cell>
-          <cell r="G1054">
-            <v>31</v>
-          </cell>
-          <cell r="H1054" t="str">
-            <v>*</v>
-          </cell>
-          <cell r="I1054">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="1058">
-          <cell r="E1058">
-            <v>0</v>
-          </cell>
-          <cell r="F1058" t="str">
-            <v>Q</v>
-          </cell>
-          <cell r="G1058">
-            <v>29</v>
-          </cell>
-          <cell r="H1058" t="str">
-            <v>*</v>
-          </cell>
-          <cell r="I1058">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="1059">
-          <cell r="E1059">
-            <v>0</v>
-          </cell>
-          <cell r="F1059">
-            <v>0</v>
-          </cell>
-          <cell r="G1059" t="str">
-            <v>*</v>
-          </cell>
-          <cell r="H1059">
-            <v>0</v>
-          </cell>
-          <cell r="I1059">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="1060">
-          <cell r="E1060">
-            <v>0</v>
-          </cell>
-          <cell r="F1060" t="str">
-            <v>*</v>
-          </cell>
-          <cell r="G1060" t="str">
-            <v>*</v>
-          </cell>
-          <cell r="H1060" t="str">
-            <v>*</v>
-          </cell>
-          <cell r="I1060">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="1061">
-          <cell r="E1061" t="str">
-            <v>--</v>
-          </cell>
-          <cell r="F1061" t="str">
-            <v>--</v>
-          </cell>
-          <cell r="G1061" t="str">
-            <v>--</v>
-          </cell>
-          <cell r="H1061" t="str">
-            <v>--</v>
-          </cell>
-          <cell r="I1061" t="str">
-            <v>--</v>
-          </cell>
-        </row>
-        <row r="1062">
-          <cell r="E1062">
-            <v>0</v>
-          </cell>
-          <cell r="F1062" t="str">
-            <v>*</v>
-          </cell>
-          <cell r="G1062" t="str">
-            <v>Q</v>
-          </cell>
-          <cell r="H1062" t="str">
-            <v>*</v>
-          </cell>
-          <cell r="I1062">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="1076">
-          <cell r="E1076">
-            <v>0</v>
-          </cell>
-          <cell r="F1076" t="str">
-            <v>*</v>
-          </cell>
-          <cell r="G1076">
-            <v>12</v>
-          </cell>
-          <cell r="H1076" t="str">
-            <v>*</v>
-          </cell>
-          <cell r="I1076" t="str">
-            <v>*</v>
-          </cell>
-        </row>
-        <row r="1080">
-          <cell r="E1080" t="str">
-            <v>*</v>
-          </cell>
-          <cell r="F1080" t="str">
-            <v>Q</v>
-          </cell>
-          <cell r="G1080">
-            <v>283</v>
-          </cell>
-          <cell r="H1080" t="str">
-            <v>Q</v>
-          </cell>
-          <cell r="I1080">
-            <v>154</v>
-          </cell>
-        </row>
-        <row r="1081">
-          <cell r="E1081">
-            <v>0</v>
-          </cell>
-          <cell r="F1081">
-            <v>0</v>
-          </cell>
-          <cell r="G1081">
-            <v>3</v>
-          </cell>
-          <cell r="H1081">
-            <v>0</v>
-          </cell>
-          <cell r="I1081">
-            <v>3</v>
-          </cell>
-        </row>
-        <row r="1082">
-          <cell r="E1082" t="str">
-            <v>*</v>
-          </cell>
-          <cell r="F1082">
-            <v>6</v>
-          </cell>
-          <cell r="G1082">
-            <v>25</v>
-          </cell>
-          <cell r="H1082" t="str">
-            <v>*</v>
-          </cell>
-          <cell r="I1082">
-            <v>14</v>
-          </cell>
-        </row>
-        <row r="1083">
-          <cell r="E1083" t="str">
-            <v>--</v>
-          </cell>
-          <cell r="F1083" t="str">
-            <v>--</v>
-          </cell>
-          <cell r="G1083" t="str">
-            <v>--</v>
-          </cell>
-          <cell r="H1083" t="str">
-            <v>--</v>
-          </cell>
-          <cell r="I1083" t="str">
-            <v>--</v>
-          </cell>
-        </row>
-        <row r="1084">
-          <cell r="E1084">
-            <v>0</v>
-          </cell>
-          <cell r="F1084" t="str">
-            <v>*</v>
-          </cell>
-          <cell r="G1084" t="str">
-            <v>Q</v>
-          </cell>
-          <cell r="H1084" t="str">
-            <v>*</v>
-          </cell>
-          <cell r="I1084" t="str">
-            <v>Q</v>
-          </cell>
-        </row>
-        <row r="1318">
-          <cell r="E1318" t="str">
-            <v>*</v>
-          </cell>
-          <cell r="F1318" t="str">
-            <v>*</v>
-          </cell>
-          <cell r="G1318">
-            <v>41</v>
-          </cell>
-          <cell r="H1318" t="str">
-            <v>*</v>
-          </cell>
-          <cell r="I1318">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="1322">
-          <cell r="E1322">
-            <v>0</v>
-          </cell>
-          <cell r="F1322" t="str">
-            <v>*</v>
-          </cell>
-          <cell r="G1322">
-            <v>314</v>
-          </cell>
-          <cell r="H1322" t="str">
-            <v>*</v>
-          </cell>
-          <cell r="I1322">
-            <v>7</v>
-          </cell>
-        </row>
-        <row r="1323">
-          <cell r="E1323">
-            <v>0</v>
-          </cell>
-          <cell r="F1323">
-            <v>0</v>
-          </cell>
-          <cell r="G1323">
-            <v>3</v>
-          </cell>
-          <cell r="H1323" t="str">
-            <v>*</v>
-          </cell>
-          <cell r="I1323">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="1324">
-          <cell r="E1324">
-            <v>0</v>
-          </cell>
-          <cell r="F1324" t="str">
-            <v>*</v>
-          </cell>
-          <cell r="G1324">
-            <v>1</v>
-          </cell>
-          <cell r="H1324" t="str">
-            <v>*</v>
-          </cell>
-          <cell r="I1324">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="1325">
-          <cell r="E1325" t="str">
-            <v>--</v>
-          </cell>
-          <cell r="F1325" t="str">
-            <v>--</v>
-          </cell>
-          <cell r="G1325" t="str">
-            <v>--</v>
-          </cell>
-          <cell r="H1325" t="str">
-            <v>--</v>
-          </cell>
-          <cell r="I1325" t="str">
-            <v>--</v>
-          </cell>
-        </row>
-        <row r="1326">
-          <cell r="E1326">
-            <v>0</v>
-          </cell>
-          <cell r="F1326" t="str">
-            <v>*</v>
-          </cell>
-          <cell r="G1326">
-            <v>31</v>
-          </cell>
-          <cell r="H1326" t="str">
-            <v>*</v>
-          </cell>
-          <cell r="I1326">
-            <v>20</v>
-          </cell>
-        </row>
-        <row r="1366">
-          <cell r="E1366">
-            <v>0</v>
-          </cell>
-          <cell r="F1366" t="str">
-            <v>*</v>
-          </cell>
-          <cell r="G1366">
-            <v>90</v>
-          </cell>
-          <cell r="H1366" t="str">
-            <v>*</v>
-          </cell>
-          <cell r="I1366">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="1367">
-          <cell r="E1367">
-            <v>0</v>
-          </cell>
-          <cell r="F1367">
-            <v>0</v>
-          </cell>
-          <cell r="G1367" t="str">
-            <v>*</v>
-          </cell>
-          <cell r="H1367" t="str">
-            <v>*</v>
-          </cell>
-          <cell r="I1367">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="1368">
-          <cell r="E1368">
-            <v>0</v>
-          </cell>
-          <cell r="F1368" t="str">
-            <v>*</v>
-          </cell>
-          <cell r="G1368">
-            <v>1</v>
-          </cell>
-          <cell r="H1368" t="str">
-            <v>*</v>
-          </cell>
-          <cell r="I1368">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="1369">
-          <cell r="E1369" t="str">
-            <v>--</v>
-          </cell>
-          <cell r="F1369" t="str">
-            <v>--</v>
-          </cell>
-          <cell r="G1369" t="str">
-            <v>--</v>
-          </cell>
-          <cell r="H1369" t="str">
-            <v>--</v>
-          </cell>
-          <cell r="I1369" t="str">
-            <v>--</v>
-          </cell>
-        </row>
-        <row r="1370">
-          <cell r="E1370">
-            <v>0</v>
-          </cell>
-          <cell r="F1370" t="str">
-            <v>*</v>
-          </cell>
-          <cell r="G1370">
-            <v>2</v>
-          </cell>
-          <cell r="H1370" t="str">
-            <v>*</v>
-          </cell>
-          <cell r="I1370">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="1372">
-          <cell r="E1372">
-            <v>0</v>
-          </cell>
-          <cell r="F1372" t="str">
-            <v>*</v>
-          </cell>
-          <cell r="G1372">
-            <v>8</v>
-          </cell>
-          <cell r="H1372" t="str">
-            <v>*</v>
-          </cell>
-          <cell r="I1372">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="1604">
-          <cell r="E1604" t="str">
-            <v>*</v>
-          </cell>
-          <cell r="F1604" t="str">
-            <v>*</v>
-          </cell>
-          <cell r="G1604">
-            <v>7</v>
-          </cell>
-          <cell r="H1604" t="str">
-            <v>*</v>
-          </cell>
-          <cell r="I1604">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="1608">
-          <cell r="E1608">
-            <v>0</v>
-          </cell>
-          <cell r="F1608" t="str">
-            <v>*</v>
-          </cell>
-          <cell r="G1608">
-            <v>19</v>
-          </cell>
-          <cell r="H1608" t="str">
-            <v>Q</v>
-          </cell>
-          <cell r="I1608">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="1609">
-          <cell r="E1609">
-            <v>0</v>
-          </cell>
-          <cell r="F1609">
-            <v>0</v>
-          </cell>
-          <cell r="G1609" t="str">
-            <v>*</v>
-          </cell>
-          <cell r="H1609">
-            <v>0</v>
-          </cell>
-          <cell r="I1609">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="1610">
-          <cell r="E1610">
-            <v>0</v>
-          </cell>
-          <cell r="F1610" t="str">
-            <v>*</v>
-          </cell>
-          <cell r="G1610">
-            <v>3</v>
-          </cell>
-          <cell r="H1610" t="str">
-            <v>*</v>
-          </cell>
-          <cell r="I1610">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="1611">
-          <cell r="E1611" t="str">
-            <v>--</v>
-          </cell>
-          <cell r="F1611" t="str">
-            <v>--</v>
-          </cell>
-          <cell r="G1611" t="str">
-            <v>--</v>
-          </cell>
-          <cell r="H1611" t="str">
-            <v>--</v>
-          </cell>
-          <cell r="I1611" t="str">
-            <v>--</v>
-          </cell>
-        </row>
-        <row r="1612">
-          <cell r="E1612">
-            <v>0</v>
-          </cell>
-          <cell r="F1612">
-            <v>1</v>
-          </cell>
-          <cell r="G1612">
-            <v>2</v>
-          </cell>
-          <cell r="H1612" t="str">
-            <v>*</v>
-          </cell>
-          <cell r="I1612">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="1626">
-          <cell r="E1626" t="str">
-            <v>*</v>
-          </cell>
-          <cell r="F1626" t="str">
-            <v>*</v>
-          </cell>
-          <cell r="G1626">
-            <v>11</v>
-          </cell>
-          <cell r="H1626" t="str">
-            <v>*</v>
-          </cell>
-          <cell r="I1626">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="1630">
-          <cell r="E1630">
-            <v>0</v>
-          </cell>
-          <cell r="F1630" t="str">
-            <v>*</v>
-          </cell>
-          <cell r="G1630">
-            <v>1</v>
-          </cell>
-          <cell r="H1630" t="str">
-            <v>*</v>
-          </cell>
-          <cell r="I1630">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="1631">
-          <cell r="E1631">
-            <v>0</v>
-          </cell>
-          <cell r="F1631">
-            <v>0</v>
-          </cell>
-          <cell r="G1631" t="str">
-            <v>*</v>
-          </cell>
-          <cell r="H1631">
-            <v>0</v>
-          </cell>
-          <cell r="I1631">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="1632">
-          <cell r="E1632">
-            <v>0</v>
-          </cell>
-          <cell r="F1632" t="str">
-            <v>*</v>
-          </cell>
-          <cell r="G1632" t="str">
-            <v>Q</v>
-          </cell>
-          <cell r="H1632" t="str">
-            <v>*</v>
-          </cell>
-          <cell r="I1632">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="1633">
-          <cell r="E1633" t="str">
-            <v>--</v>
-          </cell>
-          <cell r="F1633" t="str">
-            <v>--</v>
-          </cell>
-          <cell r="G1633" t="str">
-            <v>--</v>
-          </cell>
-          <cell r="H1633" t="str">
-            <v>--</v>
-          </cell>
-          <cell r="I1633" t="str">
-            <v>--</v>
-          </cell>
-        </row>
-        <row r="1634">
-          <cell r="E1634">
-            <v>0</v>
-          </cell>
-          <cell r="F1634" t="str">
-            <v>*</v>
-          </cell>
-          <cell r="G1634">
-            <v>1</v>
-          </cell>
-          <cell r="H1634">
-            <v>0</v>
-          </cell>
-          <cell r="I1634">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="1670">
-          <cell r="E1670">
-            <v>0</v>
-          </cell>
-          <cell r="F1670" t="str">
-            <v>*</v>
-          </cell>
-          <cell r="G1670">
-            <v>6</v>
-          </cell>
-          <cell r="H1670" t="str">
-            <v>*</v>
-          </cell>
-          <cell r="I1670">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="1674">
-          <cell r="E1674">
-            <v>0</v>
-          </cell>
-          <cell r="F1674">
-            <v>0</v>
-          </cell>
-          <cell r="G1674">
-            <v>18</v>
-          </cell>
-          <cell r="H1674" t="str">
-            <v>*</v>
-          </cell>
-          <cell r="I1674">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="1675">
-          <cell r="E1675">
-            <v>0</v>
-          </cell>
-          <cell r="F1675">
-            <v>0</v>
-          </cell>
-          <cell r="G1675" t="str">
-            <v>*</v>
-          </cell>
-          <cell r="H1675">
-            <v>0</v>
-          </cell>
-          <cell r="I1675">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="1676">
-          <cell r="E1676">
-            <v>0</v>
-          </cell>
-          <cell r="F1676" t="str">
-            <v>*</v>
-          </cell>
-          <cell r="G1676" t="str">
-            <v>*</v>
-          </cell>
-          <cell r="H1676">
-            <v>0</v>
-          </cell>
-          <cell r="I1676">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="1677">
-          <cell r="E1677" t="str">
-            <v>--</v>
-          </cell>
-          <cell r="F1677" t="str">
-            <v>--</v>
-          </cell>
-          <cell r="G1677" t="str">
-            <v>--</v>
-          </cell>
-          <cell r="H1677" t="str">
-            <v>--</v>
-          </cell>
-          <cell r="I1677" t="str">
-            <v>--</v>
-          </cell>
-        </row>
-        <row r="1678">
-          <cell r="E1678">
-            <v>0</v>
-          </cell>
-          <cell r="F1678" t="str">
-            <v>*</v>
-          </cell>
-          <cell r="G1678" t="str">
-            <v>Q</v>
-          </cell>
-          <cell r="H1678" t="str">
-            <v>*</v>
-          </cell>
-          <cell r="I1678">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="1692">
-          <cell r="E1692">
-            <v>2</v>
-          </cell>
-          <cell r="F1692" t="str">
-            <v>*</v>
-          </cell>
-          <cell r="G1692">
-            <v>25</v>
-          </cell>
-          <cell r="H1692" t="str">
-            <v>*</v>
-          </cell>
-          <cell r="I1692">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="1696">
-          <cell r="E1696">
-            <v>0</v>
-          </cell>
-          <cell r="F1696">
-            <v>0</v>
-          </cell>
-          <cell r="G1696">
-            <v>63</v>
-          </cell>
-          <cell r="H1696" t="str">
-            <v>*</v>
-          </cell>
-          <cell r="I1696">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="1697">
-          <cell r="E1697">
-            <v>0</v>
-          </cell>
-          <cell r="F1697">
-            <v>0</v>
-          </cell>
-          <cell r="G1697">
-            <v>2</v>
-          </cell>
-          <cell r="H1697" t="str">
-            <v>*</v>
-          </cell>
-          <cell r="I1697">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="1698">
-          <cell r="E1698">
-            <v>0</v>
-          </cell>
-          <cell r="F1698">
-            <v>2</v>
-          </cell>
-          <cell r="G1698">
-            <v>1</v>
-          </cell>
-          <cell r="H1698" t="str">
-            <v>*</v>
-          </cell>
-          <cell r="I1698">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="1699">
-          <cell r="E1699" t="str">
-            <v>--</v>
-          </cell>
-          <cell r="F1699" t="str">
-            <v>--</v>
-          </cell>
-          <cell r="G1699" t="str">
-            <v>--</v>
-          </cell>
-          <cell r="H1699" t="str">
-            <v>--</v>
-          </cell>
-          <cell r="I1699" t="str">
-            <v>--</v>
-          </cell>
-        </row>
-        <row r="1700">
-          <cell r="E1700" t="str">
-            <v>*</v>
-          </cell>
-          <cell r="F1700" t="str">
-            <v>*</v>
-          </cell>
-          <cell r="G1700">
-            <v>3</v>
-          </cell>
-          <cell r="H1700" t="str">
-            <v>*</v>
-          </cell>
-          <cell r="I1700">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="1824">
-          <cell r="E1824">
-            <v>0</v>
-          </cell>
-          <cell r="F1824" t="str">
-            <v>*</v>
-          </cell>
-          <cell r="G1824">
-            <v>3</v>
-          </cell>
-          <cell r="H1824" t="str">
-            <v>Q</v>
-          </cell>
-          <cell r="I1824">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="1828">
-          <cell r="E1828">
-            <v>0</v>
-          </cell>
-          <cell r="F1828" t="str">
-            <v>*</v>
-          </cell>
-          <cell r="G1828">
-            <v>10</v>
-          </cell>
-          <cell r="H1828" t="str">
-            <v>*</v>
-          </cell>
-          <cell r="I1828" t="str">
-            <v>*</v>
-          </cell>
-        </row>
-        <row r="1829">
-          <cell r="E1829">
-            <v>0</v>
-          </cell>
-          <cell r="F1829">
-            <v>0</v>
-          </cell>
-          <cell r="G1829" t="str">
-            <v>*</v>
-          </cell>
-          <cell r="H1829">
-            <v>0</v>
-          </cell>
-          <cell r="I1829">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="1830">
-          <cell r="E1830">
-            <v>0</v>
-          </cell>
-          <cell r="F1830" t="str">
-            <v>*</v>
-          </cell>
-          <cell r="G1830">
-            <v>1</v>
-          </cell>
-          <cell r="H1830" t="str">
-            <v>*</v>
-          </cell>
-          <cell r="I1830">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="1831">
-          <cell r="E1831" t="str">
-            <v>--</v>
-          </cell>
-          <cell r="F1831" t="str">
-            <v>--</v>
-          </cell>
-          <cell r="G1831" t="str">
-            <v>--</v>
-          </cell>
-          <cell r="H1831" t="str">
-            <v>--</v>
-          </cell>
-          <cell r="I1831" t="str">
-            <v>--</v>
-          </cell>
-        </row>
-        <row r="1832">
-          <cell r="E1832">
-            <v>0</v>
-          </cell>
-          <cell r="F1832">
-            <v>0</v>
-          </cell>
-          <cell r="G1832" t="str">
-            <v>Q</v>
-          </cell>
-          <cell r="H1832">
-            <v>0</v>
-          </cell>
-          <cell r="I1832">
-            <v>0</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="36" refreshError="1"/>
-      <sheetData sheetId="37" refreshError="1"/>
-      <sheetData sheetId="38" refreshError="1"/>
-      <sheetData sheetId="39" refreshError="1"/>
-      <sheetData sheetId="40" refreshError="1"/>
-      <sheetData sheetId="41" refreshError="1"/>
-      <sheetData sheetId="42" refreshError="1"/>
-      <sheetData sheetId="43" refreshError="1"/>
-      <sheetData sheetId="44" refreshError="1"/>
-      <sheetData sheetId="45" refreshError="1"/>
-      <sheetData sheetId="46" refreshError="1"/>
-      <sheetData sheetId="47" refreshError="1"/>
-      <sheetData sheetId="48" refreshError="1"/>
-      <sheetData sheetId="49" refreshError="1"/>
-      <sheetData sheetId="50" refreshError="1"/>
-      <sheetData sheetId="51" refreshError="1"/>
-      <sheetData sheetId="52" refreshError="1"/>
-      <sheetData sheetId="53" refreshError="1"/>
-      <sheetData sheetId="54" refreshError="1"/>
-      <sheetData sheetId="55" refreshError="1"/>
-      <sheetData sheetId="56" refreshError="1"/>
-      <sheetData sheetId="57" refreshError="1"/>
-      <sheetData sheetId="58" refreshError="1"/>
-      <sheetData sheetId="59" refreshError="1"/>
-      <sheetData sheetId="60" refreshError="1"/>
-      <sheetData sheetId="61" refreshError="1"/>
-      <sheetData sheetId="62" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <person displayName="Jeff Rissman" id="{87F38256-19FD-4279-907A-E96EB6D402F1}" userId="S::jeff@energyinnovation.org::f3f117cb-d7f5-455c-900f-329d977050a0" providerId="AD"/>
@@ -6842,9 +5240,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B50"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6966,37 +5362,37 @@
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B28" s="2" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B30" s="3" t="s">
-        <v>441</v>
+      <c r="B30" s="3">
+        <v>2019</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B32" s="14" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B34" s="2" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -7006,22 +5402,22 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B38" s="14" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B40" s="2" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -7064,6 +5460,1007 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr>
+    <tabColor theme="3"/>
+  </sheetPr>
+  <dimension ref="A1:I26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="45.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="9" width="17.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>264</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>269</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>268</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>271</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>266</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>265</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>456</v>
+      </c>
+      <c r="B2" s="85">
+        <f>IFERROR(SUMPRODUCT(Efficiencies!$C$25:$H$25,Efficiencies!$C$33:$H$33,Mapping!D2:I2)/SUMPRODUCT(Efficiencies!$C$33:$H$33,Mapping!D2:I2),SUMPRODUCT(Efficiencies!$C$25:$H$25,Efficiencies!$C$33:$H$33,Efficiencies!$C$27:$H$27)/SUMPRODUCT(Efficiencies!$C$33:$H$33,Efficiencies!$C$27:$H$27))</f>
+        <v>0.58424137438649415</v>
+      </c>
+      <c r="C2" s="85">
+        <f>IFERROR(SUMPRODUCT(Efficiencies!$C$25:$H$25,Efficiencies!$C$30:$H$30,Mapping!D2:I2)/SUMPRODUCT(Efficiencies!$C$30:$H$30,Mapping!D2:I2),SUMPRODUCT(Efficiencies!$C$25:$H$25,Efficiencies!$C$30:$H$30,Efficiencies!$C$27:$H$27)/SUMPRODUCT(Efficiencies!$C$30:$H$30,Efficiencies!$C$27:$H$27))</f>
+        <v>0.71523255596540547</v>
+      </c>
+      <c r="D2" s="85">
+        <f>IFERROR(SUMPRODUCT(Efficiencies!$C$25:$H$25,Efficiencies!$C$31:$H$31,Mapping!D2:I2)/SUMPRODUCT(Efficiencies!$C$31:$H$31,Mapping!D2:I2),SUMPRODUCT(Efficiencies!$C$25:$H$25,Efficiencies!$C$31:$H$31,Efficiencies!$C$27:$H$27)/SUMPRODUCT(Efficiencies!$C$31:$H$31,Efficiencies!$C$27:$H$27))</f>
+        <v>0.29055119036728594</v>
+      </c>
+      <c r="E2" s="85">
+        <f>IFERROR(SUMPRODUCT(Efficiencies!$C$25:$H$25,Efficiencies!$C$32:$H$32,Mapping!D2:I2)/SUMPRODUCT(Efficiencies!$C$32:$H$32,Mapping!D2:I2),SUMPRODUCT(Efficiencies!$C$25:$H$25,Efficiencies!$C$32:$H$32,Efficiencies!$C$27:$H$27)/SUMPRODUCT(Efficiencies!$C$32:$H$32,Efficiencies!$C$27:$H$27))</f>
+        <v>0.50307566278577831</v>
+      </c>
+      <c r="F2" s="86">
+        <f>Cooling!B15</f>
+        <v>0.80536907536907543</v>
+      </c>
+      <c r="G2" s="86">
+        <f>Efficiencies!B25</f>
+        <v>0.55208333333333337</v>
+      </c>
+      <c r="H2" s="87">
+        <f>AVERAGE(C2:G2)</f>
+        <v>0.5732623635641757</v>
+      </c>
+      <c r="I2" s="87">
+        <f>H2</f>
+        <v>0.5732623635641757</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>457</v>
+      </c>
+      <c r="B3" s="85">
+        <f>IFERROR(SUMPRODUCT(Efficiencies!$C$25:$H$25,Efficiencies!$C$33:$H$33,Mapping!D3:I3)/SUMPRODUCT(Efficiencies!$C$33:$H$33,Mapping!D3:I3),SUMPRODUCT(Efficiencies!$C$25:$H$25,Efficiencies!$C$33:$H$33,Efficiencies!$C$27:$H$27)/SUMPRODUCT(Efficiencies!$C$33:$H$33,Efficiencies!$C$27:$H$27))</f>
+        <v>0.58424137438649415</v>
+      </c>
+      <c r="C3" s="85">
+        <f>IFERROR(SUMPRODUCT(Efficiencies!$C$25:$H$25,Efficiencies!$C$30:$H$30,Mapping!D3:I3)/SUMPRODUCT(Efficiencies!$C$30:$H$30,Mapping!D3:I3),SUMPRODUCT(Efficiencies!$C$25:$H$25,Efficiencies!$C$30:$H$30,Efficiencies!$C$27:$H$27)/SUMPRODUCT(Efficiencies!$C$30:$H$30,Efficiencies!$C$27:$H$27))</f>
+        <v>0.71523255596540547</v>
+      </c>
+      <c r="D3" s="85">
+        <f>IFERROR(SUMPRODUCT(Efficiencies!$C$25:$H$25,Efficiencies!$C$31:$H$31,Mapping!D3:I3)/SUMPRODUCT(Efficiencies!$C$31:$H$31,Mapping!D3:I3),SUMPRODUCT(Efficiencies!$C$25:$H$25,Efficiencies!$C$31:$H$31,Efficiencies!$C$27:$H$27)/SUMPRODUCT(Efficiencies!$C$31:$H$31,Efficiencies!$C$27:$H$27))</f>
+        <v>0.29055119036728594</v>
+      </c>
+      <c r="E3" s="85">
+        <f>IFERROR(SUMPRODUCT(Efficiencies!$C$25:$H$25,Efficiencies!$C$32:$H$32,Mapping!D3:I3)/SUMPRODUCT(Efficiencies!$C$32:$H$32,Mapping!D3:I3),SUMPRODUCT(Efficiencies!$C$25:$H$25,Efficiencies!$C$32:$H$32,Efficiencies!$C$27:$H$27)/SUMPRODUCT(Efficiencies!$C$32:$H$32,Efficiencies!$C$27:$H$27))</f>
+        <v>0.50307566278577831</v>
+      </c>
+      <c r="F3" s="86">
+        <f>F2</f>
+        <v>0.80536907536907543</v>
+      </c>
+      <c r="G3" s="86">
+        <f>G2</f>
+        <v>0.55208333333333337</v>
+      </c>
+      <c r="H3" s="87">
+        <f t="shared" ref="H3:H26" si="0">AVERAGE(C3:G3)</f>
+        <v>0.5732623635641757</v>
+      </c>
+      <c r="I3" s="87">
+        <f t="shared" ref="I3:I26" si="1">H3</f>
+        <v>0.5732623635641757</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>458</v>
+      </c>
+      <c r="B4" s="85">
+        <f>IFERROR(SUMPRODUCT(Efficiencies!$C$25:$H$25,Efficiencies!$C$33:$H$33,Mapping!D4:I4)/SUMPRODUCT(Efficiencies!$C$33:$H$33,Mapping!D4:I4),SUMPRODUCT(Efficiencies!$C$25:$H$25,Efficiencies!$C$33:$H$33,Efficiencies!$C$27:$H$27)/SUMPRODUCT(Efficiencies!$C$33:$H$33,Efficiencies!$C$27:$H$27))</f>
+        <v>0.59149898989898986</v>
+      </c>
+      <c r="C4" s="85">
+        <f>IFERROR(SUMPRODUCT(Efficiencies!$C$25:$H$25,Efficiencies!$C$30:$H$30,Mapping!D4:I4)/SUMPRODUCT(Efficiencies!$C$30:$H$30,Mapping!D4:I4),SUMPRODUCT(Efficiencies!$C$25:$H$25,Efficiencies!$C$30:$H$30,Efficiencies!$C$27:$H$27)/SUMPRODUCT(Efficiencies!$C$30:$H$30,Efficiencies!$C$27:$H$27))</f>
+        <v>0.6592559743779256</v>
+      </c>
+      <c r="D4" s="85">
+        <f>IFERROR(SUMPRODUCT(Efficiencies!$C$25:$H$25,Efficiencies!$C$31:$H$31,Mapping!D4:I4)/SUMPRODUCT(Efficiencies!$C$31:$H$31,Mapping!D4:I4),SUMPRODUCT(Efficiencies!$C$25:$H$25,Efficiencies!$C$31:$H$31,Efficiencies!$C$27:$H$27)/SUMPRODUCT(Efficiencies!$C$31:$H$31,Efficiencies!$C$27:$H$27))</f>
+        <v>0.28527512891149248</v>
+      </c>
+      <c r="E4" s="85">
+        <f>IFERROR(SUMPRODUCT(Efficiencies!$C$25:$H$25,Efficiencies!$C$32:$H$32,Mapping!D4:I4)/SUMPRODUCT(Efficiencies!$C$32:$H$32,Mapping!D4:I4),SUMPRODUCT(Efficiencies!$C$25:$H$25,Efficiencies!$C$32:$H$32,Efficiencies!$C$27:$H$27)/SUMPRODUCT(Efficiencies!$C$32:$H$32,Efficiencies!$C$27:$H$27))</f>
+        <v>0.48016779363886791</v>
+      </c>
+      <c r="F4" s="86">
+        <f t="shared" ref="F4:F26" si="2">F3</f>
+        <v>0.80536907536907543</v>
+      </c>
+      <c r="G4" s="86">
+        <f t="shared" ref="G4:G26" si="3">G3</f>
+        <v>0.55208333333333337</v>
+      </c>
+      <c r="H4" s="87">
+        <f t="shared" si="0"/>
+        <v>0.55643026112613903</v>
+      </c>
+      <c r="I4" s="87">
+        <f t="shared" si="1"/>
+        <v>0.55643026112613903</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>459</v>
+      </c>
+      <c r="B5" s="85">
+        <f>IFERROR(SUMPRODUCT(Efficiencies!$C$25:$H$25,Efficiencies!$C$33:$H$33,Mapping!D5:I5)/SUMPRODUCT(Efficiencies!$C$33:$H$33,Mapping!D5:I5),SUMPRODUCT(Efficiencies!$C$25:$H$25,Efficiencies!$C$33:$H$33,Efficiencies!$C$27:$H$27)/SUMPRODUCT(Efficiencies!$C$33:$H$33,Efficiencies!$C$27:$H$27))</f>
+        <v>0.58424137438649415</v>
+      </c>
+      <c r="C5" s="85">
+        <f>IFERROR(SUMPRODUCT(Efficiencies!$C$25:$H$25,Efficiencies!$C$30:$H$30,Mapping!D5:I5)/SUMPRODUCT(Efficiencies!$C$30:$H$30,Mapping!D5:I5),SUMPRODUCT(Efficiencies!$C$25:$H$25,Efficiencies!$C$30:$H$30,Efficiencies!$C$27:$H$27)/SUMPRODUCT(Efficiencies!$C$30:$H$30,Efficiencies!$C$27:$H$27))</f>
+        <v>0.71523255596540547</v>
+      </c>
+      <c r="D5" s="85">
+        <f>IFERROR(SUMPRODUCT(Efficiencies!$C$25:$H$25,Efficiencies!$C$31:$H$31,Mapping!D5:I5)/SUMPRODUCT(Efficiencies!$C$31:$H$31,Mapping!D5:I5),SUMPRODUCT(Efficiencies!$C$25:$H$25,Efficiencies!$C$31:$H$31,Efficiencies!$C$27:$H$27)/SUMPRODUCT(Efficiencies!$C$31:$H$31,Efficiencies!$C$27:$H$27))</f>
+        <v>0.29055119036728594</v>
+      </c>
+      <c r="E5" s="85">
+        <f>IFERROR(SUMPRODUCT(Efficiencies!$C$25:$H$25,Efficiencies!$C$32:$H$32,Mapping!D5:I5)/SUMPRODUCT(Efficiencies!$C$32:$H$32,Mapping!D5:I5),SUMPRODUCT(Efficiencies!$C$25:$H$25,Efficiencies!$C$32:$H$32,Efficiencies!$C$27:$H$27)/SUMPRODUCT(Efficiencies!$C$32:$H$32,Efficiencies!$C$27:$H$27))</f>
+        <v>0.50307566278577831</v>
+      </c>
+      <c r="F5" s="86">
+        <f t="shared" si="2"/>
+        <v>0.80536907536907543</v>
+      </c>
+      <c r="G5" s="86">
+        <f t="shared" si="3"/>
+        <v>0.55208333333333337</v>
+      </c>
+      <c r="H5" s="87">
+        <f t="shared" si="0"/>
+        <v>0.5732623635641757</v>
+      </c>
+      <c r="I5" s="87">
+        <f t="shared" si="1"/>
+        <v>0.5732623635641757</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>460</v>
+      </c>
+      <c r="B6" s="85">
+        <f>IFERROR(SUMPRODUCT(Efficiencies!$C$25:$H$25,Efficiencies!$C$33:$H$33,Mapping!D6:I6)/SUMPRODUCT(Efficiencies!$C$33:$H$33,Mapping!D6:I6),SUMPRODUCT(Efficiencies!$C$25:$H$25,Efficiencies!$C$33:$H$33,Efficiencies!$C$27:$H$27)/SUMPRODUCT(Efficiencies!$C$33:$H$33,Efficiencies!$C$27:$H$27))</f>
+        <v>0.73780369290573378</v>
+      </c>
+      <c r="C6" s="85">
+        <f>IFERROR(SUMPRODUCT(Efficiencies!$C$25:$H$25,Efficiencies!$C$30:$H$30,Mapping!D6:I6)/SUMPRODUCT(Efficiencies!$C$30:$H$30,Mapping!D6:I6),SUMPRODUCT(Efficiencies!$C$25:$H$25,Efficiencies!$C$30:$H$30,Efficiencies!$C$27:$H$27)/SUMPRODUCT(Efficiencies!$C$30:$H$30,Efficiencies!$C$27:$H$27))</f>
+        <v>0.73780369290573378</v>
+      </c>
+      <c r="D6" s="85">
+        <f>IFERROR(SUMPRODUCT(Efficiencies!$C$25:$H$25,Efficiencies!$C$31:$H$31,Mapping!D6:I6)/SUMPRODUCT(Efficiencies!$C$31:$H$31,Mapping!D6:I6),SUMPRODUCT(Efficiencies!$C$25:$H$25,Efficiencies!$C$31:$H$31,Efficiencies!$C$27:$H$27)/SUMPRODUCT(Efficiencies!$C$31:$H$31,Efficiencies!$C$27:$H$27))</f>
+        <v>0.32656565656565656</v>
+      </c>
+      <c r="E6" s="85">
+        <f>IFERROR(SUMPRODUCT(Efficiencies!$C$25:$H$25,Efficiencies!$C$32:$H$32,Mapping!D6:I6)/SUMPRODUCT(Efficiencies!$C$32:$H$32,Mapping!D6:I6),SUMPRODUCT(Efficiencies!$C$25:$H$25,Efficiencies!$C$32:$H$32,Efficiencies!$C$27:$H$27)/SUMPRODUCT(Efficiencies!$C$32:$H$32,Efficiencies!$C$27:$H$27))</f>
+        <v>0.32656565656565661</v>
+      </c>
+      <c r="F6" s="86">
+        <f t="shared" si="2"/>
+        <v>0.80536907536907543</v>
+      </c>
+      <c r="G6" s="86">
+        <f t="shared" si="3"/>
+        <v>0.55208333333333337</v>
+      </c>
+      <c r="H6" s="87">
+        <f t="shared" si="0"/>
+        <v>0.54967748294789121</v>
+      </c>
+      <c r="I6" s="87">
+        <f t="shared" si="1"/>
+        <v>0.54967748294789121</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>461</v>
+      </c>
+      <c r="B7" s="85">
+        <f>IFERROR(SUMPRODUCT(Efficiencies!$C$25:$H$25,Efficiencies!$C$33:$H$33,Mapping!D7:I7)/SUMPRODUCT(Efficiencies!$C$33:$H$33,Mapping!D7:I7),SUMPRODUCT(Efficiencies!$C$25:$H$25,Efficiencies!$C$33:$H$33,Efficiencies!$C$27:$H$27)/SUMPRODUCT(Efficiencies!$C$33:$H$33,Efficiencies!$C$27:$H$27))</f>
+        <v>0.60270645530939648</v>
+      </c>
+      <c r="C7" s="85">
+        <f>IFERROR(SUMPRODUCT(Efficiencies!$C$25:$H$25,Efficiencies!$C$30:$H$30,Mapping!D7:I7)/SUMPRODUCT(Efficiencies!$C$30:$H$30,Mapping!D7:I7),SUMPRODUCT(Efficiencies!$C$25:$H$25,Efficiencies!$C$30:$H$30,Efficiencies!$C$27:$H$27)/SUMPRODUCT(Efficiencies!$C$30:$H$30,Efficiencies!$C$27:$H$27))</f>
+        <v>0.73201188073671308</v>
+      </c>
+      <c r="D7" s="85">
+        <f>IFERROR(SUMPRODUCT(Efficiencies!$C$25:$H$25,Efficiencies!$C$31:$H$31,Mapping!D7:I7)/SUMPRODUCT(Efficiencies!$C$31:$H$31,Mapping!D7:I7),SUMPRODUCT(Efficiencies!$C$25:$H$25,Efficiencies!$C$31:$H$31,Efficiencies!$C$27:$H$27)/SUMPRODUCT(Efficiencies!$C$31:$H$31,Efficiencies!$C$27:$H$27))</f>
+        <v>0.29282539682539677</v>
+      </c>
+      <c r="E7" s="85">
+        <f>IFERROR(SUMPRODUCT(Efficiencies!$C$25:$H$25,Efficiencies!$C$32:$H$32,Mapping!D7:I7)/SUMPRODUCT(Efficiencies!$C$32:$H$32,Mapping!D7:I7),SUMPRODUCT(Efficiencies!$C$25:$H$25,Efficiencies!$C$32:$H$32,Efficiencies!$C$27:$H$27)/SUMPRODUCT(Efficiencies!$C$32:$H$32,Efficiencies!$C$27:$H$27))</f>
+        <v>0.32656565656565656</v>
+      </c>
+      <c r="F7" s="86">
+        <f t="shared" si="2"/>
+        <v>0.80536907536907543</v>
+      </c>
+      <c r="G7" s="86">
+        <f t="shared" si="3"/>
+        <v>0.55208333333333337</v>
+      </c>
+      <c r="H7" s="87">
+        <f t="shared" si="0"/>
+        <v>0.54177106856603507</v>
+      </c>
+      <c r="I7" s="87">
+        <f t="shared" si="1"/>
+        <v>0.54177106856603507</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>462</v>
+      </c>
+      <c r="B8" s="85">
+        <f>IFERROR(SUMPRODUCT(Efficiencies!$C$25:$H$25,Efficiencies!$C$33:$H$33,Mapping!D8:I8)/SUMPRODUCT(Efficiencies!$C$33:$H$33,Mapping!D8:I8),SUMPRODUCT(Efficiencies!$C$25:$H$25,Efficiencies!$C$33:$H$33,Efficiencies!$C$27:$H$27)/SUMPRODUCT(Efficiencies!$C$33:$H$33,Efficiencies!$C$27:$H$27))</f>
+        <v>0.44301370851370858</v>
+      </c>
+      <c r="C8" s="85">
+        <f>IFERROR(SUMPRODUCT(Efficiencies!$C$25:$H$25,Efficiencies!$C$30:$H$30,Mapping!D8:I8)/SUMPRODUCT(Efficiencies!$C$30:$H$30,Mapping!D8:I8),SUMPRODUCT(Efficiencies!$C$25:$H$25,Efficiencies!$C$30:$H$30,Efficiencies!$C$27:$H$27)/SUMPRODUCT(Efficiencies!$C$30:$H$30,Efficiencies!$C$27:$H$27))</f>
+        <v>0.6489663986806844</v>
+      </c>
+      <c r="D8" s="85">
+        <f>IFERROR(SUMPRODUCT(Efficiencies!$C$25:$H$25,Efficiencies!$C$31:$H$31,Mapping!D8:I8)/SUMPRODUCT(Efficiencies!$C$31:$H$31,Mapping!D8:I8),SUMPRODUCT(Efficiencies!$C$25:$H$25,Efficiencies!$C$31:$H$31,Efficiencies!$C$27:$H$27)/SUMPRODUCT(Efficiencies!$C$31:$H$31,Efficiencies!$C$27:$H$27))</f>
+        <v>0.29282539682539677</v>
+      </c>
+      <c r="E8" s="85">
+        <f>IFERROR(SUMPRODUCT(Efficiencies!$C$25:$H$25,Efficiencies!$C$32:$H$32,Mapping!D8:I8)/SUMPRODUCT(Efficiencies!$C$32:$H$32,Mapping!D8:I8),SUMPRODUCT(Efficiencies!$C$25:$H$25,Efficiencies!$C$32:$H$32,Efficiencies!$C$27:$H$27)/SUMPRODUCT(Efficiencies!$C$32:$H$32,Efficiencies!$C$27:$H$27))</f>
+        <v>0.32656565656565656</v>
+      </c>
+      <c r="F8" s="86">
+        <f t="shared" si="2"/>
+        <v>0.80536907536907543</v>
+      </c>
+      <c r="G8" s="86">
+        <f t="shared" si="3"/>
+        <v>0.55208333333333337</v>
+      </c>
+      <c r="H8" s="87">
+        <f t="shared" si="0"/>
+        <v>0.5251619721548294</v>
+      </c>
+      <c r="I8" s="87">
+        <f t="shared" si="1"/>
+        <v>0.5251619721548294</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>463</v>
+      </c>
+      <c r="B9" s="85">
+        <f>IFERROR(SUMPRODUCT(Efficiencies!$C$25:$H$25,Efficiencies!$C$33:$H$33,Mapping!D9:I9)/SUMPRODUCT(Efficiencies!$C$33:$H$33,Mapping!D9:I9),SUMPRODUCT(Efficiencies!$C$25:$H$25,Efficiencies!$C$33:$H$33,Efficiencies!$C$27:$H$27)/SUMPRODUCT(Efficiencies!$C$33:$H$33,Efficiencies!$C$27:$H$27))</f>
+        <v>0.64081355426182995</v>
+      </c>
+      <c r="C9" s="85">
+        <f>IFERROR(SUMPRODUCT(Efficiencies!$C$25:$H$25,Efficiencies!$C$30:$H$30,Mapping!D9:I9)/SUMPRODUCT(Efficiencies!$C$30:$H$30,Mapping!D9:I9),SUMPRODUCT(Efficiencies!$C$25:$H$25,Efficiencies!$C$30:$H$30,Efficiencies!$C$27:$H$27)/SUMPRODUCT(Efficiencies!$C$30:$H$30,Efficiencies!$C$27:$H$27))</f>
+        <v>0.74941582761807468</v>
+      </c>
+      <c r="D9" s="85">
+        <f>IFERROR(SUMPRODUCT(Efficiencies!$C$25:$H$25,Efficiencies!$C$31:$H$31,Mapping!D9:I9)/SUMPRODUCT(Efficiencies!$C$31:$H$31,Mapping!D9:I9),SUMPRODUCT(Efficiencies!$C$25:$H$25,Efficiencies!$C$31:$H$31,Efficiencies!$C$27:$H$27)/SUMPRODUCT(Efficiencies!$C$31:$H$31,Efficiencies!$C$27:$H$27))</f>
+        <v>0.28282828282828276</v>
+      </c>
+      <c r="E9" s="85">
+        <f>IFERROR(SUMPRODUCT(Efficiencies!$C$25:$H$25,Efficiencies!$C$32:$H$32,Mapping!D9:I9)/SUMPRODUCT(Efficiencies!$C$32:$H$32,Mapping!D9:I9),SUMPRODUCT(Efficiencies!$C$25:$H$25,Efficiencies!$C$32:$H$32,Efficiencies!$C$27:$H$27)/SUMPRODUCT(Efficiencies!$C$32:$H$32,Efficiencies!$C$27:$H$27))</f>
+        <v>0.48818181818181811</v>
+      </c>
+      <c r="F9" s="86">
+        <f t="shared" si="2"/>
+        <v>0.80536907536907543</v>
+      </c>
+      <c r="G9" s="86">
+        <f t="shared" si="3"/>
+        <v>0.55208333333333337</v>
+      </c>
+      <c r="H9" s="87">
+        <f t="shared" si="0"/>
+        <v>0.57557566746611688</v>
+      </c>
+      <c r="I9" s="87">
+        <f t="shared" si="1"/>
+        <v>0.57557566746611688</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>464</v>
+      </c>
+      <c r="B10" s="85">
+        <f>IFERROR(SUMPRODUCT(Efficiencies!$C$25:$H$25,Efficiencies!$C$33:$H$33,Mapping!D10:I10)/SUMPRODUCT(Efficiencies!$C$33:$H$33,Mapping!D10:I10),SUMPRODUCT(Efficiencies!$C$25:$H$25,Efficiencies!$C$33:$H$33,Efficiencies!$C$27:$H$27)/SUMPRODUCT(Efficiencies!$C$33:$H$33,Efficiencies!$C$27:$H$27))</f>
+        <v>0.43474346641013317</v>
+      </c>
+      <c r="C10" s="85">
+        <f>IFERROR(SUMPRODUCT(Efficiencies!$C$25:$H$25,Efficiencies!$C$30:$H$30,Mapping!D10:I10)/SUMPRODUCT(Efficiencies!$C$30:$H$30,Mapping!D10:I10),SUMPRODUCT(Efficiencies!$C$25:$H$25,Efficiencies!$C$30:$H$30,Efficiencies!$C$27:$H$27)/SUMPRODUCT(Efficiencies!$C$30:$H$30,Efficiencies!$C$27:$H$27))</f>
+        <v>0.64027577360910692</v>
+      </c>
+      <c r="D10" s="85">
+        <f>IFERROR(SUMPRODUCT(Efficiencies!$C$25:$H$25,Efficiencies!$C$31:$H$31,Mapping!D10:I10)/SUMPRODUCT(Efficiencies!$C$31:$H$31,Mapping!D10:I10),SUMPRODUCT(Efficiencies!$C$25:$H$25,Efficiencies!$C$31:$H$31,Efficiencies!$C$27:$H$27)/SUMPRODUCT(Efficiencies!$C$31:$H$31,Efficiencies!$C$27:$H$27))</f>
+        <v>0.29187739463601531</v>
+      </c>
+      <c r="E10" s="85">
+        <f>IFERROR(SUMPRODUCT(Efficiencies!$C$25:$H$25,Efficiencies!$C$32:$H$32,Mapping!D10:I10)/SUMPRODUCT(Efficiencies!$C$32:$H$32,Mapping!D10:I10),SUMPRODUCT(Efficiencies!$C$25:$H$25,Efficiencies!$C$32:$H$32,Efficiencies!$C$27:$H$27)/SUMPRODUCT(Efficiencies!$C$32:$H$32,Efficiencies!$C$27:$H$27))</f>
+        <v>0.33987902278599952</v>
+      </c>
+      <c r="F10" s="86">
+        <f t="shared" si="2"/>
+        <v>0.80536907536907543</v>
+      </c>
+      <c r="G10" s="86">
+        <f t="shared" si="3"/>
+        <v>0.55208333333333337</v>
+      </c>
+      <c r="H10" s="87">
+        <f t="shared" si="0"/>
+        <v>0.52589691994670607</v>
+      </c>
+      <c r="I10" s="87">
+        <f t="shared" si="1"/>
+        <v>0.52589691994670607</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>465</v>
+      </c>
+      <c r="B11" s="85">
+        <f>IFERROR(SUMPRODUCT(Efficiencies!$C$25:$H$25,Efficiencies!$C$33:$H$33,Mapping!D11:I11)/SUMPRODUCT(Efficiencies!$C$33:$H$33,Mapping!D11:I11),SUMPRODUCT(Efficiencies!$C$25:$H$25,Efficiencies!$C$33:$H$33,Efficiencies!$C$27:$H$27)/SUMPRODUCT(Efficiencies!$C$33:$H$33,Efficiencies!$C$27:$H$27))</f>
+        <v>0.59149898989898986</v>
+      </c>
+      <c r="C11" s="85">
+        <f>IFERROR(SUMPRODUCT(Efficiencies!$C$25:$H$25,Efficiencies!$C$30:$H$30,Mapping!D11:I11)/SUMPRODUCT(Efficiencies!$C$30:$H$30,Mapping!D11:I11),SUMPRODUCT(Efficiencies!$C$25:$H$25,Efficiencies!$C$30:$H$30,Efficiencies!$C$27:$H$27)/SUMPRODUCT(Efficiencies!$C$30:$H$30,Efficiencies!$C$27:$H$27))</f>
+        <v>0.6592559743779256</v>
+      </c>
+      <c r="D11" s="85">
+        <f>IFERROR(SUMPRODUCT(Efficiencies!$C$25:$H$25,Efficiencies!$C$31:$H$31,Mapping!D11:I11)/SUMPRODUCT(Efficiencies!$C$31:$H$31,Mapping!D11:I11),SUMPRODUCT(Efficiencies!$C$25:$H$25,Efficiencies!$C$31:$H$31,Efficiencies!$C$27:$H$27)/SUMPRODUCT(Efficiencies!$C$31:$H$31,Efficiencies!$C$27:$H$27))</f>
+        <v>0.28527512891149248</v>
+      </c>
+      <c r="E11" s="85">
+        <f>IFERROR(SUMPRODUCT(Efficiencies!$C$25:$H$25,Efficiencies!$C$32:$H$32,Mapping!D11:I11)/SUMPRODUCT(Efficiencies!$C$32:$H$32,Mapping!D11:I11),SUMPRODUCT(Efficiencies!$C$25:$H$25,Efficiencies!$C$32:$H$32,Efficiencies!$C$27:$H$27)/SUMPRODUCT(Efficiencies!$C$32:$H$32,Efficiencies!$C$27:$H$27))</f>
+        <v>0.48016779363886791</v>
+      </c>
+      <c r="F11" s="86">
+        <f t="shared" si="2"/>
+        <v>0.80536907536907543</v>
+      </c>
+      <c r="G11" s="86">
+        <f t="shared" si="3"/>
+        <v>0.55208333333333337</v>
+      </c>
+      <c r="H11" s="87">
+        <f t="shared" si="0"/>
+        <v>0.55643026112613903</v>
+      </c>
+      <c r="I11" s="87">
+        <f t="shared" si="1"/>
+        <v>0.55643026112613903</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>466</v>
+      </c>
+      <c r="B12" s="85">
+        <f>IFERROR(SUMPRODUCT(Efficiencies!$C$25:$H$25,Efficiencies!$C$33:$H$33,Mapping!D12:I12)/SUMPRODUCT(Efficiencies!$C$33:$H$33,Mapping!D12:I12),SUMPRODUCT(Efficiencies!$C$25:$H$25,Efficiencies!$C$33:$H$33,Efficiencies!$C$27:$H$27)/SUMPRODUCT(Efficiencies!$C$33:$H$33,Efficiencies!$C$27:$H$27))</f>
+        <v>0.44744992784992788</v>
+      </c>
+      <c r="C12" s="85">
+        <f>IFERROR(SUMPRODUCT(Efficiencies!$C$25:$H$25,Efficiencies!$C$30:$H$30,Mapping!D12:I12)/SUMPRODUCT(Efficiencies!$C$30:$H$30,Mapping!D12:I12),SUMPRODUCT(Efficiencies!$C$25:$H$25,Efficiencies!$C$30:$H$30,Efficiencies!$C$27:$H$27)/SUMPRODUCT(Efficiencies!$C$30:$H$30,Efficiencies!$C$27:$H$27))</f>
+        <v>0.6272250297354901</v>
+      </c>
+      <c r="D12" s="85">
+        <f>IFERROR(SUMPRODUCT(Efficiencies!$C$25:$H$25,Efficiencies!$C$31:$H$31,Mapping!D12:I12)/SUMPRODUCT(Efficiencies!$C$31:$H$31,Mapping!D12:I12),SUMPRODUCT(Efficiencies!$C$25:$H$25,Efficiencies!$C$31:$H$31,Efficiencies!$C$27:$H$27)/SUMPRODUCT(Efficiencies!$C$31:$H$31,Efficiencies!$C$27:$H$27))</f>
+        <v>0.28282828282828276</v>
+      </c>
+      <c r="E12" s="85">
+        <f>IFERROR(SUMPRODUCT(Efficiencies!$C$25:$H$25,Efficiencies!$C$32:$H$32,Mapping!D12:I12)/SUMPRODUCT(Efficiencies!$C$32:$H$32,Mapping!D12:I12),SUMPRODUCT(Efficiencies!$C$25:$H$25,Efficiencies!$C$32:$H$32,Efficiencies!$C$27:$H$27)/SUMPRODUCT(Efficiencies!$C$32:$H$32,Efficiencies!$C$27:$H$27))</f>
+        <v>0.50307566278577831</v>
+      </c>
+      <c r="F12" s="86">
+        <f t="shared" si="2"/>
+        <v>0.80536907536907543</v>
+      </c>
+      <c r="G12" s="86">
+        <f t="shared" si="3"/>
+        <v>0.55208333333333337</v>
+      </c>
+      <c r="H12" s="87">
+        <f t="shared" si="0"/>
+        <v>0.55411627681039211</v>
+      </c>
+      <c r="I12" s="87">
+        <f t="shared" si="1"/>
+        <v>0.55411627681039211</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>467</v>
+      </c>
+      <c r="B13" s="85">
+        <f>IFERROR(SUMPRODUCT(Efficiencies!$C$25:$H$25,Efficiencies!$C$33:$H$33,Mapping!D13:I13)/SUMPRODUCT(Efficiencies!$C$33:$H$33,Mapping!D13:I13),SUMPRODUCT(Efficiencies!$C$25:$H$25,Efficiencies!$C$33:$H$33,Efficiencies!$C$27:$H$27)/SUMPRODUCT(Efficiencies!$C$33:$H$33,Efficiencies!$C$27:$H$27))</f>
+        <v>0.58424137438649415</v>
+      </c>
+      <c r="C13" s="85">
+        <f>IFERROR(SUMPRODUCT(Efficiencies!$C$25:$H$25,Efficiencies!$C$30:$H$30,Mapping!D13:I13)/SUMPRODUCT(Efficiencies!$C$30:$H$30,Mapping!D13:I13),SUMPRODUCT(Efficiencies!$C$25:$H$25,Efficiencies!$C$30:$H$30,Efficiencies!$C$27:$H$27)/SUMPRODUCT(Efficiencies!$C$30:$H$30,Efficiencies!$C$27:$H$27))</f>
+        <v>0.71523255596540547</v>
+      </c>
+      <c r="D13" s="85">
+        <f>IFERROR(SUMPRODUCT(Efficiencies!$C$25:$H$25,Efficiencies!$C$31:$H$31,Mapping!D13:I13)/SUMPRODUCT(Efficiencies!$C$31:$H$31,Mapping!D13:I13),SUMPRODUCT(Efficiencies!$C$25:$H$25,Efficiencies!$C$31:$H$31,Efficiencies!$C$27:$H$27)/SUMPRODUCT(Efficiencies!$C$31:$H$31,Efficiencies!$C$27:$H$27))</f>
+        <v>0.32656565656565656</v>
+      </c>
+      <c r="E13" s="85">
+        <f>IFERROR(SUMPRODUCT(Efficiencies!$C$25:$H$25,Efficiencies!$C$32:$H$32,Mapping!D13:I13)/SUMPRODUCT(Efficiencies!$C$32:$H$32,Mapping!D13:I13),SUMPRODUCT(Efficiencies!$C$25:$H$25,Efficiencies!$C$32:$H$32,Efficiencies!$C$27:$H$27)/SUMPRODUCT(Efficiencies!$C$32:$H$32,Efficiencies!$C$27:$H$27))</f>
+        <v>0.54897580455719985</v>
+      </c>
+      <c r="F13" s="86">
+        <f t="shared" si="2"/>
+        <v>0.80536907536907543</v>
+      </c>
+      <c r="G13" s="86">
+        <f t="shared" si="3"/>
+        <v>0.55208333333333337</v>
+      </c>
+      <c r="H13" s="87">
+        <f t="shared" si="0"/>
+        <v>0.58964528515813419</v>
+      </c>
+      <c r="I13" s="87">
+        <f t="shared" si="1"/>
+        <v>0.58964528515813419</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>468</v>
+      </c>
+      <c r="B14" s="85">
+        <f>IFERROR(SUMPRODUCT(Efficiencies!$C$25:$H$25,Efficiencies!$C$33:$H$33,Mapping!D14:I14)/SUMPRODUCT(Efficiencies!$C$33:$H$33,Mapping!D14:I14),SUMPRODUCT(Efficiencies!$C$25:$H$25,Efficiencies!$C$33:$H$33,Efficiencies!$C$27:$H$27)/SUMPRODUCT(Efficiencies!$C$33:$H$33,Efficiencies!$C$27:$H$27))</f>
+        <v>0.28282828282828282</v>
+      </c>
+      <c r="C14" s="85">
+        <f>IFERROR(SUMPRODUCT(Efficiencies!$C$25:$H$25,Efficiencies!$C$30:$H$30,Mapping!D14:I14)/SUMPRODUCT(Efficiencies!$C$30:$H$30,Mapping!D14:I14),SUMPRODUCT(Efficiencies!$C$25:$H$25,Efficiencies!$C$30:$H$30,Efficiencies!$C$27:$H$27)/SUMPRODUCT(Efficiencies!$C$30:$H$30,Efficiencies!$C$27:$H$27))</f>
+        <v>0.28282828282828287</v>
+      </c>
+      <c r="D14" s="85">
+        <f>IFERROR(SUMPRODUCT(Efficiencies!$C$25:$H$25,Efficiencies!$C$31:$H$31,Mapping!D14:I14)/SUMPRODUCT(Efficiencies!$C$31:$H$31,Mapping!D14:I14),SUMPRODUCT(Efficiencies!$C$25:$H$25,Efficiencies!$C$31:$H$31,Efficiencies!$C$27:$H$27)/SUMPRODUCT(Efficiencies!$C$31:$H$31,Efficiencies!$C$27:$H$27))</f>
+        <v>0.28282828282828276</v>
+      </c>
+      <c r="E14" s="85">
+        <f>IFERROR(SUMPRODUCT(Efficiencies!$C$25:$H$25,Efficiencies!$C$32:$H$32,Mapping!D14:I14)/SUMPRODUCT(Efficiencies!$C$32:$H$32,Mapping!D14:I14),SUMPRODUCT(Efficiencies!$C$25:$H$25,Efficiencies!$C$32:$H$32,Efficiencies!$C$27:$H$27)/SUMPRODUCT(Efficiencies!$C$32:$H$32,Efficiencies!$C$27:$H$27))</f>
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="F14" s="86">
+        <f t="shared" si="2"/>
+        <v>0.80536907536907543</v>
+      </c>
+      <c r="G14" s="86">
+        <f t="shared" si="3"/>
+        <v>0.55208333333333337</v>
+      </c>
+      <c r="H14" s="87">
+        <f t="shared" si="0"/>
+        <v>0.49573290598290598</v>
+      </c>
+      <c r="I14" s="87">
+        <f t="shared" si="1"/>
+        <v>0.49573290598290598</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>469</v>
+      </c>
+      <c r="B15" s="85">
+        <f>IFERROR(SUMPRODUCT(Efficiencies!$C$25:$H$25,Efficiencies!$C$33:$H$33,Mapping!D15:I15)/SUMPRODUCT(Efficiencies!$C$33:$H$33,Mapping!D15:I15),SUMPRODUCT(Efficiencies!$C$25:$H$25,Efficiencies!$C$33:$H$33,Efficiencies!$C$27:$H$27)/SUMPRODUCT(Efficiencies!$C$33:$H$33,Efficiencies!$C$27:$H$27))</f>
+        <v>0.54581076066790346</v>
+      </c>
+      <c r="C15" s="85">
+        <f>IFERROR(SUMPRODUCT(Efficiencies!$C$25:$H$25,Efficiencies!$C$30:$H$30,Mapping!D15:I15)/SUMPRODUCT(Efficiencies!$C$30:$H$30,Mapping!D15:I15),SUMPRODUCT(Efficiencies!$C$25:$H$25,Efficiencies!$C$30:$H$30,Efficiencies!$C$27:$H$27)/SUMPRODUCT(Efficiencies!$C$30:$H$30,Efficiencies!$C$27:$H$27))</f>
+        <v>0.71093929326487459</v>
+      </c>
+      <c r="D15" s="85">
+        <f>IFERROR(SUMPRODUCT(Efficiencies!$C$25:$H$25,Efficiencies!$C$31:$H$31,Mapping!D15:I15)/SUMPRODUCT(Efficiencies!$C$31:$H$31,Mapping!D15:I15),SUMPRODUCT(Efficiencies!$C$25:$H$25,Efficiencies!$C$31:$H$31,Efficiencies!$C$27:$H$27)/SUMPRODUCT(Efficiencies!$C$31:$H$31,Efficiencies!$C$27:$H$27))</f>
+        <v>0.30143993122716517</v>
+      </c>
+      <c r="E15" s="85">
+        <f>IFERROR(SUMPRODUCT(Efficiencies!$C$25:$H$25,Efficiencies!$C$32:$H$32,Mapping!D15:I15)/SUMPRODUCT(Efficiencies!$C$32:$H$32,Mapping!D15:I15),SUMPRODUCT(Efficiencies!$C$25:$H$25,Efficiencies!$C$32:$H$32,Efficiencies!$C$27:$H$27)/SUMPRODUCT(Efficiencies!$C$32:$H$32,Efficiencies!$C$27:$H$27))</f>
+        <v>0.55307790549169866</v>
+      </c>
+      <c r="F15" s="86">
+        <f t="shared" si="2"/>
+        <v>0.80536907536907543</v>
+      </c>
+      <c r="G15" s="86">
+        <f t="shared" si="3"/>
+        <v>0.55208333333333337</v>
+      </c>
+      <c r="H15" s="87">
+        <f t="shared" si="0"/>
+        <v>0.58458190773722951</v>
+      </c>
+      <c r="I15" s="87">
+        <f t="shared" si="1"/>
+        <v>0.58458190773722951</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>470</v>
+      </c>
+      <c r="B16" s="85">
+        <f>IFERROR(SUMPRODUCT(Efficiencies!$C$25:$H$25,Efficiencies!$C$33:$H$33,Mapping!D16:I16)/SUMPRODUCT(Efficiencies!$C$33:$H$33,Mapping!D16:I16),SUMPRODUCT(Efficiencies!$C$25:$H$25,Efficiencies!$C$33:$H$33,Efficiencies!$C$27:$H$27)/SUMPRODUCT(Efficiencies!$C$33:$H$33,Efficiencies!$C$27:$H$27))</f>
+        <v>0.79714285714285704</v>
+      </c>
+      <c r="C16" s="85">
+        <f>IFERROR(SUMPRODUCT(Efficiencies!$C$25:$H$25,Efficiencies!$C$30:$H$30,Mapping!D16:I16)/SUMPRODUCT(Efficiencies!$C$30:$H$30,Mapping!D16:I16),SUMPRODUCT(Efficiencies!$C$25:$H$25,Efficiencies!$C$30:$H$30,Efficiencies!$C$27:$H$27)/SUMPRODUCT(Efficiencies!$C$30:$H$30,Efficiencies!$C$27:$H$27))</f>
+        <v>0.79714285714285704</v>
+      </c>
+      <c r="D16" s="85">
+        <f>IFERROR(SUMPRODUCT(Efficiencies!$C$25:$H$25,Efficiencies!$C$31:$H$31,Mapping!D16:I16)/SUMPRODUCT(Efficiencies!$C$31:$H$31,Mapping!D16:I16),SUMPRODUCT(Efficiencies!$C$25:$H$25,Efficiencies!$C$31:$H$31,Efficiencies!$C$27:$H$27)/SUMPRODUCT(Efficiencies!$C$31:$H$31,Efficiencies!$C$27:$H$27))</f>
+        <v>0.3265656565656565</v>
+      </c>
+      <c r="E16" s="85">
+        <f>IFERROR(SUMPRODUCT(Efficiencies!$C$25:$H$25,Efficiencies!$C$32:$H$32,Mapping!D16:I16)/SUMPRODUCT(Efficiencies!$C$32:$H$32,Mapping!D16:I16),SUMPRODUCT(Efficiencies!$C$25:$H$25,Efficiencies!$C$32:$H$32,Efficiencies!$C$27:$H$27)/SUMPRODUCT(Efficiencies!$C$32:$H$32,Efficiencies!$C$27:$H$27))</f>
+        <v>0.52841103341103357</v>
+      </c>
+      <c r="F16" s="86">
+        <f t="shared" si="2"/>
+        <v>0.80536907536907543</v>
+      </c>
+      <c r="G16" s="86">
+        <f t="shared" si="3"/>
+        <v>0.55208333333333337</v>
+      </c>
+      <c r="H16" s="87">
+        <f t="shared" si="0"/>
+        <v>0.60191439116439127</v>
+      </c>
+      <c r="I16" s="87">
+        <f t="shared" si="1"/>
+        <v>0.60191439116439127</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>471</v>
+      </c>
+      <c r="B17" s="85">
+        <f>IFERROR(SUMPRODUCT(Efficiencies!$C$25:$H$25,Efficiencies!$C$33:$H$33,Mapping!D17:I17)/SUMPRODUCT(Efficiencies!$C$33:$H$33,Mapping!D17:I17),SUMPRODUCT(Efficiencies!$C$25:$H$25,Efficiencies!$C$33:$H$33,Efficiencies!$C$27:$H$27)/SUMPRODUCT(Efficiencies!$C$33:$H$33,Efficiencies!$C$27:$H$27))</f>
+        <v>0.61844834710743801</v>
+      </c>
+      <c r="C17" s="85">
+        <f>IFERROR(SUMPRODUCT(Efficiencies!$C$25:$H$25,Efficiencies!$C$30:$H$30,Mapping!D17:I17)/SUMPRODUCT(Efficiencies!$C$30:$H$30,Mapping!D17:I17),SUMPRODUCT(Efficiencies!$C$25:$H$25,Efficiencies!$C$30:$H$30,Efficiencies!$C$27:$H$27)/SUMPRODUCT(Efficiencies!$C$30:$H$30,Efficiencies!$C$27:$H$27))</f>
+        <v>0.7368569631751799</v>
+      </c>
+      <c r="D17" s="85">
+        <f>IFERROR(SUMPRODUCT(Efficiencies!$C$25:$H$25,Efficiencies!$C$31:$H$31,Mapping!D17:I17)/SUMPRODUCT(Efficiencies!$C$31:$H$31,Mapping!D17:I17),SUMPRODUCT(Efficiencies!$C$25:$H$25,Efficiencies!$C$31:$H$31,Efficiencies!$C$27:$H$27)/SUMPRODUCT(Efficiencies!$C$31:$H$31,Efficiencies!$C$27:$H$27))</f>
+        <v>0.29282539682539682</v>
+      </c>
+      <c r="E17" s="85">
+        <f>IFERROR(SUMPRODUCT(Efficiencies!$C$25:$H$25,Efficiencies!$C$32:$H$32,Mapping!D17:I17)/SUMPRODUCT(Efficiencies!$C$32:$H$32,Mapping!D17:I17),SUMPRODUCT(Efficiencies!$C$25:$H$25,Efficiencies!$C$32:$H$32,Efficiencies!$C$27:$H$27)/SUMPRODUCT(Efficiencies!$C$32:$H$32,Efficiencies!$C$27:$H$27))</f>
+        <v>0.48726032252348045</v>
+      </c>
+      <c r="F17" s="86">
+        <f t="shared" si="2"/>
+        <v>0.80536907536907543</v>
+      </c>
+      <c r="G17" s="86">
+        <f t="shared" si="3"/>
+        <v>0.55208333333333337</v>
+      </c>
+      <c r="H17" s="87">
+        <f t="shared" si="0"/>
+        <v>0.57487901824529319</v>
+      </c>
+      <c r="I17" s="87">
+        <f t="shared" si="1"/>
+        <v>0.57487901824529319</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>472</v>
+      </c>
+      <c r="B18" s="85">
+        <f>IFERROR(SUMPRODUCT(Efficiencies!$C$25:$H$25,Efficiencies!$C$33:$H$33,Mapping!D18:I18)/SUMPRODUCT(Efficiencies!$C$33:$H$33,Mapping!D18:I18),SUMPRODUCT(Efficiencies!$C$25:$H$25,Efficiencies!$C$33:$H$33,Efficiencies!$C$27:$H$27)/SUMPRODUCT(Efficiencies!$C$33:$H$33,Efficiencies!$C$27:$H$27))</f>
+        <v>0.61844834710743801</v>
+      </c>
+      <c r="C18" s="85">
+        <f>IFERROR(SUMPRODUCT(Efficiencies!$C$25:$H$25,Efficiencies!$C$30:$H$30,Mapping!D18:I18)/SUMPRODUCT(Efficiencies!$C$30:$H$30,Mapping!D18:I18),SUMPRODUCT(Efficiencies!$C$25:$H$25,Efficiencies!$C$30:$H$30,Efficiencies!$C$27:$H$27)/SUMPRODUCT(Efficiencies!$C$30:$H$30,Efficiencies!$C$27:$H$27))</f>
+        <v>0.7368569631751799</v>
+      </c>
+      <c r="D18" s="85">
+        <f>IFERROR(SUMPRODUCT(Efficiencies!$C$25:$H$25,Efficiencies!$C$31:$H$31,Mapping!D18:I18)/SUMPRODUCT(Efficiencies!$C$31:$H$31,Mapping!D18:I18),SUMPRODUCT(Efficiencies!$C$25:$H$25,Efficiencies!$C$31:$H$31,Efficiencies!$C$27:$H$27)/SUMPRODUCT(Efficiencies!$C$31:$H$31,Efficiencies!$C$27:$H$27))</f>
+        <v>0.29282539682539682</v>
+      </c>
+      <c r="E18" s="85">
+        <f>IFERROR(SUMPRODUCT(Efficiencies!$C$25:$H$25,Efficiencies!$C$32:$H$32,Mapping!D18:I18)/SUMPRODUCT(Efficiencies!$C$32:$H$32,Mapping!D18:I18),SUMPRODUCT(Efficiencies!$C$25:$H$25,Efficiencies!$C$32:$H$32,Efficiencies!$C$27:$H$27)/SUMPRODUCT(Efficiencies!$C$32:$H$32,Efficiencies!$C$27:$H$27))</f>
+        <v>0.48726032252348045</v>
+      </c>
+      <c r="F18" s="86">
+        <f t="shared" si="2"/>
+        <v>0.80536907536907543</v>
+      </c>
+      <c r="G18" s="86">
+        <f t="shared" si="3"/>
+        <v>0.55208333333333337</v>
+      </c>
+      <c r="H18" s="87">
+        <f t="shared" si="0"/>
+        <v>0.57487901824529319</v>
+      </c>
+      <c r="I18" s="87">
+        <f t="shared" si="1"/>
+        <v>0.57487901824529319</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>473</v>
+      </c>
+      <c r="B19" s="85">
+        <f>IFERROR(SUMPRODUCT(Efficiencies!$C$25:$H$25,Efficiencies!$C$33:$H$33,Mapping!D19:I19)/SUMPRODUCT(Efficiencies!$C$33:$H$33,Mapping!D19:I19),SUMPRODUCT(Efficiencies!$C$25:$H$25,Efficiencies!$C$33:$H$33,Efficiencies!$C$27:$H$27)/SUMPRODUCT(Efficiencies!$C$33:$H$33,Efficiencies!$C$27:$H$27))</f>
+        <v>0.6523458874458874</v>
+      </c>
+      <c r="C19" s="85">
+        <f>IFERROR(SUMPRODUCT(Efficiencies!$C$25:$H$25,Efficiencies!$C$30:$H$30,Mapping!D19:I19)/SUMPRODUCT(Efficiencies!$C$30:$H$30,Mapping!D19:I19),SUMPRODUCT(Efficiencies!$C$25:$H$25,Efficiencies!$C$30:$H$30,Efficiencies!$C$27:$H$27)/SUMPRODUCT(Efficiencies!$C$30:$H$30,Efficiencies!$C$27:$H$27))</f>
+        <v>0.74617324159643905</v>
+      </c>
+      <c r="D19" s="85">
+        <f>IFERROR(SUMPRODUCT(Efficiencies!$C$25:$H$25,Efficiencies!$C$31:$H$31,Mapping!D19:I19)/SUMPRODUCT(Efficiencies!$C$31:$H$31,Mapping!D19:I19),SUMPRODUCT(Efficiencies!$C$25:$H$25,Efficiencies!$C$31:$H$31,Efficiencies!$C$27:$H$27)/SUMPRODUCT(Efficiencies!$C$31:$H$31,Efficiencies!$C$27:$H$27))</f>
+        <v>0.29776299581177629</v>
+      </c>
+      <c r="E19" s="85">
+        <f>IFERROR(SUMPRODUCT(Efficiencies!$C$25:$H$25,Efficiencies!$C$32:$H$32,Mapping!D19:I19)/SUMPRODUCT(Efficiencies!$C$32:$H$32,Mapping!D19:I19),SUMPRODUCT(Efficiencies!$C$25:$H$25,Efficiencies!$C$32:$H$32,Efficiencies!$C$27:$H$27)/SUMPRODUCT(Efficiencies!$C$32:$H$32,Efficiencies!$C$27:$H$27))</f>
+        <v>0.49928326325455513</v>
+      </c>
+      <c r="F19" s="86">
+        <f t="shared" si="2"/>
+        <v>0.80536907536907543</v>
+      </c>
+      <c r="G19" s="86">
+        <f t="shared" si="3"/>
+        <v>0.55208333333333337</v>
+      </c>
+      <c r="H19" s="87">
+        <f t="shared" si="0"/>
+        <v>0.58013438187303579</v>
+      </c>
+      <c r="I19" s="87">
+        <f t="shared" si="1"/>
+        <v>0.58013438187303579</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>474</v>
+      </c>
+      <c r="B20" s="85">
+        <f>IFERROR(SUMPRODUCT(Efficiencies!$C$25:$H$25,Efficiencies!$C$33:$H$33,Mapping!D20:I20)/SUMPRODUCT(Efficiencies!$C$33:$H$33,Mapping!D20:I20),SUMPRODUCT(Efficiencies!$C$25:$H$25,Efficiencies!$C$33:$H$33,Efficiencies!$C$27:$H$27)/SUMPRODUCT(Efficiencies!$C$33:$H$33,Efficiencies!$C$27:$H$27))</f>
+        <v>0.6523458874458874</v>
+      </c>
+      <c r="C20" s="85">
+        <f>IFERROR(SUMPRODUCT(Efficiencies!$C$25:$H$25,Efficiencies!$C$30:$H$30,Mapping!D20:I20)/SUMPRODUCT(Efficiencies!$C$30:$H$30,Mapping!D20:I20),SUMPRODUCT(Efficiencies!$C$25:$H$25,Efficiencies!$C$30:$H$30,Efficiencies!$C$27:$H$27)/SUMPRODUCT(Efficiencies!$C$30:$H$30,Efficiencies!$C$27:$H$27))</f>
+        <v>0.74617324159643905</v>
+      </c>
+      <c r="D20" s="85">
+        <f>IFERROR(SUMPRODUCT(Efficiencies!$C$25:$H$25,Efficiencies!$C$31:$H$31,Mapping!D20:I20)/SUMPRODUCT(Efficiencies!$C$31:$H$31,Mapping!D20:I20),SUMPRODUCT(Efficiencies!$C$25:$H$25,Efficiencies!$C$31:$H$31,Efficiencies!$C$27:$H$27)/SUMPRODUCT(Efficiencies!$C$31:$H$31,Efficiencies!$C$27:$H$27))</f>
+        <v>0.29776299581177629</v>
+      </c>
+      <c r="E20" s="85">
+        <f>IFERROR(SUMPRODUCT(Efficiencies!$C$25:$H$25,Efficiencies!$C$32:$H$32,Mapping!D20:I20)/SUMPRODUCT(Efficiencies!$C$32:$H$32,Mapping!D20:I20),SUMPRODUCT(Efficiencies!$C$25:$H$25,Efficiencies!$C$32:$H$32,Efficiencies!$C$27:$H$27)/SUMPRODUCT(Efficiencies!$C$32:$H$32,Efficiencies!$C$27:$H$27))</f>
+        <v>0.49928326325455513</v>
+      </c>
+      <c r="F20" s="86">
+        <f t="shared" si="2"/>
+        <v>0.80536907536907543</v>
+      </c>
+      <c r="G20" s="86">
+        <f t="shared" si="3"/>
+        <v>0.55208333333333337</v>
+      </c>
+      <c r="H20" s="87">
+        <f t="shared" si="0"/>
+        <v>0.58013438187303579</v>
+      </c>
+      <c r="I20" s="87">
+        <f t="shared" si="1"/>
+        <v>0.58013438187303579</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>475</v>
+      </c>
+      <c r="B21" s="85">
+        <f>IFERROR(SUMPRODUCT(Efficiencies!$C$25:$H$25,Efficiencies!$C$33:$H$33,Mapping!D21:I21)/SUMPRODUCT(Efficiencies!$C$33:$H$33,Mapping!D21:I21),SUMPRODUCT(Efficiencies!$C$25:$H$25,Efficiencies!$C$33:$H$33,Efficiencies!$C$27:$H$27)/SUMPRODUCT(Efficiencies!$C$33:$H$33,Efficiencies!$C$27:$H$27))</f>
+        <v>0.61844834710743801</v>
+      </c>
+      <c r="C21" s="85">
+        <f>IFERROR(SUMPRODUCT(Efficiencies!$C$25:$H$25,Efficiencies!$C$30:$H$30,Mapping!D21:I21)/SUMPRODUCT(Efficiencies!$C$30:$H$30,Mapping!D21:I21),SUMPRODUCT(Efficiencies!$C$25:$H$25,Efficiencies!$C$30:$H$30,Efficiencies!$C$27:$H$27)/SUMPRODUCT(Efficiencies!$C$30:$H$30,Efficiencies!$C$27:$H$27))</f>
+        <v>0.7368569631751799</v>
+      </c>
+      <c r="D21" s="85">
+        <f>IFERROR(SUMPRODUCT(Efficiencies!$C$25:$H$25,Efficiencies!$C$31:$H$31,Mapping!D21:I21)/SUMPRODUCT(Efficiencies!$C$31:$H$31,Mapping!D21:I21),SUMPRODUCT(Efficiencies!$C$25:$H$25,Efficiencies!$C$31:$H$31,Efficiencies!$C$27:$H$27)/SUMPRODUCT(Efficiencies!$C$31:$H$31,Efficiencies!$C$27:$H$27))</f>
+        <v>0.29282539682539682</v>
+      </c>
+      <c r="E21" s="85">
+        <f>IFERROR(SUMPRODUCT(Efficiencies!$C$25:$H$25,Efficiencies!$C$32:$H$32,Mapping!D21:I21)/SUMPRODUCT(Efficiencies!$C$32:$H$32,Mapping!D21:I21),SUMPRODUCT(Efficiencies!$C$25:$H$25,Efficiencies!$C$32:$H$32,Efficiencies!$C$27:$H$27)/SUMPRODUCT(Efficiencies!$C$32:$H$32,Efficiencies!$C$27:$H$27))</f>
+        <v>0.48726032252348045</v>
+      </c>
+      <c r="F21" s="86">
+        <f t="shared" si="2"/>
+        <v>0.80536907536907543</v>
+      </c>
+      <c r="G21" s="86">
+        <f t="shared" si="3"/>
+        <v>0.55208333333333337</v>
+      </c>
+      <c r="H21" s="87">
+        <f t="shared" si="0"/>
+        <v>0.57487901824529319</v>
+      </c>
+      <c r="I21" s="87">
+        <f t="shared" si="1"/>
+        <v>0.57487901824529319</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>476</v>
+      </c>
+      <c r="B22" s="85">
+        <f>IFERROR(SUMPRODUCT(Efficiencies!$C$25:$H$25,Efficiencies!$C$33:$H$33,Mapping!D22:I22)/SUMPRODUCT(Efficiencies!$C$33:$H$33,Mapping!D22:I22),SUMPRODUCT(Efficiencies!$C$25:$H$25,Efficiencies!$C$33:$H$33,Efficiencies!$C$27:$H$27)/SUMPRODUCT(Efficiencies!$C$33:$H$33,Efficiencies!$C$27:$H$27))</f>
+        <v>0.61844834710743801</v>
+      </c>
+      <c r="C22" s="85">
+        <f>IFERROR(SUMPRODUCT(Efficiencies!$C$25:$H$25,Efficiencies!$C$30:$H$30,Mapping!D22:I22)/SUMPRODUCT(Efficiencies!$C$30:$H$30,Mapping!D22:I22),SUMPRODUCT(Efficiencies!$C$25:$H$25,Efficiencies!$C$30:$H$30,Efficiencies!$C$27:$H$27)/SUMPRODUCT(Efficiencies!$C$30:$H$30,Efficiencies!$C$27:$H$27))</f>
+        <v>0.7368569631751799</v>
+      </c>
+      <c r="D22" s="85">
+        <f>IFERROR(SUMPRODUCT(Efficiencies!$C$25:$H$25,Efficiencies!$C$31:$H$31,Mapping!D22:I22)/SUMPRODUCT(Efficiencies!$C$31:$H$31,Mapping!D22:I22),SUMPRODUCT(Efficiencies!$C$25:$H$25,Efficiencies!$C$31:$H$31,Efficiencies!$C$27:$H$27)/SUMPRODUCT(Efficiencies!$C$31:$H$31,Efficiencies!$C$27:$H$27))</f>
+        <v>0.29282539682539682</v>
+      </c>
+      <c r="E22" s="85">
+        <f>IFERROR(SUMPRODUCT(Efficiencies!$C$25:$H$25,Efficiencies!$C$32:$H$32,Mapping!D22:I22)/SUMPRODUCT(Efficiencies!$C$32:$H$32,Mapping!D22:I22),SUMPRODUCT(Efficiencies!$C$25:$H$25,Efficiencies!$C$32:$H$32,Efficiencies!$C$27:$H$27)/SUMPRODUCT(Efficiencies!$C$32:$H$32,Efficiencies!$C$27:$H$27))</f>
+        <v>0.48726032252348045</v>
+      </c>
+      <c r="F22" s="86">
+        <f t="shared" si="2"/>
+        <v>0.80536907536907543</v>
+      </c>
+      <c r="G22" s="86">
+        <f t="shared" si="3"/>
+        <v>0.55208333333333337</v>
+      </c>
+      <c r="H22" s="87">
+        <f t="shared" si="0"/>
+        <v>0.57487901824529319</v>
+      </c>
+      <c r="I22" s="87">
+        <f t="shared" si="1"/>
+        <v>0.57487901824529319</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>477</v>
+      </c>
+      <c r="B23" s="85">
+        <f>IFERROR(SUMPRODUCT(Efficiencies!$C$25:$H$25,Efficiencies!$C$33:$H$33,Mapping!D23:I23)/SUMPRODUCT(Efficiencies!$C$33:$H$33,Mapping!D23:I23),SUMPRODUCT(Efficiencies!$C$25:$H$25,Efficiencies!$C$33:$H$33,Efficiencies!$C$27:$H$27)/SUMPRODUCT(Efficiencies!$C$33:$H$33,Efficiencies!$C$27:$H$27))</f>
+        <v>0.61844834710743801</v>
+      </c>
+      <c r="C23" s="85">
+        <f>IFERROR(SUMPRODUCT(Efficiencies!$C$25:$H$25,Efficiencies!$C$30:$H$30,Mapping!D23:I23)/SUMPRODUCT(Efficiencies!$C$30:$H$30,Mapping!D23:I23),SUMPRODUCT(Efficiencies!$C$25:$H$25,Efficiencies!$C$30:$H$30,Efficiencies!$C$27:$H$27)/SUMPRODUCT(Efficiencies!$C$30:$H$30,Efficiencies!$C$27:$H$27))</f>
+        <v>0.7368569631751799</v>
+      </c>
+      <c r="D23" s="85">
+        <f>IFERROR(SUMPRODUCT(Efficiencies!$C$25:$H$25,Efficiencies!$C$31:$H$31,Mapping!D23:I23)/SUMPRODUCT(Efficiencies!$C$31:$H$31,Mapping!D23:I23),SUMPRODUCT(Efficiencies!$C$25:$H$25,Efficiencies!$C$31:$H$31,Efficiencies!$C$27:$H$27)/SUMPRODUCT(Efficiencies!$C$31:$H$31,Efficiencies!$C$27:$H$27))</f>
+        <v>0.29282539682539682</v>
+      </c>
+      <c r="E23" s="85">
+        <f>IFERROR(SUMPRODUCT(Efficiencies!$C$25:$H$25,Efficiencies!$C$32:$H$32,Mapping!D23:I23)/SUMPRODUCT(Efficiencies!$C$32:$H$32,Mapping!D23:I23),SUMPRODUCT(Efficiencies!$C$25:$H$25,Efficiencies!$C$32:$H$32,Efficiencies!$C$27:$H$27)/SUMPRODUCT(Efficiencies!$C$32:$H$32,Efficiencies!$C$27:$H$27))</f>
+        <v>0.48726032252348045</v>
+      </c>
+      <c r="F23" s="86">
+        <f t="shared" si="2"/>
+        <v>0.80536907536907543</v>
+      </c>
+      <c r="G23" s="86">
+        <f t="shared" si="3"/>
+        <v>0.55208333333333337</v>
+      </c>
+      <c r="H23" s="87">
+        <f t="shared" si="0"/>
+        <v>0.57487901824529319</v>
+      </c>
+      <c r="I23" s="87">
+        <f t="shared" si="1"/>
+        <v>0.57487901824529319</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>478</v>
+      </c>
+      <c r="B24" s="85">
+        <f>IFERROR(SUMPRODUCT(Efficiencies!$C$25:$H$25,Efficiencies!$C$33:$H$33,Mapping!D24:I24)/SUMPRODUCT(Efficiencies!$C$33:$H$33,Mapping!D24:I24),SUMPRODUCT(Efficiencies!$C$25:$H$25,Efficiencies!$C$33:$H$33,Efficiencies!$C$27:$H$27)/SUMPRODUCT(Efficiencies!$C$33:$H$33,Efficiencies!$C$27:$H$27))</f>
+        <v>0.58424137438649415</v>
+      </c>
+      <c r="C24" s="85">
+        <f>IFERROR(SUMPRODUCT(Efficiencies!$C$25:$H$25,Efficiencies!$C$30:$H$30,Mapping!D24:I24)/SUMPRODUCT(Efficiencies!$C$30:$H$30,Mapping!D24:I24),SUMPRODUCT(Efficiencies!$C$25:$H$25,Efficiencies!$C$30:$H$30,Efficiencies!$C$27:$H$27)/SUMPRODUCT(Efficiencies!$C$30:$H$30,Efficiencies!$C$27:$H$27))</f>
+        <v>0.71523255596540547</v>
+      </c>
+      <c r="D24" s="85">
+        <f>IFERROR(SUMPRODUCT(Efficiencies!$C$25:$H$25,Efficiencies!$C$31:$H$31,Mapping!D24:I24)/SUMPRODUCT(Efficiencies!$C$31:$H$31,Mapping!D24:I24),SUMPRODUCT(Efficiencies!$C$25:$H$25,Efficiencies!$C$31:$H$31,Efficiencies!$C$27:$H$27)/SUMPRODUCT(Efficiencies!$C$31:$H$31,Efficiencies!$C$27:$H$27))</f>
+        <v>0.29055119036728594</v>
+      </c>
+      <c r="E24" s="85">
+        <f>IFERROR(SUMPRODUCT(Efficiencies!$C$25:$H$25,Efficiencies!$C$32:$H$32,Mapping!D24:I24)/SUMPRODUCT(Efficiencies!$C$32:$H$32,Mapping!D24:I24),SUMPRODUCT(Efficiencies!$C$25:$H$25,Efficiencies!$C$32:$H$32,Efficiencies!$C$27:$H$27)/SUMPRODUCT(Efficiencies!$C$32:$H$32,Efficiencies!$C$27:$H$27))</f>
+        <v>0.50307566278577831</v>
+      </c>
+      <c r="F24" s="86">
+        <f t="shared" si="2"/>
+        <v>0.80536907536907543</v>
+      </c>
+      <c r="G24" s="86">
+        <f t="shared" si="3"/>
+        <v>0.55208333333333337</v>
+      </c>
+      <c r="H24" s="87">
+        <f t="shared" si="0"/>
+        <v>0.5732623635641757</v>
+      </c>
+      <c r="I24" s="87">
+        <f t="shared" si="1"/>
+        <v>0.5732623635641757</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>479</v>
+      </c>
+      <c r="B25" s="85">
+        <f>IFERROR(SUMPRODUCT(Efficiencies!$C$25:$H$25,Efficiencies!$C$33:$H$33,Mapping!D25:I25)/SUMPRODUCT(Efficiencies!$C$33:$H$33,Mapping!D25:I25),SUMPRODUCT(Efficiencies!$C$25:$H$25,Efficiencies!$C$33:$H$33,Efficiencies!$C$27:$H$27)/SUMPRODUCT(Efficiencies!$C$33:$H$33,Efficiencies!$C$27:$H$27))</f>
+        <v>0.58424137438649415</v>
+      </c>
+      <c r="C25" s="85">
+        <f>IFERROR(SUMPRODUCT(Efficiencies!$C$25:$H$25,Efficiencies!$C$30:$H$30,Mapping!D25:I25)/SUMPRODUCT(Efficiencies!$C$30:$H$30,Mapping!D25:I25),SUMPRODUCT(Efficiencies!$C$25:$H$25,Efficiencies!$C$30:$H$30,Efficiencies!$C$27:$H$27)/SUMPRODUCT(Efficiencies!$C$30:$H$30,Efficiencies!$C$27:$H$27))</f>
+        <v>0.71523255596540547</v>
+      </c>
+      <c r="D25" s="85">
+        <f>IFERROR(SUMPRODUCT(Efficiencies!$C$25:$H$25,Efficiencies!$C$31:$H$31,Mapping!D25:I25)/SUMPRODUCT(Efficiencies!$C$31:$H$31,Mapping!D25:I25),SUMPRODUCT(Efficiencies!$C$25:$H$25,Efficiencies!$C$31:$H$31,Efficiencies!$C$27:$H$27)/SUMPRODUCT(Efficiencies!$C$31:$H$31,Efficiencies!$C$27:$H$27))</f>
+        <v>0.29055119036728594</v>
+      </c>
+      <c r="E25" s="85">
+        <f>IFERROR(SUMPRODUCT(Efficiencies!$C$25:$H$25,Efficiencies!$C$32:$H$32,Mapping!D25:I25)/SUMPRODUCT(Efficiencies!$C$32:$H$32,Mapping!D25:I25),SUMPRODUCT(Efficiencies!$C$25:$H$25,Efficiencies!$C$32:$H$32,Efficiencies!$C$27:$H$27)/SUMPRODUCT(Efficiencies!$C$32:$H$32,Efficiencies!$C$27:$H$27))</f>
+        <v>0.50307566278577831</v>
+      </c>
+      <c r="F25" s="86">
+        <f t="shared" si="2"/>
+        <v>0.80536907536907543</v>
+      </c>
+      <c r="G25" s="86">
+        <f t="shared" si="3"/>
+        <v>0.55208333333333337</v>
+      </c>
+      <c r="H25" s="87">
+        <f t="shared" si="0"/>
+        <v>0.5732623635641757</v>
+      </c>
+      <c r="I25" s="87">
+        <f t="shared" si="1"/>
+        <v>0.5732623635641757</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>480</v>
+      </c>
+      <c r="B26" s="85">
+        <f>IFERROR(SUMPRODUCT(Efficiencies!$C$25:$H$25,Efficiencies!$C$33:$H$33,Mapping!D26:I26)/SUMPRODUCT(Efficiencies!$C$33:$H$33,Mapping!D26:I26),SUMPRODUCT(Efficiencies!$C$25:$H$25,Efficiencies!$C$33:$H$33,Efficiencies!$C$27:$H$27)/SUMPRODUCT(Efficiencies!$C$33:$H$33,Efficiencies!$C$27:$H$27))</f>
+        <v>0.58424137438649415</v>
+      </c>
+      <c r="C26" s="85">
+        <f>IFERROR(SUMPRODUCT(Efficiencies!$C$25:$H$25,Efficiencies!$C$30:$H$30,Mapping!D26:I26)/SUMPRODUCT(Efficiencies!$C$30:$H$30,Mapping!D26:I26),SUMPRODUCT(Efficiencies!$C$25:$H$25,Efficiencies!$C$30:$H$30,Efficiencies!$C$27:$H$27)/SUMPRODUCT(Efficiencies!$C$30:$H$30,Efficiencies!$C$27:$H$27))</f>
+        <v>0.71523255596540547</v>
+      </c>
+      <c r="D26" s="85">
+        <f>IFERROR(SUMPRODUCT(Efficiencies!$C$25:$H$25,Efficiencies!$C$31:$H$31,Mapping!D26:I26)/SUMPRODUCT(Efficiencies!$C$31:$H$31,Mapping!D26:I26),SUMPRODUCT(Efficiencies!$C$25:$H$25,Efficiencies!$C$31:$H$31,Efficiencies!$C$27:$H$27)/SUMPRODUCT(Efficiencies!$C$31:$H$31,Efficiencies!$C$27:$H$27))</f>
+        <v>0.29055119036728594</v>
+      </c>
+      <c r="E26" s="85">
+        <f>IFERROR(SUMPRODUCT(Efficiencies!$C$25:$H$25,Efficiencies!$C$32:$H$32,Mapping!D26:I26)/SUMPRODUCT(Efficiencies!$C$32:$H$32,Mapping!D26:I26),SUMPRODUCT(Efficiencies!$C$25:$H$25,Efficiencies!$C$32:$H$32,Efficiencies!$C$27:$H$27)/SUMPRODUCT(Efficiencies!$C$32:$H$32,Efficiencies!$C$27:$H$27))</f>
+        <v>0.50307566278577831</v>
+      </c>
+      <c r="F26" s="86">
+        <f t="shared" si="2"/>
+        <v>0.80536907536907543</v>
+      </c>
+      <c r="G26" s="86">
+        <f t="shared" si="3"/>
+        <v>0.55208333333333337</v>
+      </c>
+      <c r="H26" s="87">
+        <f t="shared" si="0"/>
+        <v>0.5732623635641757</v>
+      </c>
+      <c r="I26" s="87">
+        <f t="shared" si="1"/>
+        <v>0.5732623635641757</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B2:B26">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:I26">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7075,9 +6472,9 @@
   <dimension ref="A1:L1880"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="12" topLeftCell="A1781" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="12" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C26" sqref="C26"/>
-      <selection pane="bottomLeft" activeCell="B1788" sqref="B1788"/>
+      <selection pane="bottomLeft" activeCell="B1208" sqref="B1208"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -56531,30 +55928,30 @@
       <c r="L1847" s="54"/>
     </row>
     <row r="1848" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1848" s="84"/>
-      <c r="B1848" s="84"/>
-      <c r="C1848" s="84"/>
-      <c r="D1848" s="84"/>
-      <c r="E1848" s="84"/>
-      <c r="F1848" s="84"/>
-      <c r="G1848" s="84"/>
-      <c r="H1848" s="84"/>
-      <c r="I1848" s="84"/>
-      <c r="J1848" s="84"/>
+      <c r="A1848" s="80"/>
+      <c r="B1848" s="80"/>
+      <c r="C1848" s="80"/>
+      <c r="D1848" s="80"/>
+      <c r="E1848" s="80"/>
+      <c r="F1848" s="80"/>
+      <c r="G1848" s="80"/>
+      <c r="H1848" s="80"/>
+      <c r="I1848" s="80"/>
+      <c r="J1848" s="80"/>
       <c r="K1848" s="54"/>
       <c r="L1848" s="54"/>
     </row>
     <row r="1849" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1849" s="84"/>
-      <c r="B1849" s="84"/>
-      <c r="C1849" s="84"/>
-      <c r="D1849" s="84"/>
-      <c r="E1849" s="84"/>
-      <c r="F1849" s="84"/>
-      <c r="G1849" s="84"/>
-      <c r="H1849" s="84"/>
-      <c r="I1849" s="84"/>
-      <c r="J1849" s="84"/>
+      <c r="A1849" s="80"/>
+      <c r="B1849" s="80"/>
+      <c r="C1849" s="80"/>
+      <c r="D1849" s="80"/>
+      <c r="E1849" s="80"/>
+      <c r="F1849" s="80"/>
+      <c r="G1849" s="80"/>
+      <c r="H1849" s="80"/>
+      <c r="I1849" s="80"/>
+      <c r="J1849" s="80"/>
       <c r="K1849" s="54"/>
       <c r="L1849" s="54"/>
     </row>
@@ -56643,58 +56040,58 @@
       <c r="L1855" s="54"/>
     </row>
     <row r="1856" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1856" s="84"/>
-      <c r="B1856" s="84"/>
-      <c r="C1856" s="84"/>
-      <c r="D1856" s="84"/>
-      <c r="E1856" s="84"/>
-      <c r="F1856" s="84"/>
-      <c r="G1856" s="84"/>
-      <c r="H1856" s="84"/>
-      <c r="I1856" s="84"/>
-      <c r="J1856" s="84"/>
+      <c r="A1856" s="80"/>
+      <c r="B1856" s="80"/>
+      <c r="C1856" s="80"/>
+      <c r="D1856" s="80"/>
+      <c r="E1856" s="80"/>
+      <c r="F1856" s="80"/>
+      <c r="G1856" s="80"/>
+      <c r="H1856" s="80"/>
+      <c r="I1856" s="80"/>
+      <c r="J1856" s="80"/>
       <c r="K1856" s="54"/>
       <c r="L1856" s="54"/>
     </row>
     <row r="1857" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1857" s="84"/>
-      <c r="B1857" s="84"/>
-      <c r="C1857" s="84"/>
-      <c r="D1857" s="84"/>
-      <c r="E1857" s="84"/>
-      <c r="F1857" s="84"/>
-      <c r="G1857" s="84"/>
-      <c r="H1857" s="84"/>
-      <c r="I1857" s="84"/>
-      <c r="J1857" s="84"/>
+      <c r="A1857" s="80"/>
+      <c r="B1857" s="80"/>
+      <c r="C1857" s="80"/>
+      <c r="D1857" s="80"/>
+      <c r="E1857" s="80"/>
+      <c r="F1857" s="80"/>
+      <c r="G1857" s="80"/>
+      <c r="H1857" s="80"/>
+      <c r="I1857" s="80"/>
+      <c r="J1857" s="80"/>
       <c r="K1857" s="54"/>
       <c r="L1857" s="54"/>
     </row>
     <row r="1858" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1858" s="84"/>
-      <c r="B1858" s="84"/>
-      <c r="C1858" s="84"/>
-      <c r="D1858" s="84"/>
-      <c r="E1858" s="84"/>
-      <c r="F1858" s="84"/>
-      <c r="G1858" s="84"/>
-      <c r="H1858" s="84"/>
-      <c r="I1858" s="84"/>
-      <c r="J1858" s="84"/>
+      <c r="A1858" s="80"/>
+      <c r="B1858" s="80"/>
+      <c r="C1858" s="80"/>
+      <c r="D1858" s="80"/>
+      <c r="E1858" s="80"/>
+      <c r="F1858" s="80"/>
+      <c r="G1858" s="80"/>
+      <c r="H1858" s="80"/>
+      <c r="I1858" s="80"/>
+      <c r="J1858" s="80"/>
       <c r="K1858" s="54"/>
       <c r="L1858" s="54"/>
     </row>
     <row r="1859" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1859" s="84"/>
-      <c r="B1859" s="84"/>
-      <c r="C1859" s="84"/>
-      <c r="D1859" s="84"/>
-      <c r="E1859" s="84"/>
-      <c r="F1859" s="84"/>
-      <c r="G1859" s="84"/>
-      <c r="H1859" s="84"/>
-      <c r="I1859" s="84"/>
-      <c r="J1859" s="84"/>
+      <c r="A1859" s="80"/>
+      <c r="B1859" s="80"/>
+      <c r="C1859" s="80"/>
+      <c r="D1859" s="80"/>
+      <c r="E1859" s="80"/>
+      <c r="F1859" s="80"/>
+      <c r="G1859" s="80"/>
+      <c r="H1859" s="80"/>
+      <c r="I1859" s="80"/>
+      <c r="J1859" s="80"/>
       <c r="K1859" s="54"/>
       <c r="L1859" s="54"/>
     </row>
@@ -56713,16 +56110,16 @@
       <c r="L1860" s="54"/>
     </row>
     <row r="1861" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1861" s="84"/>
-      <c r="B1861" s="84"/>
-      <c r="C1861" s="84"/>
-      <c r="D1861" s="84"/>
-      <c r="E1861" s="84"/>
-      <c r="F1861" s="84"/>
-      <c r="G1861" s="84"/>
-      <c r="H1861" s="84"/>
-      <c r="I1861" s="84"/>
-      <c r="J1861" s="84"/>
+      <c r="A1861" s="80"/>
+      <c r="B1861" s="80"/>
+      <c r="C1861" s="80"/>
+      <c r="D1861" s="80"/>
+      <c r="E1861" s="80"/>
+      <c r="F1861" s="80"/>
+      <c r="G1861" s="80"/>
+      <c r="H1861" s="80"/>
+      <c r="I1861" s="80"/>
+      <c r="J1861" s="80"/>
       <c r="K1861" s="54"/>
     </row>
     <row r="1862" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -56798,15 +56195,6 @@
     <row r="1880" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A1859:J1859"/>
-    <mergeCell ref="A1860:J1860"/>
-    <mergeCell ref="A1861:J1861"/>
-    <mergeCell ref="A1853:J1853"/>
-    <mergeCell ref="A1854:J1854"/>
-    <mergeCell ref="A1855:J1855"/>
-    <mergeCell ref="A1856:J1856"/>
-    <mergeCell ref="A1857:J1857"/>
-    <mergeCell ref="A1858:J1858"/>
     <mergeCell ref="A1852:J1852"/>
     <mergeCell ref="A1841:J1841"/>
     <mergeCell ref="A1842:J1842"/>
@@ -56819,6 +56207,15 @@
     <mergeCell ref="A1849:J1849"/>
     <mergeCell ref="A1850:J1850"/>
     <mergeCell ref="A1851:J1851"/>
+    <mergeCell ref="A1859:J1859"/>
+    <mergeCell ref="A1860:J1860"/>
+    <mergeCell ref="A1861:J1861"/>
+    <mergeCell ref="A1853:J1853"/>
+    <mergeCell ref="A1854:J1854"/>
+    <mergeCell ref="A1855:J1855"/>
+    <mergeCell ref="A1856:J1856"/>
+    <mergeCell ref="A1857:J1857"/>
+    <mergeCell ref="A1858:J1858"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="95" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -56858,8 +56255,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -57071,8 +56468,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E954BD9-F2E9-49BD-A674-73E808A9938A}">
   <dimension ref="A1:J122"/>
   <sheetViews>
-    <sheetView topLeftCell="A100" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A118" sqref="A118"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A117" sqref="A117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -57643,7 +57040,7 @@
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
@@ -57652,7 +57049,7 @@
         <v>3.5</v>
       </c>
       <c r="B101" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
@@ -57661,7 +57058,7 @@
         <v>2.1</v>
       </c>
       <c r="B102" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
@@ -57670,7 +57067,7 @@
         <v>0.556552087560372</v>
       </c>
       <c r="B104" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
@@ -57679,7 +57076,7 @@
         <v>0.44344791243962806</v>
       </c>
       <c r="B105" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
@@ -57688,7 +57085,7 @@
         <v>2.8791729225845208</v>
       </c>
       <c r="B107" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
@@ -57697,7 +57094,7 @@
         <v>0.71</v>
       </c>
       <c r="B109" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
@@ -57753,7 +57150,7 @@
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
@@ -57785,7 +57182,7 @@
   <sheetData>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -57795,20 +57192,20 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="58" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="B3" s="58" t="s">
         <v>231</v>
       </c>
       <c r="C3" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="58" t="s">
-        <v>449</v>
-      </c>
-      <c r="B4" s="86">
+        <v>445</v>
+      </c>
+      <c r="B4" s="79">
         <v>4.95</v>
       </c>
       <c r="C4">
@@ -57818,9 +57215,9 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="58" t="s">
-        <v>450</v>
-      </c>
-      <c r="B5" s="86">
+        <v>446</v>
+      </c>
+      <c r="B5" s="79">
         <v>1.0129999999999999</v>
       </c>
       <c r="C5">
@@ -57830,7 +57227,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
@@ -57840,18 +57237,18 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="58" t="s">
+        <v>448</v>
+      </c>
+      <c r="B8" t="s">
+        <v>449</v>
+      </c>
+      <c r="C8" t="s">
         <v>452</v>
-      </c>
-      <c r="B8" t="s">
-        <v>453</v>
-      </c>
-      <c r="C8" t="s">
-        <v>456</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="58" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="B9">
         <v>6.5</v>
@@ -57863,7 +57260,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="58" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="B10">
         <v>1.2</v>
@@ -57875,7 +57272,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -57885,7 +57282,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="58" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="B13" s="6">
         <f>(C5-C4)/C5</f>
@@ -57894,7 +57291,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="58" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="B14" s="6">
         <f>(C10-C9)/C10</f>
@@ -57903,7 +57300,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="58" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="B15" s="10">
         <f>AVERAGE(B13:B14)</f>
@@ -57920,10 +57317,10 @@
   <sheetPr>
     <tabColor theme="1" tint="0.34998626667073579"/>
   </sheetPr>
-  <dimension ref="A1:K36"/>
+  <dimension ref="A1:K38"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27:H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -57939,51 +57336,51 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="57" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="58"/>
       <c r="I1" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="J1" s="59"/>
       <c r="K1" s="59"/>
     </row>
     <row r="2" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="60" t="s">
+        <v>306</v>
+      </c>
+      <c r="B2" s="60" t="s">
         <v>307</v>
       </c>
-      <c r="B2" s="60" t="s">
+      <c r="C2" s="61" t="s">
         <v>308</v>
       </c>
-      <c r="C2" s="61" t="s">
+      <c r="D2" s="61" t="s">
         <v>309</v>
       </c>
-      <c r="D2" s="61" t="s">
+      <c r="E2" s="61" t="s">
         <v>310</v>
       </c>
-      <c r="E2" s="61" t="s">
+      <c r="F2" s="61" t="s">
+        <v>429</v>
+      </c>
+      <c r="I2" s="62" t="s">
+        <v>308</v>
+      </c>
+      <c r="J2" s="62" t="s">
         <v>311</v>
       </c>
-      <c r="F2" s="61" t="s">
-        <v>432</v>
-      </c>
-      <c r="I2" s="62" t="s">
-        <v>309</v>
-      </c>
-      <c r="J2" s="62" t="s">
-        <v>312</v>
-      </c>
       <c r="K2" s="62" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>312</v>
+      </c>
+      <c r="B3" t="s">
         <v>313</v>
-      </c>
-      <c r="B3" t="s">
-        <v>314</v>
       </c>
       <c r="D3"/>
       <c r="E3" s="63">
@@ -58001,10 +57398,10 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>314</v>
+      </c>
+      <c r="B4" t="s">
         <v>315</v>
-      </c>
-      <c r="B4" t="s">
-        <v>316</v>
       </c>
       <c r="D4"/>
       <c r="E4" s="63">
@@ -58022,10 +57419,10 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D5"/>
       <c r="E5" s="63">
@@ -58043,10 +57440,10 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B6" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D6"/>
       <c r="E6" s="63">
@@ -58064,10 +57461,10 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>318</v>
+      </c>
+      <c r="B7" t="s">
         <v>319</v>
-      </c>
-      <c r="B7" t="s">
-        <v>320</v>
       </c>
       <c r="C7" s="64">
         <v>0.84</v>
@@ -58094,10 +57491,10 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B8" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C8" s="64">
         <v>0.68</v>
@@ -58124,10 +57521,10 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B9" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D9"/>
       <c r="E9" s="63">
@@ -58149,36 +57546,36 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="57" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B11" s="6"/>
       <c r="I11" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="60" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B12" s="60" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E12" s="61" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G12" s="60" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="I12" s="62" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B13" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E13" s="10">
         <v>0.96</v>
@@ -58197,10 +57594,10 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B14" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E14" s="10">
         <v>3.5</v>
@@ -58219,10 +57616,10 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B15" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E15" s="10">
         <v>2.1</v>
@@ -58241,10 +57638,10 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B16" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E16" s="10">
         <v>0.99</v>
@@ -58263,10 +57660,10 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B17" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E17" s="10">
         <v>0.99</v>
@@ -58285,10 +57682,10 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B18" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E18" s="10">
         <v>0.99</v>
@@ -58307,10 +57704,10 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B19" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E19" s="10">
         <v>0.9</v>
@@ -58362,7 +57759,7 @@
     </row>
     <row r="24" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="60" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B24" s="67">
         <f t="array" ref="B24:H24">TRANSPOSE(E3:E9/E13:E19)</f>
@@ -58389,28 +57786,28 @@
     </row>
     <row r="25" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="60" t="s">
-        <v>434</v>
-      </c>
-      <c r="B25" s="80" cm="1">
+        <v>431</v>
+      </c>
+      <c r="B25" s="78" cm="1">
         <f t="array" ref="B25:H25">TRANSPOSE(G13:G19)</f>
         <v>0.55208333333333337</v>
       </c>
-      <c r="C25" s="80">
+      <c r="C25" s="78">
         <v>0.79714285714285704</v>
       </c>
-      <c r="D25" s="80">
+      <c r="D25" s="78">
         <v>0.661904761904762</v>
       </c>
-      <c r="E25" s="80">
+      <c r="E25" s="78">
         <v>0.28282828282828282</v>
       </c>
-      <c r="F25" s="80">
+      <c r="F25" s="78">
         <v>0.32656565656565656</v>
       </c>
-      <c r="G25" s="80">
+      <c r="G25" s="78">
         <v>0.48818181818181811</v>
       </c>
-      <c r="H25" s="80">
+      <c r="H25" s="78">
         <v>0.55555555555555558</v>
       </c>
     </row>
@@ -58420,7 +57817,7 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="C27" s="4">
         <f>AVERAGE('Temperature Breakdown'!D25:D39)</f>
@@ -58453,10 +57850,10 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="B30" t="s">
-        <v>430</v>
+        <v>482</v>
       </c>
       <c r="C30" s="4">
         <v>1</v>
@@ -58464,13 +57861,18 @@
       <c r="D30" s="77">
         <v>1</v>
       </c>
+      <c r="E30" s="6">
+        <f>15/150</f>
+        <v>0.1</v>
+      </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>429</v>
+        <v>483</v>
       </c>
       <c r="E31" s="4">
-        <v>1</v>
+        <f>1-E30</f>
+        <v>0.9</v>
       </c>
       <c r="F31" s="6">
         <f>100/250</f>
@@ -58479,7 +57881,7 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="F32" s="6">
         <f>150/250</f>
@@ -58492,34 +57894,60 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="B34" t="s">
-        <v>430</v>
-      </c>
-      <c r="C34" s="6">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>481</v>
+      </c>
+      <c r="C33" s="4">
+        <v>1</v>
+      </c>
+      <c r="D33" s="4">
+        <v>1</v>
+      </c>
+      <c r="E33" s="4">
+        <v>1</v>
+      </c>
+      <c r="F33" s="6"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="B35" t="s">
+        <v>482</v>
+      </c>
+      <c r="C35" s="6">
         <f>SUMPRODUCT(C30:H30,$C$25:$H$25,$C$27:$H$27)/SUMPRODUCT(C30:H30,$C$27:$H$27)</f>
-        <v>0.73717180612721223</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
-        <v>429</v>
-      </c>
-      <c r="C35" s="6">
-        <f t="shared" ref="C35:C36" si="3">SUMPRODUCT(C31:H31,$C$25:$H$25,$C$27:$H$27)/SUMPRODUCT(C31:H31,$C$27:$H$27)</f>
-        <v>0.28990383588033303</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.71523255596540547</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>428</v>
+        <v>483</v>
       </c>
       <c r="C36" s="6">
+        <f t="shared" ref="C36:C38" si="3">SUMPRODUCT(C31:H31,$C$25:$H$25,$C$27:$H$27)/SUMPRODUCT(C31:H31,$C$27:$H$27)</f>
+        <v>0.29055119036728594</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>427</v>
+      </c>
+      <c r="C37" s="6">
         <f t="shared" si="3"/>
         <v>0.50307566278577831</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>481</v>
+      </c>
+      <c r="C38" s="6">
+        <f t="shared" si="3"/>
+        <v>0.58424137438649415</v>
       </c>
     </row>
   </sheetData>
@@ -58533,10 +57961,10 @@
   <sheetPr>
     <tabColor theme="1" tint="0.34998626667073579"/>
   </sheetPr>
-  <dimension ref="A1:U39"/>
+  <dimension ref="A1:U40"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40:I40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -58551,7 +57979,7 @@
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="69" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B1" s="69"/>
       <c r="C1" s="69"/>
@@ -58562,20 +57990,20 @@
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="D3" s="85" t="s">
+      <c r="D3" s="84" t="s">
+        <v>333</v>
+      </c>
+      <c r="E3" s="84"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="I3" s="2" t="s">
         <v>334</v>
-      </c>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="I3" s="2" t="s">
-        <v>335</v>
       </c>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
@@ -58583,7 +58011,7 @@
       <c r="M3" s="8"/>
       <c r="N3" s="8"/>
       <c r="P3" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="Q3" s="8"/>
       <c r="R3" s="8"/>
@@ -58593,63 +58021,63 @@
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B4" s="13" t="s">
+        <v>336</v>
+      </c>
+      <c r="C4" s="13" t="s">
         <v>337</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="D4" s="13" t="s">
         <v>338</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="E4" s="13" t="s">
         <v>339</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="F4" s="13" t="s">
         <v>340</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="G4" s="13" t="s">
         <v>341</v>
       </c>
-      <c r="G4" s="13" t="s">
-        <v>342</v>
-      </c>
       <c r="I4" s="13" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J4" s="13" t="s">
+        <v>316</v>
+      </c>
+      <c r="K4" s="13" t="s">
         <v>317</v>
       </c>
-      <c r="K4" s="13" t="s">
+      <c r="L4" s="13" t="s">
         <v>318</v>
       </c>
-      <c r="L4" s="13" t="s">
-        <v>319</v>
-      </c>
       <c r="M4" s="13" t="s">
+        <v>320</v>
+      </c>
+      <c r="N4" s="13" t="s">
         <v>321</v>
       </c>
-      <c r="N4" s="13" t="s">
-        <v>322</v>
-      </c>
       <c r="P4" s="13" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="Q4" s="13" t="s">
+        <v>316</v>
+      </c>
+      <c r="R4" s="13" t="s">
         <v>317</v>
       </c>
-      <c r="R4" s="13" t="s">
+      <c r="S4" s="13" t="s">
         <v>318</v>
       </c>
-      <c r="S4" s="13" t="s">
-        <v>319</v>
-      </c>
       <c r="T4" s="13" t="s">
+        <v>320</v>
+      </c>
+      <c r="U4" s="13" t="s">
         <v>321</v>
-      </c>
-      <c r="U4" s="13" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B5" s="4">
         <v>0.32</v>
@@ -58720,7 +58148,7 @@
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B6" s="4">
         <v>0.28000000000000003</v>
@@ -58791,7 +58219,7 @@
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B7" s="4">
         <v>0.35</v>
@@ -58862,7 +58290,7 @@
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B8" s="4">
         <v>0.18</v>
@@ -58933,7 +58361,7 @@
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B9" s="4">
         <v>0.28999999999999998</v>
@@ -59004,7 +58432,7 @@
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B10" s="4">
         <v>0.21</v>
@@ -59075,7 +58503,7 @@
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B11" s="4">
         <v>0.21</v>
@@ -59146,7 +58574,7 @@
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B12" s="4">
         <v>0.4</v>
@@ -59217,7 +58645,7 @@
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B13" s="4">
         <v>0.09</v>
@@ -59288,7 +58716,7 @@
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B14" s="4">
         <v>7.0000000000000007E-2</v>
@@ -59359,7 +58787,7 @@
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B15" s="4">
         <v>0.34</v>
@@ -59430,7 +58858,7 @@
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B16" s="4">
         <v>0.23</v>
@@ -59501,7 +58929,7 @@
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B17" s="4">
         <v>0.24</v>
@@ -59572,7 +59000,7 @@
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B18" s="4">
         <v>0.11</v>
@@ -59643,7 +59071,7 @@
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B19" s="4">
         <v>0.13</v>
@@ -59714,36 +59142,36 @@
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B23" s="72" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="24" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="B24" s="65" t="s">
         <v>359</v>
       </c>
-      <c r="B24" s="65" t="s">
+      <c r="D24" s="66" t="s">
+        <v>314</v>
+      </c>
+      <c r="E24" s="66" t="s">
+        <v>316</v>
+      </c>
+      <c r="F24" s="66" t="s">
+        <v>317</v>
+      </c>
+      <c r="G24" s="66" t="s">
+        <v>318</v>
+      </c>
+      <c r="H24" s="66" t="s">
+        <v>320</v>
+      </c>
+      <c r="I24" s="66" t="s">
+        <v>321</v>
+      </c>
+      <c r="K24" s="73" t="s">
         <v>360</v>
-      </c>
-      <c r="D24" s="66" t="s">
-        <v>315</v>
-      </c>
-      <c r="E24" s="66" t="s">
-        <v>317</v>
-      </c>
-      <c r="F24" s="66" t="s">
-        <v>318</v>
-      </c>
-      <c r="G24" s="66" t="s">
-        <v>319</v>
-      </c>
-      <c r="H24" s="66" t="s">
-        <v>321</v>
-      </c>
-      <c r="I24" s="66" t="s">
-        <v>322</v>
-      </c>
-      <c r="K24" s="73" t="s">
-        <v>361</v>
       </c>
       <c r="L24" s="15" t="s">
         <v>208</v>
@@ -59751,10 +59179,9 @@
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B25" s="6">
-        <f>SUM('[4]MECS T5.2'!E47:I50)/SUM('[4]MECS T5.2'!E46:I50,'[4]MECS T5.2'!E42:I42)</f>
         <v>5.0078247261345854E-2</v>
       </c>
       <c r="D25" s="4">
@@ -59782,10 +59209,9 @@
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B26" s="6">
-        <f>SUM('[4]MECS T5.2'!E267:I270)/SUM('[4]MECS T5.2'!E266:I270,'[4]MECS T5.2'!E262:I262)</f>
         <v>4.3478260869565216E-2</v>
       </c>
       <c r="D26" s="4">
@@ -59819,10 +59245,9 @@
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B27" s="6">
-        <f>SUM('[4]MECS T5.2'!E355:I358)/SUM('[4]MECS T5.2'!E354:I358,'[4]MECS T5.2'!E350:I350)</f>
         <v>0.11666666666666667</v>
       </c>
       <c r="D27" s="4">
@@ -59856,10 +59281,9 @@
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B28" s="6">
-        <f>SUM('[4]MECS T5.2'!E465:I468)/SUM('[4]MECS T5.2'!E464:I468,'[4]MECS T5.2'!E460:I460)</f>
         <v>2.4711696869851731E-2</v>
       </c>
       <c r="D28" s="4">
@@ -59887,10 +59311,9 @@
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B29" s="6">
-        <f>SUM('[4]MECS T5.2'!E619:I622)/SUM('[4]MECS T5.2'!E618:I622,'[4]MECS T5.2'!E614:I614)</f>
         <v>3.3707865168539325E-2</v>
       </c>
       <c r="D29" s="4">
@@ -59918,10 +59341,9 @@
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B30" s="6">
-        <f>SUM('[4]MECS T5.2'!E729:I732)/SUM('[4]MECS T5.2'!E728:I732,'[4]MECS T5.2'!E724:I724)</f>
         <v>0.11190576356752209</v>
       </c>
       <c r="D30" s="4">
@@ -59949,10 +59371,9 @@
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B31" s="6">
-        <f>SUM('[4]MECS T5.2'!E1059:I1062)/SUM('[4]MECS T5.2'!E1058:I1062,'[4]MECS T5.2'!E1054:I1054)</f>
         <v>0</v>
       </c>
       <c r="D31" s="4">
@@ -59980,10 +59401,9 @@
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B32" s="6">
-        <f>SUM('[4]MECS T5.2'!E1081:I1084)/SUM('[4]MECS T5.2'!E1080:I1084,'[4]MECS T5.2'!E1076:I1076)</f>
         <v>0.10199999999999999</v>
       </c>
       <c r="D32" s="4">
@@ -60011,10 +59431,9 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B33" s="6">
-        <f>SUM('[4]MECS T5.2'!E1323:I1326)/SUM('[4]MECS T5.2'!E1322:I1326,'[4]MECS T5.2'!E1318:I1318)</f>
         <v>0.13189448441247004</v>
       </c>
       <c r="D33" s="4">
@@ -60048,10 +59467,9 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B34" s="6">
-        <f>SUM('[4]MECS T5.2'!E1367:I1370)/SUM('[4]MECS T5.2'!E1366:I1370,'[4]MECS T5.2'!E1372:I1372)</f>
         <v>2.9702970297029702E-2</v>
       </c>
       <c r="D34" s="4">
@@ -60079,10 +59497,9 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B35" s="6">
-        <f>SUM('[4]MECS T5.2'!E1609:I1612)/SUM('[4]MECS T5.2'!E1608:I1612,'[4]MECS T5.2'!E1604:I1604)</f>
         <v>0.1875</v>
       </c>
       <c r="D35" s="4">
@@ -60116,10 +59533,9 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B36" s="6">
-        <f>SUM('[4]MECS T5.2'!E1697:I1700)/SUM('[4]MECS T5.2'!E1696:I1700,'[4]MECS T5.2'!E1692:I1692)</f>
         <v>8.1632653061224483E-2</v>
       </c>
       <c r="D36" s="4">
@@ -60153,10 +59569,9 @@
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B37" s="6">
-        <f>SUM('[4]MECS T5.2'!E1631:I1634)/SUM('[4]MECS T5.2'!E1630:I1634,'[4]MECS T5.2'!E1626:I1626)</f>
         <v>7.6923076923076927E-2</v>
       </c>
       <c r="D37" s="4">
@@ -60188,15 +59603,14 @@
         <v>12</v>
       </c>
       <c r="L37" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B38" s="6">
-        <f>SUM('[4]MECS T5.2'!E1675:I1678)/SUM('[4]MECS T5.2'!E1674:I1678,'[4]MECS T5.2'!E1670:I1670)</f>
         <v>0</v>
       </c>
       <c r="D38" s="4">
@@ -60228,15 +59642,14 @@
         <v>12</v>
       </c>
       <c r="L38" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B39" s="6">
-        <f>SUM('[4]MECS T5.2'!E1829:I1832)/SUM('[4]MECS T5.2'!E1828:I1832,'[4]MECS T5.2'!E1824:I1824)</f>
         <v>7.1428571428571425E-2</v>
       </c>
       <c r="D39" s="4">
@@ -60268,7 +59681,39 @@
         <v>12</v>
       </c>
       <c r="L39" t="s">
-        <v>374</v>
+        <v>373</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>347</v>
+      </c>
+      <c r="D40" s="4">
+        <f>P10</f>
+        <v>0</v>
+      </c>
+      <c r="E40" s="4">
+        <f t="shared" ref="E40:I40" si="16">Q10</f>
+        <v>0</v>
+      </c>
+      <c r="F40" s="4">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="G40" s="4">
+        <f t="shared" si="16"/>
+        <v>1.9230769230769232E-2</v>
+      </c>
+      <c r="H40" s="4">
+        <f t="shared" si="16"/>
+        <v>5.7692307692307696E-2</v>
+      </c>
+      <c r="I40" s="4">
+        <f t="shared" si="16"/>
+        <v>0.92307692307692302</v>
+      </c>
+      <c r="K40" s="58">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -60288,7 +59733,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -60303,22 +59748,22 @@
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="74" t="s">
+        <v>376</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="71" t="s">
         <v>378</v>
       </c>
-      <c r="C1" s="71" t="s">
+      <c r="D1" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>381</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -60326,19 +59771,19 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C2" s="58">
         <v>2024</v>
       </c>
       <c r="D2" t="s">
+        <v>383</v>
+      </c>
+      <c r="E2" s="14" t="s">
         <v>384</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="F2" t="s">
         <v>385</v>
-      </c>
-      <c r="F2" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -60352,10 +59797,10 @@
         <v>2021</v>
       </c>
       <c r="D3" t="s">
+        <v>386</v>
+      </c>
+      <c r="E3" s="14" t="s">
         <v>387</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>388</v>
       </c>
       <c r="F3" t="s">
         <v>193</v>
@@ -60366,19 +59811,19 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C4" s="58">
         <v>2024</v>
       </c>
       <c r="D4" t="s">
+        <v>389</v>
+      </c>
+      <c r="E4" s="14" t="s">
         <v>390</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="F4" t="s">
         <v>391</v>
-      </c>
-      <c r="F4" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -60386,19 +59831,19 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C5" s="58">
         <v>2015</v>
       </c>
       <c r="D5" t="s">
+        <v>393</v>
+      </c>
+      <c r="E5" s="14" t="s">
         <v>394</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="F5" t="s">
         <v>395</v>
-      </c>
-      <c r="F5" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -60406,19 +59851,19 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C6" s="58">
         <v>2015</v>
       </c>
       <c r="D6" t="s">
+        <v>397</v>
+      </c>
+      <c r="E6" s="14" t="s">
         <v>398</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="F6" t="s">
         <v>399</v>
-      </c>
-      <c r="F6" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -60426,19 +59871,19 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C7" s="58">
         <v>2023</v>
       </c>
       <c r="D7" t="s">
+        <v>401</v>
+      </c>
+      <c r="E7" s="14" t="s">
         <v>402</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="F7" t="s">
         <v>403</v>
-      </c>
-      <c r="F7" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -60446,19 +59891,19 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C8" s="58">
         <v>2021</v>
       </c>
       <c r="D8" t="s">
+        <v>405</v>
+      </c>
+      <c r="E8" s="14" t="s">
         <v>406</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="F8" t="s">
         <v>407</v>
-      </c>
-      <c r="F8" t="s">
-        <v>408</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -60466,19 +59911,19 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C9" s="58">
         <v>2017</v>
       </c>
       <c r="D9" t="s">
+        <v>409</v>
+      </c>
+      <c r="E9" s="14" t="s">
         <v>410</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="F9" t="s">
         <v>411</v>
-      </c>
-      <c r="F9" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -60486,19 +59931,19 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C10" s="58">
         <v>2006</v>
       </c>
       <c r="D10" t="s">
+        <v>413</v>
+      </c>
+      <c r="E10" s="14" t="s">
         <v>414</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="F10" t="s">
         <v>415</v>
-      </c>
-      <c r="F10" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -60512,13 +59957,13 @@
         <v>2014</v>
       </c>
       <c r="D11" t="s">
+        <v>416</v>
+      </c>
+      <c r="E11" s="14" t="s">
         <v>417</v>
       </c>
-      <c r="E11" s="14" t="s">
+      <c r="F11" t="s">
         <v>418</v>
-      </c>
-      <c r="F11" t="s">
-        <v>419</v>
       </c>
     </row>
   </sheetData>
@@ -60539,104 +59984,878 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <sheetPr>
-    <tabColor theme="3"/>
-  </sheetPr>
-  <dimension ref="A1:B9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBA4BAC4-DAD5-4B3C-8999-FA6866E1C28D}">
+  <dimension ref="B1:J26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14:I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.42578125" customWidth="1"/>
-    <col min="2" max="2" width="27.5703125" customWidth="1"/>
+    <col min="2" max="2" width="45.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30" bestFit="1" customWidth="1"/>
+    <col min="4" max="9" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
-        <v>303</v>
-      </c>
-      <c r="B1" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
-        <v>264</v>
-      </c>
-      <c r="B2" s="78">
-        <f>'Low Temp Heat'!A122</f>
-        <v>0.71370070206087854</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
-        <v>269</v>
-      </c>
-      <c r="B3" s="79">
-        <f>B$2</f>
-        <v>0.71370070206087854</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
-        <v>270</v>
-      </c>
-      <c r="B4" s="78">
-        <f>Efficiencies!C35</f>
-        <v>0.28990383588033303</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="s">
-        <v>268</v>
-      </c>
-      <c r="B5" s="78">
-        <f>Efficiencies!C36</f>
-        <v>0.50307566278577831</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="18" t="s">
-        <v>271</v>
-      </c>
-      <c r="B6" s="87">
-        <f>Cooling!B15</f>
-        <v>0.80536907536907543</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="18" t="s">
-        <v>266</v>
-      </c>
-      <c r="B7" s="78">
-        <f>Efficiencies!B25</f>
-        <v>0.55208333333333337</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="18" t="s">
-        <v>265</v>
-      </c>
-      <c r="B8" s="79">
-        <f>AVERAGE(B2,B4:B7)</f>
-        <v>0.57282652188587968</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="18" t="s">
-        <v>267</v>
-      </c>
-      <c r="B9" s="79">
-        <f>AVERAGE(B2,B4:B7)</f>
-        <v>0.57282652188587968</v>
-      </c>
+    <row r="1" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D1" s="66" t="s">
+        <v>314</v>
+      </c>
+      <c r="E1" s="66" t="s">
+        <v>316</v>
+      </c>
+      <c r="F1" s="66" t="s">
+        <v>317</v>
+      </c>
+      <c r="G1" s="66" t="s">
+        <v>318</v>
+      </c>
+      <c r="H1" s="66" t="s">
+        <v>320</v>
+      </c>
+      <c r="I1" s="66" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>456</v>
+      </c>
+      <c r="C2" t="s">
+        <v>484</v>
+      </c>
+      <c r="D2" s="6">
+        <f>IF($C2="average",Efficiencies!C$27,INDEX('Temperature Breakdown'!D$25:D$40,MATCH(Mapping!$C2,'Temperature Breakdown'!$A$25:$A$40,0)))</f>
+        <v>0.22712128261679607</v>
+      </c>
+      <c r="E2" s="6">
+        <f>IF($C2="average",Efficiencies!D$27,INDEX('Temperature Breakdown'!E$25:E$40,MATCH(Mapping!$C2,'Temperature Breakdown'!$A$25:$A$40,0)))</f>
+        <v>0.18096501818637736</v>
+      </c>
+      <c r="F2" s="6">
+        <f>IF($C2="average",Efficiencies!E$27,INDEX('Temperature Breakdown'!F$25:F$40,MATCH(Mapping!$C2,'Temperature Breakdown'!$A$25:$A$40,0)))</f>
+        <v>0.20705409259653504</v>
+      </c>
+      <c r="G2" s="6">
+        <f>IF($C2="average",Efficiencies!F$27,INDEX('Temperature Breakdown'!G$25:G$40,MATCH(Mapping!$C2,'Temperature Breakdown'!$A$25:$A$40,0)))</f>
+        <v>9.990108165832158E-2</v>
+      </c>
+      <c r="H2" s="6">
+        <f>IF($C2="average",Efficiencies!G$27,INDEX('Temperature Breakdown'!H$25:H$40,MATCH(Mapping!$C2,'Temperature Breakdown'!$A$25:$A$40,0)))</f>
+        <v>6.4928393115227967E-2</v>
+      </c>
+      <c r="I2" s="6">
+        <f>IF($C2="average",Efficiencies!H$27,INDEX('Temperature Breakdown'!I$25:I$40,MATCH(Mapping!$C2,'Temperature Breakdown'!$A$25:$A$40,0)))</f>
+        <v>0.22003013182674194</v>
+      </c>
+      <c r="J2" s="4"/>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>457</v>
+      </c>
+      <c r="C3" t="s">
+        <v>484</v>
+      </c>
+      <c r="D3" s="6">
+        <f>IF($C3="average",Efficiencies!C$27,INDEX('Temperature Breakdown'!D$25:D$40,MATCH(Mapping!$C3,'Temperature Breakdown'!$A$25:$A$40,0)))</f>
+        <v>0.22712128261679607</v>
+      </c>
+      <c r="E3" s="6">
+        <f>IF($C3="average",Efficiencies!D$27,INDEX('Temperature Breakdown'!E$25:E$40,MATCH(Mapping!$C3,'Temperature Breakdown'!$A$25:$A$40,0)))</f>
+        <v>0.18096501818637736</v>
+      </c>
+      <c r="F3" s="6">
+        <f>IF($C3="average",Efficiencies!E$27,INDEX('Temperature Breakdown'!F$25:F$40,MATCH(Mapping!$C3,'Temperature Breakdown'!$A$25:$A$40,0)))</f>
+        <v>0.20705409259653504</v>
+      </c>
+      <c r="G3" s="6">
+        <f>IF($C3="average",Efficiencies!F$27,INDEX('Temperature Breakdown'!G$25:G$40,MATCH(Mapping!$C3,'Temperature Breakdown'!$A$25:$A$40,0)))</f>
+        <v>9.990108165832158E-2</v>
+      </c>
+      <c r="H3" s="6">
+        <f>IF($C3="average",Efficiencies!G$27,INDEX('Temperature Breakdown'!H$25:H$40,MATCH(Mapping!$C3,'Temperature Breakdown'!$A$25:$A$40,0)))</f>
+        <v>6.4928393115227967E-2</v>
+      </c>
+      <c r="I3" s="6">
+        <f>IF($C3="average",Efficiencies!H$27,INDEX('Temperature Breakdown'!I$25:I$40,MATCH(Mapping!$C3,'Temperature Breakdown'!$A$25:$A$40,0)))</f>
+        <v>0.22003013182674194</v>
+      </c>
+      <c r="J3" s="4"/>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>458</v>
+      </c>
+      <c r="C4" t="s">
+        <v>356</v>
+      </c>
+      <c r="D4" s="6">
+        <f>IF($C4="average",Efficiencies!C$27,INDEX('Temperature Breakdown'!D$25:D$40,MATCH(Mapping!$C4,'Temperature Breakdown'!$A$25:$A$40,0)))</f>
+        <v>0.03</v>
+      </c>
+      <c r="E4" s="6">
+        <f>IF($C4="average",Efficiencies!D$27,INDEX('Temperature Breakdown'!E$25:E$40,MATCH(Mapping!$C4,'Temperature Breakdown'!$A$25:$A$40,0)))</f>
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="F4" s="6">
+        <f>IF($C4="average",Efficiencies!E$27,INDEX('Temperature Breakdown'!F$25:F$40,MATCH(Mapping!$C4,'Temperature Breakdown'!$A$25:$A$40,0)))</f>
+        <v>0.15</v>
+      </c>
+      <c r="G4" s="6">
+        <f>IF($C4="average",Efficiencies!F$27,INDEX('Temperature Breakdown'!G$25:G$40,MATCH(Mapping!$C4,'Temperature Breakdown'!$A$25:$A$40,0)))</f>
+        <v>0.02</v>
+      </c>
+      <c r="H4" s="6">
+        <f>IF($C4="average",Efficiencies!G$27,INDEX('Temperature Breakdown'!H$25:H$40,MATCH(Mapping!$C4,'Temperature Breakdown'!$A$25:$A$40,0)))</f>
+        <v>0.23</v>
+      </c>
+      <c r="I4" s="6">
+        <f>IF($C4="average",Efficiencies!H$27,INDEX('Temperature Breakdown'!I$25:I$40,MATCH(Mapping!$C4,'Temperature Breakdown'!$A$25:$A$40,0)))</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="4"/>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>459</v>
+      </c>
+      <c r="C5" t="s">
+        <v>484</v>
+      </c>
+      <c r="D5" s="6">
+        <f>IF($C5="average",Efficiencies!C$27,INDEX('Temperature Breakdown'!D$25:D$40,MATCH(Mapping!$C5,'Temperature Breakdown'!$A$25:$A$40,0)))</f>
+        <v>0.22712128261679607</v>
+      </c>
+      <c r="E5" s="6">
+        <f>IF($C5="average",Efficiencies!D$27,INDEX('Temperature Breakdown'!E$25:E$40,MATCH(Mapping!$C5,'Temperature Breakdown'!$A$25:$A$40,0)))</f>
+        <v>0.18096501818637736</v>
+      </c>
+      <c r="F5" s="6">
+        <f>IF($C5="average",Efficiencies!E$27,INDEX('Temperature Breakdown'!F$25:F$40,MATCH(Mapping!$C5,'Temperature Breakdown'!$A$25:$A$40,0)))</f>
+        <v>0.20705409259653504</v>
+      </c>
+      <c r="G5" s="6">
+        <f>IF($C5="average",Efficiencies!F$27,INDEX('Temperature Breakdown'!G$25:G$40,MATCH(Mapping!$C5,'Temperature Breakdown'!$A$25:$A$40,0)))</f>
+        <v>9.990108165832158E-2</v>
+      </c>
+      <c r="H5" s="6">
+        <f>IF($C5="average",Efficiencies!G$27,INDEX('Temperature Breakdown'!H$25:H$40,MATCH(Mapping!$C5,'Temperature Breakdown'!$A$25:$A$40,0)))</f>
+        <v>6.4928393115227967E-2</v>
+      </c>
+      <c r="I5" s="6">
+        <f>IF($C5="average",Efficiencies!H$27,INDEX('Temperature Breakdown'!I$25:I$40,MATCH(Mapping!$C5,'Temperature Breakdown'!$A$25:$A$40,0)))</f>
+        <v>0.22003013182674194</v>
+      </c>
+      <c r="J5" s="4"/>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>460</v>
+      </c>
+      <c r="C6" t="s">
+        <v>361</v>
+      </c>
+      <c r="D6" s="6">
+        <f>IF($C6="average",Efficiencies!C$27,INDEX('Temperature Breakdown'!D$25:D$40,MATCH(Mapping!$C6,'Temperature Breakdown'!$A$25:$A$40,0)))</f>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="E6" s="6">
+        <f>IF($C6="average",Efficiencies!D$27,INDEX('Temperature Breakdown'!E$25:E$40,MATCH(Mapping!$C6,'Temperature Breakdown'!$A$25:$A$40,0)))</f>
+        <v>0.43</v>
+      </c>
+      <c r="F6" s="6">
+        <f>IF($C6="average",Efficiencies!E$27,INDEX('Temperature Breakdown'!F$25:F$40,MATCH(Mapping!$C6,'Temperature Breakdown'!$A$25:$A$40,0)))</f>
+        <v>0</v>
+      </c>
+      <c r="G6" s="6">
+        <f>IF($C6="average",Efficiencies!F$27,INDEX('Temperature Breakdown'!G$25:G$40,MATCH(Mapping!$C6,'Temperature Breakdown'!$A$25:$A$40,0)))</f>
+        <v>0.02</v>
+      </c>
+      <c r="H6" s="6">
+        <f>IF($C6="average",Efficiencies!G$27,INDEX('Temperature Breakdown'!H$25:H$40,MATCH(Mapping!$C6,'Temperature Breakdown'!$A$25:$A$40,0)))</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="6">
+        <f>IF($C6="average",Efficiencies!H$27,INDEX('Temperature Breakdown'!I$25:I$40,MATCH(Mapping!$C6,'Temperature Breakdown'!$A$25:$A$40,0)))</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="4"/>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>461</v>
+      </c>
+      <c r="C7" t="s">
+        <v>362</v>
+      </c>
+      <c r="D7" s="6">
+        <f>IF($C7="average",Efficiencies!C$27,INDEX('Temperature Breakdown'!D$25:D$40,MATCH(Mapping!$C7,'Temperature Breakdown'!$A$25:$A$40,0)))</f>
+        <v>0.37818181818181817</v>
+      </c>
+      <c r="E7" s="6">
+        <f>IF($C7="average",Efficiencies!D$27,INDEX('Temperature Breakdown'!E$25:E$40,MATCH(Mapping!$C7,'Temperature Breakdown'!$A$25:$A$40,0)))</f>
+        <v>0.18242424242424241</v>
+      </c>
+      <c r="F7" s="6">
+        <f>IF($C7="average",Efficiencies!E$27,INDEX('Temperature Breakdown'!F$25:F$40,MATCH(Mapping!$C7,'Temperature Breakdown'!$A$25:$A$40,0)))</f>
+        <v>0.26363636363636361</v>
+      </c>
+      <c r="G7" s="6">
+        <f>IF($C7="average",Efficiencies!F$27,INDEX('Temperature Breakdown'!G$25:G$40,MATCH(Mapping!$C7,'Temperature Breakdown'!$A$25:$A$40,0)))</f>
+        <v>0.17575757575757572</v>
+      </c>
+      <c r="H7" s="6">
+        <f>IF($C7="average",Efficiencies!G$27,INDEX('Temperature Breakdown'!H$25:H$40,MATCH(Mapping!$C7,'Temperature Breakdown'!$A$25:$A$40,0)))</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="6">
+        <f>IF($C7="average",Efficiencies!H$27,INDEX('Temperature Breakdown'!I$25:I$40,MATCH(Mapping!$C7,'Temperature Breakdown'!$A$25:$A$40,0)))</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="4"/>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>462</v>
+      </c>
+      <c r="C8" t="s">
+        <v>363</v>
+      </c>
+      <c r="D8" s="6">
+        <f>IF($C8="average",Efficiencies!C$27,INDEX('Temperature Breakdown'!D$25:D$40,MATCH(Mapping!$C8,'Temperature Breakdown'!$A$25:$A$40,0)))</f>
+        <v>9.4117647058823542E-2</v>
+      </c>
+      <c r="E8" s="6">
+        <f>IF($C8="average",Efficiencies!D$27,INDEX('Temperature Breakdown'!E$25:E$40,MATCH(Mapping!$C8,'Temperature Breakdown'!$A$25:$A$40,0)))</f>
+        <v>0.17058823529411765</v>
+      </c>
+      <c r="F8" s="6">
+        <f>IF($C8="average",Efficiencies!E$27,INDEX('Temperature Breakdown'!F$25:F$40,MATCH(Mapping!$C8,'Temperature Breakdown'!$A$25:$A$40,0)))</f>
+        <v>0.44117647058823534</v>
+      </c>
+      <c r="G8" s="6">
+        <f>IF($C8="average",Efficiencies!F$27,INDEX('Temperature Breakdown'!G$25:G$40,MATCH(Mapping!$C8,'Temperature Breakdown'!$A$25:$A$40,0)))</f>
+        <v>0.29411764705882354</v>
+      </c>
+      <c r="H8" s="6">
+        <f>IF($C8="average",Efficiencies!G$27,INDEX('Temperature Breakdown'!H$25:H$40,MATCH(Mapping!$C8,'Temperature Breakdown'!$A$25:$A$40,0)))</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="6">
+        <f>IF($C8="average",Efficiencies!H$27,INDEX('Temperature Breakdown'!I$25:I$40,MATCH(Mapping!$C8,'Temperature Breakdown'!$A$25:$A$40,0)))</f>
+        <v>0</v>
+      </c>
+      <c r="J8" s="4"/>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>463</v>
+      </c>
+      <c r="C9" t="s">
+        <v>364</v>
+      </c>
+      <c r="D9" s="6">
+        <f>IF($C9="average",Efficiencies!C$27,INDEX('Temperature Breakdown'!D$25:D$40,MATCH(Mapping!$C9,'Temperature Breakdown'!$A$25:$A$40,0)))</f>
+        <v>0.33</v>
+      </c>
+      <c r="E9" s="6">
+        <f>IF($C9="average",Efficiencies!D$27,INDEX('Temperature Breakdown'!E$25:E$40,MATCH(Mapping!$C9,'Temperature Breakdown'!$A$25:$A$40,0)))</f>
+        <v>0.1</v>
+      </c>
+      <c r="F9" s="6">
+        <f>IF($C9="average",Efficiencies!E$27,INDEX('Temperature Breakdown'!F$25:F$40,MATCH(Mapping!$C9,'Temperature Breakdown'!$A$25:$A$40,0)))</f>
+        <v>0.15</v>
+      </c>
+      <c r="G9" s="6">
+        <f>IF($C9="average",Efficiencies!F$27,INDEX('Temperature Breakdown'!G$25:G$40,MATCH(Mapping!$C9,'Temperature Breakdown'!$A$25:$A$40,0)))</f>
+        <v>0</v>
+      </c>
+      <c r="H9" s="6">
+        <f>IF($C9="average",Efficiencies!G$27,INDEX('Temperature Breakdown'!H$25:H$40,MATCH(Mapping!$C9,'Temperature Breakdown'!$A$25:$A$40,0)))</f>
+        <v>0.42</v>
+      </c>
+      <c r="I9" s="6">
+        <f>IF($C9="average",Efficiencies!H$27,INDEX('Temperature Breakdown'!I$25:I$40,MATCH(Mapping!$C9,'Temperature Breakdown'!$A$25:$A$40,0)))</f>
+        <v>0</v>
+      </c>
+      <c r="J9" s="4"/>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>464</v>
+      </c>
+      <c r="C10" t="s">
+        <v>365</v>
+      </c>
+      <c r="D10" s="6">
+        <f>IF($C10="average",Efficiencies!C$27,INDEX('Temperature Breakdown'!D$25:D$40,MATCH(Mapping!$C10,'Temperature Breakdown'!$A$25:$A$40,0)))</f>
+        <v>0.08</v>
+      </c>
+      <c r="E10" s="6">
+        <f>IF($C10="average",Efficiencies!D$27,INDEX('Temperature Breakdown'!E$25:E$40,MATCH(Mapping!$C10,'Temperature Breakdown'!$A$25:$A$40,0)))</f>
+        <v>0.18</v>
+      </c>
+      <c r="F10" s="6">
+        <f>IF($C10="average",Efficiencies!E$27,INDEX('Temperature Breakdown'!F$25:F$40,MATCH(Mapping!$C10,'Temperature Breakdown'!$A$25:$A$40,0)))</f>
+        <v>0.46</v>
+      </c>
+      <c r="G10" s="6">
+        <f>IF($C10="average",Efficiencies!F$27,INDEX('Temperature Breakdown'!G$25:G$40,MATCH(Mapping!$C10,'Temperature Breakdown'!$A$25:$A$40,0)))</f>
+        <v>0.27</v>
+      </c>
+      <c r="H10" s="6">
+        <f>IF($C10="average",Efficiencies!G$27,INDEX('Temperature Breakdown'!H$25:H$40,MATCH(Mapping!$C10,'Temperature Breakdown'!$A$25:$A$40,0)))</f>
+        <v>0</v>
+      </c>
+      <c r="I10" s="6">
+        <f>IF($C10="average",Efficiencies!H$27,INDEX('Temperature Breakdown'!I$25:I$40,MATCH(Mapping!$C10,'Temperature Breakdown'!$A$25:$A$40,0)))</f>
+        <v>0.01</v>
+      </c>
+      <c r="J10" s="4"/>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>465</v>
+      </c>
+      <c r="C11" t="s">
+        <v>356</v>
+      </c>
+      <c r="D11" s="6">
+        <f>IF($C11="average",Efficiencies!C$27,INDEX('Temperature Breakdown'!D$25:D$40,MATCH(Mapping!$C11,'Temperature Breakdown'!$A$25:$A$40,0)))</f>
+        <v>0.03</v>
+      </c>
+      <c r="E11" s="6">
+        <f>IF($C11="average",Efficiencies!D$27,INDEX('Temperature Breakdown'!E$25:E$40,MATCH(Mapping!$C11,'Temperature Breakdown'!$A$25:$A$40,0)))</f>
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="F11" s="6">
+        <f>IF($C11="average",Efficiencies!E$27,INDEX('Temperature Breakdown'!F$25:F$40,MATCH(Mapping!$C11,'Temperature Breakdown'!$A$25:$A$40,0)))</f>
+        <v>0.15</v>
+      </c>
+      <c r="G11" s="6">
+        <f>IF($C11="average",Efficiencies!F$27,INDEX('Temperature Breakdown'!G$25:G$40,MATCH(Mapping!$C11,'Temperature Breakdown'!$A$25:$A$40,0)))</f>
+        <v>0.02</v>
+      </c>
+      <c r="H11" s="6">
+        <f>IF($C11="average",Efficiencies!G$27,INDEX('Temperature Breakdown'!H$25:H$40,MATCH(Mapping!$C11,'Temperature Breakdown'!$A$25:$A$40,0)))</f>
+        <v>0.23</v>
+      </c>
+      <c r="I11" s="6">
+        <f>IF($C11="average",Efficiencies!H$27,INDEX('Temperature Breakdown'!I$25:I$40,MATCH(Mapping!$C11,'Temperature Breakdown'!$A$25:$A$40,0)))</f>
+        <v>0</v>
+      </c>
+      <c r="J11" s="4"/>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>466</v>
+      </c>
+      <c r="C12" t="s">
+        <v>366</v>
+      </c>
+      <c r="D12" s="6">
+        <f>IF($C12="average",Efficiencies!C$27,INDEX('Temperature Breakdown'!D$25:D$40,MATCH(Mapping!$C12,'Temperature Breakdown'!$A$25:$A$40,0)))</f>
+        <v>0.04</v>
+      </c>
+      <c r="E12" s="6">
+        <f>IF($C12="average",Efficiencies!D$27,INDEX('Temperature Breakdown'!E$25:E$40,MATCH(Mapping!$C12,'Temperature Breakdown'!$A$25:$A$40,0)))</f>
+        <v>0.38</v>
+      </c>
+      <c r="F12" s="6">
+        <f>IF($C12="average",Efficiencies!E$27,INDEX('Temperature Breakdown'!F$25:F$40,MATCH(Mapping!$C12,'Temperature Breakdown'!$A$25:$A$40,0)))</f>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="G12" s="6">
+        <f>IF($C12="average",Efficiencies!F$27,INDEX('Temperature Breakdown'!G$25:G$40,MATCH(Mapping!$C12,'Temperature Breakdown'!$A$25:$A$40,0)))</f>
+        <v>0</v>
+      </c>
+      <c r="H12" s="6">
+        <f>IF($C12="average",Efficiencies!G$27,INDEX('Temperature Breakdown'!H$25:H$40,MATCH(Mapping!$C12,'Temperature Breakdown'!$A$25:$A$40,0)))</f>
+        <v>0</v>
+      </c>
+      <c r="I12" s="6">
+        <f>IF($C12="average",Efficiencies!H$27,INDEX('Temperature Breakdown'!I$25:I$40,MATCH(Mapping!$C12,'Temperature Breakdown'!$A$25:$A$40,0)))</f>
+        <v>0</v>
+      </c>
+      <c r="J12" s="4"/>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>467</v>
+      </c>
+      <c r="C13" t="s">
+        <v>347</v>
+      </c>
+      <c r="D13" s="6">
+        <f>IF($C13="average",Efficiencies!C$27,INDEX('Temperature Breakdown'!D$25:D$40,MATCH(Mapping!$C13,'Temperature Breakdown'!$A$25:$A$40,0)))</f>
+        <v>0</v>
+      </c>
+      <c r="E13" s="6">
+        <f>IF($C13="average",Efficiencies!D$27,INDEX('Temperature Breakdown'!E$25:E$40,MATCH(Mapping!$C13,'Temperature Breakdown'!$A$25:$A$40,0)))</f>
+        <v>0</v>
+      </c>
+      <c r="F13" s="6">
+        <f>IF($C13="average",Efficiencies!E$27,INDEX('Temperature Breakdown'!F$25:F$40,MATCH(Mapping!$C13,'Temperature Breakdown'!$A$25:$A$40,0)))</f>
+        <v>0</v>
+      </c>
+      <c r="G13" s="6">
+        <f>IF($C13="average",Efficiencies!F$27,INDEX('Temperature Breakdown'!G$25:G$40,MATCH(Mapping!$C13,'Temperature Breakdown'!$A$25:$A$40,0)))</f>
+        <v>1.9230769230769232E-2</v>
+      </c>
+      <c r="H13" s="6">
+        <f>IF($C13="average",Efficiencies!G$27,INDEX('Temperature Breakdown'!H$25:H$40,MATCH(Mapping!$C13,'Temperature Breakdown'!$A$25:$A$40,0)))</f>
+        <v>5.7692307692307696E-2</v>
+      </c>
+      <c r="I13" s="6">
+        <f>IF($C13="average",Efficiencies!H$27,INDEX('Temperature Breakdown'!I$25:I$40,MATCH(Mapping!$C13,'Temperature Breakdown'!$A$25:$A$40,0)))</f>
+        <v>0.92307692307692302</v>
+      </c>
+      <c r="J13" s="4"/>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>468</v>
+      </c>
+      <c r="C14" t="s">
+        <v>367</v>
+      </c>
+      <c r="D14" s="6">
+        <f>IF($C14="average",Efficiencies!C$27,INDEX('Temperature Breakdown'!D$25:D$40,MATCH(Mapping!$C14,'Temperature Breakdown'!$A$25:$A$40,0)))</f>
+        <v>0</v>
+      </c>
+      <c r="E14" s="6">
+        <f>IF($C14="average",Efficiencies!D$27,INDEX('Temperature Breakdown'!E$25:E$40,MATCH(Mapping!$C14,'Temperature Breakdown'!$A$25:$A$40,0)))</f>
+        <v>0</v>
+      </c>
+      <c r="F14" s="6">
+        <f>IF($C14="average",Efficiencies!E$27,INDEX('Temperature Breakdown'!F$25:F$40,MATCH(Mapping!$C14,'Temperature Breakdown'!$A$25:$A$40,0)))</f>
+        <v>0.16</v>
+      </c>
+      <c r="G14" s="6">
+        <f>IF($C14="average",Efficiencies!F$27,INDEX('Temperature Breakdown'!G$25:G$40,MATCH(Mapping!$C14,'Temperature Breakdown'!$A$25:$A$40,0)))</f>
+        <v>0</v>
+      </c>
+      <c r="H14" s="6">
+        <f>IF($C14="average",Efficiencies!G$27,INDEX('Temperature Breakdown'!H$25:H$40,MATCH(Mapping!$C14,'Temperature Breakdown'!$A$25:$A$40,0)))</f>
+        <v>0</v>
+      </c>
+      <c r="I14" s="6">
+        <f>IF($C14="average",Efficiencies!H$27,INDEX('Temperature Breakdown'!I$25:I$40,MATCH(Mapping!$C14,'Temperature Breakdown'!$A$25:$A$40,0)))</f>
+        <v>0.84</v>
+      </c>
+      <c r="J14" s="4"/>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>469</v>
+      </c>
+      <c r="C15" t="s">
+        <v>368</v>
+      </c>
+      <c r="D15" s="6">
+        <f>IF($C15="average",Efficiencies!C$27,INDEX('Temperature Breakdown'!D$25:D$40,MATCH(Mapping!$C15,'Temperature Breakdown'!$A$25:$A$40,0)))</f>
+        <v>4.5197740112994352E-3</v>
+      </c>
+      <c r="E15" s="6">
+        <f>IF($C15="average",Efficiencies!D$27,INDEX('Temperature Breakdown'!E$25:E$40,MATCH(Mapping!$C15,'Temperature Breakdown'!$A$25:$A$40,0)))</f>
+        <v>3.0131826741996233E-3</v>
+      </c>
+      <c r="F15" s="6">
+        <f>IF($C15="average",Efficiencies!E$27,INDEX('Temperature Breakdown'!F$25:F$40,MATCH(Mapping!$C15,'Temperature Breakdown'!$A$25:$A$40,0)))</f>
+        <v>5.6497175141242938E-3</v>
+      </c>
+      <c r="G15" s="6">
+        <f>IF($C15="average",Efficiencies!F$27,INDEX('Temperature Breakdown'!G$25:G$40,MATCH(Mapping!$C15,'Temperature Breakdown'!$A$25:$A$40,0)))</f>
+        <v>9.4161958568738224E-3</v>
+      </c>
+      <c r="H15" s="6">
+        <f>IF($C15="average",Efficiencies!G$27,INDEX('Temperature Breakdown'!H$25:H$40,MATCH(Mapping!$C15,'Temperature Breakdown'!$A$25:$A$40,0)))</f>
+        <v>1.6949152542372881E-2</v>
+      </c>
+      <c r="I15" s="6">
+        <f>IF($C15="average",Efficiencies!H$27,INDEX('Temperature Breakdown'!I$25:I$40,MATCH(Mapping!$C15,'Temperature Breakdown'!$A$25:$A$40,0)))</f>
+        <v>0.96045197740112986</v>
+      </c>
+      <c r="J15" s="4"/>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>470</v>
+      </c>
+      <c r="C16" t="s">
+        <v>369</v>
+      </c>
+      <c r="D16" s="6">
+        <f>IF($C16="average",Efficiencies!C$27,INDEX('Temperature Breakdown'!D$25:D$40,MATCH(Mapping!$C16,'Temperature Breakdown'!$A$25:$A$40,0)))</f>
+        <v>0.3</v>
+      </c>
+      <c r="E16" s="6">
+        <f>IF($C16="average",Efficiencies!D$27,INDEX('Temperature Breakdown'!E$25:E$40,MATCH(Mapping!$C16,'Temperature Breakdown'!$A$25:$A$40,0)))</f>
+        <v>0</v>
+      </c>
+      <c r="F16" s="6">
+        <f>IF($C16="average",Efficiencies!E$27,INDEX('Temperature Breakdown'!F$25:F$40,MATCH(Mapping!$C16,'Temperature Breakdown'!$A$25:$A$40,0)))</f>
+        <v>0</v>
+      </c>
+      <c r="G16" s="6">
+        <f>IF($C16="average",Efficiencies!F$27,INDEX('Temperature Breakdown'!G$25:G$40,MATCH(Mapping!$C16,'Temperature Breakdown'!$A$25:$A$40,0)))</f>
+        <v>0.06</v>
+      </c>
+      <c r="H16" s="6">
+        <f>IF($C16="average",Efficiencies!G$27,INDEX('Temperature Breakdown'!H$25:H$40,MATCH(Mapping!$C16,'Temperature Breakdown'!$A$25:$A$40,0)))</f>
+        <v>0.15</v>
+      </c>
+      <c r="I16" s="6">
+        <f>IF($C16="average",Efficiencies!H$27,INDEX('Temperature Breakdown'!I$25:I$40,MATCH(Mapping!$C16,'Temperature Breakdown'!$A$25:$A$40,0)))</f>
+        <v>0.49</v>
+      </c>
+      <c r="J16" s="4"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>471</v>
+      </c>
+      <c r="C17" t="s">
+        <v>374</v>
+      </c>
+      <c r="D17" s="6">
+        <f>IF($C17="average",Efficiencies!C$27,INDEX('Temperature Breakdown'!D$25:D$40,MATCH(Mapping!$C17,'Temperature Breakdown'!$A$25:$A$40,0)))</f>
+        <v>0.33488372093023255</v>
+      </c>
+      <c r="E17" s="6">
+        <f>IF($C17="average",Efficiencies!D$27,INDEX('Temperature Breakdown'!E$25:E$40,MATCH(Mapping!$C17,'Temperature Breakdown'!$A$25:$A$40,0)))</f>
+        <v>0.14961240310077517</v>
+      </c>
+      <c r="F17" s="6">
+        <f>IF($C17="average",Efficiencies!E$27,INDEX('Temperature Breakdown'!F$25:F$40,MATCH(Mapping!$C17,'Temperature Breakdown'!$A$25:$A$40,0)))</f>
+        <v>0.19767441860465118</v>
+      </c>
+      <c r="G17" s="6">
+        <f>IF($C17="average",Efficiencies!F$27,INDEX('Temperature Breakdown'!G$25:G$40,MATCH(Mapping!$C17,'Temperature Breakdown'!$A$25:$A$40,0)))</f>
+        <v>0.13178294573643412</v>
+      </c>
+      <c r="H17" s="6">
+        <f>IF($C17="average",Efficiencies!G$27,INDEX('Temperature Breakdown'!H$25:H$40,MATCH(Mapping!$C17,'Temperature Breakdown'!$A$25:$A$40,0)))</f>
+        <v>0</v>
+      </c>
+      <c r="I17" s="6">
+        <f>IF($C17="average",Efficiencies!H$27,INDEX('Temperature Breakdown'!I$25:I$40,MATCH(Mapping!$C17,'Temperature Breakdown'!$A$25:$A$40,0)))</f>
+        <v>0.18604651162790697</v>
+      </c>
+      <c r="J17" s="4"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>472</v>
+      </c>
+      <c r="C18" t="s">
+        <v>372</v>
+      </c>
+      <c r="D18" s="6">
+        <f>IF($C18="average",Efficiencies!C$27,INDEX('Temperature Breakdown'!D$25:D$40,MATCH(Mapping!$C18,'Temperature Breakdown'!$A$25:$A$40,0)))</f>
+        <v>0.33488372093023255</v>
+      </c>
+      <c r="E18" s="6">
+        <f>IF($C18="average",Efficiencies!D$27,INDEX('Temperature Breakdown'!E$25:E$40,MATCH(Mapping!$C18,'Temperature Breakdown'!$A$25:$A$40,0)))</f>
+        <v>0.14961240310077517</v>
+      </c>
+      <c r="F18" s="6">
+        <f>IF($C18="average",Efficiencies!E$27,INDEX('Temperature Breakdown'!F$25:F$40,MATCH(Mapping!$C18,'Temperature Breakdown'!$A$25:$A$40,0)))</f>
+        <v>0.19767441860465118</v>
+      </c>
+      <c r="G18" s="6">
+        <f>IF($C18="average",Efficiencies!F$27,INDEX('Temperature Breakdown'!G$25:G$40,MATCH(Mapping!$C18,'Temperature Breakdown'!$A$25:$A$40,0)))</f>
+        <v>0.13178294573643412</v>
+      </c>
+      <c r="H18" s="6">
+        <f>IF($C18="average",Efficiencies!G$27,INDEX('Temperature Breakdown'!H$25:H$40,MATCH(Mapping!$C18,'Temperature Breakdown'!$A$25:$A$40,0)))</f>
+        <v>0</v>
+      </c>
+      <c r="I18" s="6">
+        <f>IF($C18="average",Efficiencies!H$27,INDEX('Temperature Breakdown'!I$25:I$40,MATCH(Mapping!$C18,'Temperature Breakdown'!$A$25:$A$40,0)))</f>
+        <v>0.18604651162790697</v>
+      </c>
+      <c r="J18" s="4"/>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>473</v>
+      </c>
+      <c r="C19" t="s">
+        <v>370</v>
+      </c>
+      <c r="D19" s="6">
+        <f>IF($C19="average",Efficiencies!C$27,INDEX('Temperature Breakdown'!D$25:D$40,MATCH(Mapping!$C19,'Temperature Breakdown'!$A$25:$A$40,0)))</f>
+        <v>0.26046511627906982</v>
+      </c>
+      <c r="E19" s="6">
+        <f>IF($C19="average",Efficiencies!D$27,INDEX('Temperature Breakdown'!E$25:E$40,MATCH(Mapping!$C19,'Temperature Breakdown'!$A$25:$A$40,0)))</f>
+        <v>0.1</v>
+      </c>
+      <c r="F19" s="6">
+        <f>IF($C19="average",Efficiencies!E$27,INDEX('Temperature Breakdown'!F$25:F$40,MATCH(Mapping!$C19,'Temperature Breakdown'!$A$25:$A$40,0)))</f>
+        <v>0.10465116279069767</v>
+      </c>
+      <c r="G19" s="6">
+        <f>IF($C19="average",Efficiencies!F$27,INDEX('Temperature Breakdown'!G$25:G$40,MATCH(Mapping!$C19,'Temperature Breakdown'!$A$25:$A$40,0)))</f>
+        <v>0.12209302325581395</v>
+      </c>
+      <c r="H19" s="6">
+        <f>IF($C19="average",Efficiencies!G$27,INDEX('Temperature Breakdown'!H$25:H$40,MATCH(Mapping!$C19,'Temperature Breakdown'!$A$25:$A$40,0)))</f>
+        <v>0.15697674418604651</v>
+      </c>
+      <c r="I19" s="6">
+        <f>IF($C19="average",Efficiencies!H$27,INDEX('Temperature Breakdown'!I$25:I$40,MATCH(Mapping!$C19,'Temperature Breakdown'!$A$25:$A$40,0)))</f>
+        <v>0.2558139534883721</v>
+      </c>
+      <c r="J19" s="4"/>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>474</v>
+      </c>
+      <c r="C20" t="s">
+        <v>370</v>
+      </c>
+      <c r="D20" s="6">
+        <f>IF($C20="average",Efficiencies!C$27,INDEX('Temperature Breakdown'!D$25:D$40,MATCH(Mapping!$C20,'Temperature Breakdown'!$A$25:$A$40,0)))</f>
+        <v>0.26046511627906982</v>
+      </c>
+      <c r="E20" s="6">
+        <f>IF($C20="average",Efficiencies!D$27,INDEX('Temperature Breakdown'!E$25:E$40,MATCH(Mapping!$C20,'Temperature Breakdown'!$A$25:$A$40,0)))</f>
+        <v>0.1</v>
+      </c>
+      <c r="F20" s="6">
+        <f>IF($C20="average",Efficiencies!E$27,INDEX('Temperature Breakdown'!F$25:F$40,MATCH(Mapping!$C20,'Temperature Breakdown'!$A$25:$A$40,0)))</f>
+        <v>0.10465116279069767</v>
+      </c>
+      <c r="G20" s="6">
+        <f>IF($C20="average",Efficiencies!F$27,INDEX('Temperature Breakdown'!G$25:G$40,MATCH(Mapping!$C20,'Temperature Breakdown'!$A$25:$A$40,0)))</f>
+        <v>0.12209302325581395</v>
+      </c>
+      <c r="H20" s="6">
+        <f>IF($C20="average",Efficiencies!G$27,INDEX('Temperature Breakdown'!H$25:H$40,MATCH(Mapping!$C20,'Temperature Breakdown'!$A$25:$A$40,0)))</f>
+        <v>0.15697674418604651</v>
+      </c>
+      <c r="I20" s="6">
+        <f>IF($C20="average",Efficiencies!H$27,INDEX('Temperature Breakdown'!I$25:I$40,MATCH(Mapping!$C20,'Temperature Breakdown'!$A$25:$A$40,0)))</f>
+        <v>0.2558139534883721</v>
+      </c>
+      <c r="J20" s="4"/>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>475</v>
+      </c>
+      <c r="C21" t="s">
+        <v>371</v>
+      </c>
+      <c r="D21" s="6">
+        <f>IF($C21="average",Efficiencies!C$27,INDEX('Temperature Breakdown'!D$25:D$40,MATCH(Mapping!$C21,'Temperature Breakdown'!$A$25:$A$40,0)))</f>
+        <v>0.33488372093023255</v>
+      </c>
+      <c r="E21" s="6">
+        <f>IF($C21="average",Efficiencies!D$27,INDEX('Temperature Breakdown'!E$25:E$40,MATCH(Mapping!$C21,'Temperature Breakdown'!$A$25:$A$40,0)))</f>
+        <v>0.14961240310077517</v>
+      </c>
+      <c r="F21" s="6">
+        <f>IF($C21="average",Efficiencies!E$27,INDEX('Temperature Breakdown'!F$25:F$40,MATCH(Mapping!$C21,'Temperature Breakdown'!$A$25:$A$40,0)))</f>
+        <v>0.19767441860465118</v>
+      </c>
+      <c r="G21" s="6">
+        <f>IF($C21="average",Efficiencies!F$27,INDEX('Temperature Breakdown'!G$25:G$40,MATCH(Mapping!$C21,'Temperature Breakdown'!$A$25:$A$40,0)))</f>
+        <v>0.13178294573643412</v>
+      </c>
+      <c r="H21" s="6">
+        <f>IF($C21="average",Efficiencies!G$27,INDEX('Temperature Breakdown'!H$25:H$40,MATCH(Mapping!$C21,'Temperature Breakdown'!$A$25:$A$40,0)))</f>
+        <v>0</v>
+      </c>
+      <c r="I21" s="6">
+        <f>IF($C21="average",Efficiencies!H$27,INDEX('Temperature Breakdown'!I$25:I$40,MATCH(Mapping!$C21,'Temperature Breakdown'!$A$25:$A$40,0)))</f>
+        <v>0.18604651162790697</v>
+      </c>
+      <c r="J21" s="4"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>476</v>
+      </c>
+      <c r="C22" t="s">
+        <v>371</v>
+      </c>
+      <c r="D22" s="6">
+        <f>IF($C22="average",Efficiencies!C$27,INDEX('Temperature Breakdown'!D$25:D$40,MATCH(Mapping!$C22,'Temperature Breakdown'!$A$25:$A$40,0)))</f>
+        <v>0.33488372093023255</v>
+      </c>
+      <c r="E22" s="6">
+        <f>IF($C22="average",Efficiencies!D$27,INDEX('Temperature Breakdown'!E$25:E$40,MATCH(Mapping!$C22,'Temperature Breakdown'!$A$25:$A$40,0)))</f>
+        <v>0.14961240310077517</v>
+      </c>
+      <c r="F22" s="6">
+        <f>IF($C22="average",Efficiencies!E$27,INDEX('Temperature Breakdown'!F$25:F$40,MATCH(Mapping!$C22,'Temperature Breakdown'!$A$25:$A$40,0)))</f>
+        <v>0.19767441860465118</v>
+      </c>
+      <c r="G22" s="6">
+        <f>IF($C22="average",Efficiencies!F$27,INDEX('Temperature Breakdown'!G$25:G$40,MATCH(Mapping!$C22,'Temperature Breakdown'!$A$25:$A$40,0)))</f>
+        <v>0.13178294573643412</v>
+      </c>
+      <c r="H22" s="6">
+        <f>IF($C22="average",Efficiencies!G$27,INDEX('Temperature Breakdown'!H$25:H$40,MATCH(Mapping!$C22,'Temperature Breakdown'!$A$25:$A$40,0)))</f>
+        <v>0</v>
+      </c>
+      <c r="I22" s="6">
+        <f>IF($C22="average",Efficiencies!H$27,INDEX('Temperature Breakdown'!I$25:I$40,MATCH(Mapping!$C22,'Temperature Breakdown'!$A$25:$A$40,0)))</f>
+        <v>0.18604651162790697</v>
+      </c>
+      <c r="J22" s="4"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>477</v>
+      </c>
+      <c r="C23" t="s">
+        <v>375</v>
+      </c>
+      <c r="D23" s="6">
+        <f>IF($C23="average",Efficiencies!C$27,INDEX('Temperature Breakdown'!D$25:D$40,MATCH(Mapping!$C23,'Temperature Breakdown'!$A$25:$A$40,0)))</f>
+        <v>0.33488372093023255</v>
+      </c>
+      <c r="E23" s="6">
+        <f>IF($C23="average",Efficiencies!D$27,INDEX('Temperature Breakdown'!E$25:E$40,MATCH(Mapping!$C23,'Temperature Breakdown'!$A$25:$A$40,0)))</f>
+        <v>0.14961240310077517</v>
+      </c>
+      <c r="F23" s="6">
+        <f>IF($C23="average",Efficiencies!E$27,INDEX('Temperature Breakdown'!F$25:F$40,MATCH(Mapping!$C23,'Temperature Breakdown'!$A$25:$A$40,0)))</f>
+        <v>0.19767441860465118</v>
+      </c>
+      <c r="G23" s="6">
+        <f>IF($C23="average",Efficiencies!F$27,INDEX('Temperature Breakdown'!G$25:G$40,MATCH(Mapping!$C23,'Temperature Breakdown'!$A$25:$A$40,0)))</f>
+        <v>0.13178294573643412</v>
+      </c>
+      <c r="H23" s="6">
+        <f>IF($C23="average",Efficiencies!G$27,INDEX('Temperature Breakdown'!H$25:H$40,MATCH(Mapping!$C23,'Temperature Breakdown'!$A$25:$A$40,0)))</f>
+        <v>0</v>
+      </c>
+      <c r="I23" s="6">
+        <f>IF($C23="average",Efficiencies!H$27,INDEX('Temperature Breakdown'!I$25:I$40,MATCH(Mapping!$C23,'Temperature Breakdown'!$A$25:$A$40,0)))</f>
+        <v>0.18604651162790697</v>
+      </c>
+      <c r="J23" s="4"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>478</v>
+      </c>
+      <c r="C24" t="s">
+        <v>484</v>
+      </c>
+      <c r="D24" s="6">
+        <f>IF($C24="average",Efficiencies!C$27,INDEX('Temperature Breakdown'!D$25:D$40,MATCH(Mapping!$C24,'Temperature Breakdown'!$A$25:$A$40,0)))</f>
+        <v>0.22712128261679607</v>
+      </c>
+      <c r="E24" s="6">
+        <f>IF($C24="average",Efficiencies!D$27,INDEX('Temperature Breakdown'!E$25:E$40,MATCH(Mapping!$C24,'Temperature Breakdown'!$A$25:$A$40,0)))</f>
+        <v>0.18096501818637736</v>
+      </c>
+      <c r="F24" s="6">
+        <f>IF($C24="average",Efficiencies!E$27,INDEX('Temperature Breakdown'!F$25:F$40,MATCH(Mapping!$C24,'Temperature Breakdown'!$A$25:$A$40,0)))</f>
+        <v>0.20705409259653504</v>
+      </c>
+      <c r="G24" s="6">
+        <f>IF($C24="average",Efficiencies!F$27,INDEX('Temperature Breakdown'!G$25:G$40,MATCH(Mapping!$C24,'Temperature Breakdown'!$A$25:$A$40,0)))</f>
+        <v>9.990108165832158E-2</v>
+      </c>
+      <c r="H24" s="6">
+        <f>IF($C24="average",Efficiencies!G$27,INDEX('Temperature Breakdown'!H$25:H$40,MATCH(Mapping!$C24,'Temperature Breakdown'!$A$25:$A$40,0)))</f>
+        <v>6.4928393115227967E-2</v>
+      </c>
+      <c r="I24" s="6">
+        <f>IF($C24="average",Efficiencies!H$27,INDEX('Temperature Breakdown'!I$25:I$40,MATCH(Mapping!$C24,'Temperature Breakdown'!$A$25:$A$40,0)))</f>
+        <v>0.22003013182674194</v>
+      </c>
+      <c r="J24" s="4"/>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>479</v>
+      </c>
+      <c r="C25" t="s">
+        <v>484</v>
+      </c>
+      <c r="D25" s="6">
+        <f>IF($C25="average",Efficiencies!C$27,INDEX('Temperature Breakdown'!D$25:D$40,MATCH(Mapping!$C25,'Temperature Breakdown'!$A$25:$A$40,0)))</f>
+        <v>0.22712128261679607</v>
+      </c>
+      <c r="E25" s="6">
+        <f>IF($C25="average",Efficiencies!D$27,INDEX('Temperature Breakdown'!E$25:E$40,MATCH(Mapping!$C25,'Temperature Breakdown'!$A$25:$A$40,0)))</f>
+        <v>0.18096501818637736</v>
+      </c>
+      <c r="F25" s="6">
+        <f>IF($C25="average",Efficiencies!E$27,INDEX('Temperature Breakdown'!F$25:F$40,MATCH(Mapping!$C25,'Temperature Breakdown'!$A$25:$A$40,0)))</f>
+        <v>0.20705409259653504</v>
+      </c>
+      <c r="G25" s="6">
+        <f>IF($C25="average",Efficiencies!F$27,INDEX('Temperature Breakdown'!G$25:G$40,MATCH(Mapping!$C25,'Temperature Breakdown'!$A$25:$A$40,0)))</f>
+        <v>9.990108165832158E-2</v>
+      </c>
+      <c r="H25" s="6">
+        <f>IF($C25="average",Efficiencies!G$27,INDEX('Temperature Breakdown'!H$25:H$40,MATCH(Mapping!$C25,'Temperature Breakdown'!$A$25:$A$40,0)))</f>
+        <v>6.4928393115227967E-2</v>
+      </c>
+      <c r="I25" s="6">
+        <f>IF($C25="average",Efficiencies!H$27,INDEX('Temperature Breakdown'!I$25:I$40,MATCH(Mapping!$C25,'Temperature Breakdown'!$A$25:$A$40,0)))</f>
+        <v>0.22003013182674194</v>
+      </c>
+      <c r="J25" s="4"/>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>480</v>
+      </c>
+      <c r="C26" t="s">
+        <v>484</v>
+      </c>
+      <c r="D26" s="6">
+        <f>IF($C26="average",Efficiencies!C$27,INDEX('Temperature Breakdown'!D$25:D$40,MATCH(Mapping!$C26,'Temperature Breakdown'!$A$25:$A$40,0)))</f>
+        <v>0.22712128261679607</v>
+      </c>
+      <c r="E26" s="6">
+        <f>IF($C26="average",Efficiencies!D$27,INDEX('Temperature Breakdown'!E$25:E$40,MATCH(Mapping!$C26,'Temperature Breakdown'!$A$25:$A$40,0)))</f>
+        <v>0.18096501818637736</v>
+      </c>
+      <c r="F26" s="6">
+        <f>IF($C26="average",Efficiencies!E$27,INDEX('Temperature Breakdown'!F$25:F$40,MATCH(Mapping!$C26,'Temperature Breakdown'!$A$25:$A$40,0)))</f>
+        <v>0.20705409259653504</v>
+      </c>
+      <c r="G26" s="6">
+        <f>IF($C26="average",Efficiencies!F$27,INDEX('Temperature Breakdown'!G$25:G$40,MATCH(Mapping!$C26,'Temperature Breakdown'!$A$25:$A$40,0)))</f>
+        <v>9.990108165832158E-2</v>
+      </c>
+      <c r="H26" s="6">
+        <f>IF($C26="average",Efficiencies!G$27,INDEX('Temperature Breakdown'!H$25:H$40,MATCH(Mapping!$C26,'Temperature Breakdown'!$A$25:$A$40,0)))</f>
+        <v>6.4928393115227967E-2</v>
+      </c>
+      <c r="I26" s="6">
+        <f>IF($C26="average",Efficiencies!H$27,INDEX('Temperature Breakdown'!I$25:I$40,MATCH(Mapping!$C26,'Temperature Breakdown'!$A$25:$A$40,0)))</f>
+        <v>0.22003013182674194</v>
+      </c>
+      <c r="J26" s="4"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="D2:I26">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>